--- a/outcome/appendix/Figure Data/Fig.5 data.xlsx
+++ b/outcome/appendix/Figure Data/Fig.5 data.xlsx
@@ -548,7 +548,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>40164.007155695</v>
+        <v>40177.1022439771</v>
       </c>
       <c r="C2" t="n">
         <v>16969.3616152968</v>
@@ -557,10 +557,10 @@
         <v>11567.1808221565</v>
       </c>
       <c r="E2" t="n">
-        <v>88508.248066381</v>
+        <v>88862.7376407396</v>
       </c>
       <c r="F2" t="n">
-        <v>106286.78312479</v>
+        <v>106879.658277039</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -569,7 +569,7 @@
         <v>28355</v>
       </c>
       <c r="I2" t="n">
-        <v>11809.007155695</v>
+        <v>11822.1022439771</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -589,7 +589,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>26625.9557901002</v>
+        <v>25769.1696600403</v>
       </c>
       <c r="C3" t="n">
         <v>3029.89708128877</v>
@@ -598,10 +598,10 @@
         <v>1047.19818451228</v>
       </c>
       <c r="E3" t="n">
-        <v>103253.561032738</v>
+        <v>95489.5977776415</v>
       </c>
       <c r="F3" t="n">
-        <v>131814.405603026</v>
+        <v>119817.976154743</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -610,7 +610,7 @@
         <v>3263</v>
       </c>
       <c r="I3" t="n">
-        <v>23362.9557901002</v>
+        <v>22506.1696600403</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -630,7 +630,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>49881.2970433362</v>
+        <v>48935.0115710994</v>
       </c>
       <c r="C4" t="n">
         <v>11293.6214742715</v>
@@ -639,10 +639,10 @@
         <v>5224.26189745484</v>
       </c>
       <c r="E4" t="n">
-        <v>117881.484039125</v>
+        <v>106927.09197478</v>
       </c>
       <c r="F4" t="n">
-        <v>147966.380383094</v>
+        <v>147656.828741348</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -651,7 +651,7 @@
         <v>2869</v>
       </c>
       <c r="I4" t="n">
-        <v>47012.2970433362</v>
+        <v>46066.0115710994</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -671,7 +671,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>134292.632732626</v>
+        <v>133349.002426305</v>
       </c>
       <c r="C5" t="n">
         <v>53361.7718949051</v>
@@ -692,7 +692,7 @@
         <v>3001</v>
       </c>
       <c r="I5" t="n">
-        <v>131291.632732626</v>
+        <v>130348.002426305</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -712,7 +712,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>258921.528619012</v>
+        <v>259915.505770354</v>
       </c>
       <c r="C6" t="n">
         <v>124915.021401074</v>
@@ -733,7 +733,7 @@
         <v>3919</v>
       </c>
       <c r="I6" t="n">
-        <v>255002.528619012</v>
+        <v>255996.505770354</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -753,7 +753,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>299995.331334834</v>
+        <v>301944.438976587</v>
       </c>
       <c r="C7" t="n">
         <v>139467.618027384</v>
@@ -774,7 +774,7 @@
         <v>6260</v>
       </c>
       <c r="I7" t="n">
-        <v>293735.331334834</v>
+        <v>295684.438976587</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -794,7 +794,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>255273.549027337</v>
+        <v>257954.942078507</v>
       </c>
       <c r="C8" t="n">
         <v>97563.4798726928</v>
@@ -815,7 +815,7 @@
         <v>59143</v>
       </c>
       <c r="I8" t="n">
-        <v>196130.549027337</v>
+        <v>198811.942078507</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -835,7 +835,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>159590.665364349</v>
+        <v>159470.244027219</v>
       </c>
       <c r="C9" t="n">
         <v>37221.7066070934</v>
@@ -844,7 +844,7 @@
         <v>16138.656264602</v>
       </c>
       <c r="E9" t="n">
-        <v>329302.287149674</v>
+        <v>342929.864523746</v>
       </c>
       <c r="F9" t="n">
         <v>443375.369413727</v>
@@ -856,7 +856,7 @@
         <v>59143</v>
       </c>
       <c r="I9" t="n">
-        <v>100447.665364349</v>
+        <v>100327.244027219</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -876,7 +876,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>155312.503860583</v>
+        <v>156035.667213736</v>
       </c>
       <c r="C10" t="n">
         <v>37904.9106667436</v>
@@ -897,7 +897,7 @@
         <v>115170</v>
       </c>
       <c r="I10" t="n">
-        <v>40142.5038605834</v>
+        <v>40865.6672137364</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -917,7 +917,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>140381.831438838</v>
+        <v>142843.311847505</v>
       </c>
       <c r="C11" t="n">
         <v>33218.8968124578</v>
@@ -938,7 +938,7 @@
         <v>199875</v>
       </c>
       <c r="I11" t="n">
-        <v>-59493.1685611619</v>
+        <v>-57031.6881524951</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -958,7 +958,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>117622.476129339</v>
+        <v>120985.119736584</v>
       </c>
       <c r="C12" t="n">
         <v>20796.1922696631</v>
@@ -979,7 +979,7 @@
         <v>189017</v>
       </c>
       <c r="I12" t="n">
-        <v>-71394.5238706613</v>
+        <v>-68031.8802634157</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -999,7 +999,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>88368.9785223465</v>
+        <v>89450.779603584</v>
       </c>
       <c r="C13" t="n">
         <v>9900.17579102057</v>
@@ -1020,7 +1020,7 @@
         <v>131798</v>
       </c>
       <c r="I13" t="n">
-        <v>-43429.0214776535</v>
+        <v>-42347.220396416</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -1040,7 +1040,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>51637.3549194063</v>
+        <v>51513.92524808</v>
       </c>
       <c r="C14" t="n">
         <v>1451.44520281947</v>
@@ -1061,7 +1061,7 @@
         <v>63209</v>
       </c>
       <c r="I14" t="n">
-        <v>-11571.6450805937</v>
+        <v>-11695.07475192</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -1081,7 +1081,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>29942.6114836473</v>
+        <v>29596.5527494463</v>
       </c>
       <c r="C15" t="n">
         <v>0.166445454470808</v>
@@ -1102,7 +1102,7 @@
         <v>18529</v>
       </c>
       <c r="I15" t="n">
-        <v>11413.6114836473</v>
+        <v>11067.5527494463</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1122,7 +1122,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>61585.8915629287</v>
+        <v>59488.4891217952</v>
       </c>
       <c r="C16" t="n">
         <v>1155.98843299379</v>
@@ -1143,7 +1143,7 @@
         <v>36206</v>
       </c>
       <c r="I16" t="n">
-        <v>25379.8915629287</v>
+        <v>23282.4891217952</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -1163,7 +1163,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>158519.798566305</v>
+        <v>155507.10986807</v>
       </c>
       <c r="C17" t="n">
         <v>19776.7665234654</v>
@@ -1184,7 +1184,7 @@
         <v>144167</v>
       </c>
       <c r="I17" t="n">
-        <v>14352.7985663046</v>
+        <v>11340.1098680704</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -1204,7 +1204,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>294699.799952628</v>
+        <v>292710.948957056</v>
       </c>
       <c r="C18" t="n">
         <v>65076.5482224243</v>
@@ -1225,7 +1225,7 @@
         <v>240838</v>
       </c>
       <c r="I18" t="n">
-        <v>53861.7999526284</v>
+        <v>51872.9489570563</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -1245,7 +1245,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>334503.028863074</v>
+        <v>334708.977540571</v>
       </c>
       <c r="C19" t="n">
         <v>77356.3737302722</v>
@@ -1266,7 +1266,7 @@
         <v>224426</v>
       </c>
       <c r="I19" t="n">
-        <v>110077.028863074</v>
+        <v>110282.977540571</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -1286,7 +1286,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>277915.945017621</v>
+        <v>283294.825995246</v>
       </c>
       <c r="C20" t="n">
         <v>51117.9485255163</v>
@@ -1307,7 +1307,7 @@
         <v>162987</v>
       </c>
       <c r="I20" t="n">
-        <v>114928.945017621</v>
+        <v>120307.825995246</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -1327,7 +1327,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>171737.243858548</v>
+        <v>174921.955876165</v>
       </c>
       <c r="C21" t="n">
         <v>14876.9129205413</v>
@@ -1348,7 +1348,7 @@
         <v>71283</v>
       </c>
       <c r="I21" t="n">
-        <v>100454.243858548</v>
+        <v>103638.955876165</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -1368,7 +1368,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>168312.626334173</v>
+        <v>169712.535232672</v>
       </c>
       <c r="C22" t="n">
         <v>15873.1881741792</v>
@@ -1389,7 +1389,7 @@
         <v>86635</v>
       </c>
       <c r="I22" t="n">
-        <v>81677.6263341728</v>
+        <v>83077.5352326723</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -1409,7 +1409,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>153166.350753464</v>
+        <v>154778.352610841</v>
       </c>
       <c r="C23" t="n">
         <v>13735.3302146054</v>
@@ -1430,7 +1430,7 @@
         <v>132070</v>
       </c>
       <c r="I23" t="n">
-        <v>21096.3507534642</v>
+        <v>22708.352610841</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -1450,7 +1450,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>131038.369567319</v>
+        <v>133760.586281392</v>
       </c>
       <c r="C24" t="n">
         <v>7367.72624024737</v>
@@ -1471,7 +1471,7 @@
         <v>113473</v>
       </c>
       <c r="I24" t="n">
-        <v>17565.3695673191</v>
+        <v>20287.5862813919</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -1491,7 +1491,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>100733.581364989</v>
+        <v>104371.45186723</v>
       </c>
       <c r="C25" t="n">
         <v>2459.45770717749</v>
@@ -1512,7 +1512,7 @@
         <v>74421</v>
       </c>
       <c r="I25" t="n">
-        <v>26312.5813649895</v>
+        <v>29950.4518672298</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -1532,7 +1532,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>61120.5974950398</v>
+        <v>64842.1547980633</v>
       </c>
       <c r="C26" t="n">
         <v>27.4305813201427</v>
@@ -1553,7 +1553,7 @@
         <v>44183</v>
       </c>
       <c r="I26" t="n">
-        <v>16937.5974950398</v>
+        <v>20659.1547980633</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -1573,7 +1573,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>35333.1600064059</v>
+        <v>36437.9594248114</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>18134</v>
       </c>
       <c r="I27" t="n">
-        <v>17199.1600064059</v>
+        <v>18303.9594248114</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -1614,7 +1614,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>71159.7373402074</v>
+        <v>65020.7923337705</v>
       </c>
       <c r="C28" t="n">
         <v>16.6480962398356</v>
@@ -1635,7 +1635,7 @@
         <v>33287</v>
       </c>
       <c r="I28" t="n">
-        <v>37872.7373402074</v>
+        <v>31733.7923337705</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -1655,7 +1655,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>174372.104420504</v>
+        <v>162621.133035637</v>
       </c>
       <c r="C29" t="n">
         <v>8025.99920216501</v>
@@ -1676,7 +1676,7 @@
         <v>44794</v>
       </c>
       <c r="I29" t="n">
-        <v>129578.104420504</v>
+        <v>117827.133035637</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -1696,7 +1696,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>313060.055632862</v>
+        <v>300084.122310934</v>
       </c>
       <c r="C30" t="n">
         <v>37887.1625174603</v>
@@ -1717,7 +1717,7 @@
         <v>70042</v>
       </c>
       <c r="I30" t="n">
-        <v>243018.055632862</v>
+        <v>230042.122310934</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -1737,7 +1737,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>351338.174680075</v>
+        <v>345117.420313256</v>
       </c>
       <c r="C31" t="n">
         <v>47231.5228150507</v>
@@ -1758,7 +1758,7 @@
         <v>140661</v>
       </c>
       <c r="I31" t="n">
-        <v>210677.174680075</v>
+        <v>204456.420313256</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -1778,7 +1778,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>293118.540852616</v>
+        <v>299553.281507999</v>
       </c>
       <c r="C32" t="n">
         <v>28979.0084271612</v>
@@ -1799,7 +1799,7 @@
         <v>108973</v>
       </c>
       <c r="I32" t="n">
-        <v>184145.540852616</v>
+        <v>190580.281507999</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -1819,7 +1819,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>184367.304598676</v>
+        <v>191968.033697034</v>
       </c>
       <c r="C33" t="n">
         <v>5936.08830935258</v>
@@ -1840,7 +1840,7 @@
         <v>54528</v>
       </c>
       <c r="I33" t="n">
-        <v>129839.304598676</v>
+        <v>137440.033697034</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -1860,7 +1860,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>181208.36783591</v>
+        <v>186177.755250716</v>
       </c>
       <c r="C34" t="n">
         <v>6624.767915963</v>
@@ -1881,7 +1881,7 @@
         <v>44872</v>
       </c>
       <c r="I34" t="n">
-        <v>136336.36783591</v>
+        <v>141305.755250716</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -1901,7 +1901,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>166300.075249728</v>
+        <v>168764.922668157</v>
       </c>
       <c r="C35" t="n">
         <v>5536.39051589146</v>
@@ -1922,7 +1922,7 @@
         <v>47395</v>
       </c>
       <c r="I35" t="n">
-        <v>118905.075249728</v>
+        <v>121369.922668157</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -1942,7 +1942,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>144293.546605781</v>
+        <v>146389.96790621</v>
       </c>
       <c r="C36" t="n">
         <v>2299.82069790093</v>
@@ -1963,7 +1963,7 @@
         <v>50633</v>
       </c>
       <c r="I36" t="n">
-        <v>93660.546605781</v>
+        <v>95756.96790621</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -1983,7 +1983,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>112414.472260467</v>
+        <v>116142.74795159</v>
       </c>
       <c r="C37" t="n">
         <v>362.552952218904</v>
@@ -2004,7 +2004,7 @@
         <v>27747</v>
       </c>
       <c r="I37" t="n">
-        <v>84667.4722604672</v>
+        <v>88395.7479515904</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -2024,7 +2024,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>70705.5951116476</v>
+        <v>77809.5495471991</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>2484</v>
       </c>
       <c r="I38" t="n">
-        <v>68221.5951116476</v>
+        <v>75325.5495471991</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -2065,7 +2065,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42669.2488443306</v>
+        <v>47157.9883559624</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>3935</v>
       </c>
       <c r="I39" t="n">
-        <v>38734.2488443306</v>
+        <v>43222.9883559624</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -2098,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -2106,7 +2106,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>82579.8193242406</v>
+        <v>71494.5968501535</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>9631</v>
       </c>
       <c r="I40" t="n">
-        <v>72948.8193242406</v>
+        <v>61863.5968501535</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -2139,7 +2139,7 @@
         <v>16</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -2147,7 +2147,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>192924.751425835</v>
+        <v>171303.964370679</v>
       </c>
       <c r="C41" t="n">
         <v>2906.22644962133</v>
@@ -2168,7 +2168,7 @@
         <v>20105</v>
       </c>
       <c r="I41" t="n">
-        <v>172819.751425835</v>
+        <v>151198.964370679</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -2188,7 +2188,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>337293.587625331</v>
+        <v>311674.595194842</v>
       </c>
       <c r="C42" t="n">
         <v>22332.6941477881</v>
@@ -2209,7 +2209,7 @@
         <v>91259</v>
       </c>
       <c r="I42" t="n">
-        <v>246034.587625331</v>
+        <v>220415.595194842</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
@@ -2229,7 +2229,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>375732.751640509</v>
+        <v>362645.123257044</v>
       </c>
       <c r="C43" t="n">
         <v>29305.9672301651</v>
@@ -2250,7 +2250,7 @@
         <v>433084</v>
       </c>
       <c r="I43" t="n">
-        <v>-57351.2483594914</v>
+        <v>-70438.8767429563</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -2270,7 +2270,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>315110.083866656</v>
+        <v>328438.973641284</v>
       </c>
       <c r="C44" t="n">
         <v>16393.8039872645</v>
@@ -2291,7 +2291,7 @@
         <v>457212</v>
       </c>
       <c r="I44" t="n">
-        <v>-142101.916133344</v>
+        <v>-128773.026358716</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -2311,7 +2311,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>200112.57979471</v>
+        <v>221203.884830806</v>
       </c>
       <c r="C45" t="n">
         <v>2012.88440145311</v>
@@ -2332,7 +2332,7 @@
         <v>193538</v>
       </c>
       <c r="I45" t="n">
-        <v>6574.57979471004</v>
+        <v>27665.8848308059</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
@@ -2352,7 +2352,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>195858.241747546</v>
+        <v>206698.593631119</v>
       </c>
       <c r="C46" t="n">
         <v>2401.21253373489</v>
@@ -2373,7 +2373,7 @@
         <v>166980</v>
       </c>
       <c r="I46" t="n">
-        <v>28878.2417475465</v>
+        <v>39718.593631119</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>
@@ -2393,7 +2393,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>182128.880514158</v>
+        <v>184131.154896708</v>
       </c>
       <c r="C47" t="n">
         <v>1879.78259450977</v>
@@ -2414,7 +2414,7 @@
         <v>165527</v>
       </c>
       <c r="I47" t="n">
-        <v>16601.8805141582</v>
+        <v>18604.154896708</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
@@ -2434,7 +2434,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>160500.414528959</v>
+        <v>162064.687215282</v>
       </c>
       <c r="C48" t="n">
         <v>469.664275501941</v>
@@ -2455,7 +2455,7 @@
         <v>92955</v>
       </c>
       <c r="I48" t="n">
-        <v>67545.414528959</v>
+        <v>69109.6872152817</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -2475,7 +2475,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>126878.897985955</v>
+        <v>132484.875632229</v>
       </c>
       <c r="C49" t="n">
         <v>2.57199653831654</v>
@@ -2496,7 +2496,7 @@
         <v>46150</v>
       </c>
       <c r="I49" t="n">
-        <v>80728.8979859549</v>
+        <v>86334.8756322285</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -4066,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -4107,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -6034,7 +6034,7 @@
         <v>16</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -6075,7 +6075,7 @@
         <v>16</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -6452,7 +6452,7 @@
         <v>43831</v>
       </c>
       <c r="B146" t="n">
-        <v>2301.14176551591</v>
+        <v>2332.34698123695</v>
       </c>
       <c r="C146" t="n">
         <v>1402.45845867814</v>
@@ -6473,7 +6473,7 @@
         <v>2139</v>
       </c>
       <c r="I146" t="n">
-        <v>162.141765515915</v>
+        <v>193.346981236953</v>
       </c>
       <c r="J146" t="s">
         <v>14</v>
@@ -6493,7 +6493,7 @@
         <v>43862</v>
       </c>
       <c r="B147" t="n">
-        <v>1903.09417655727</v>
+        <v>1915.22081844539</v>
       </c>
       <c r="C147" t="n">
         <v>1074.38963336526</v>
@@ -6514,7 +6514,7 @@
         <v>1672</v>
       </c>
       <c r="I147" t="n">
-        <v>231.094176557268</v>
+        <v>243.22081844539</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
@@ -6534,7 +6534,7 @@
         <v>43891</v>
       </c>
       <c r="B148" t="n">
-        <v>3057.28010983117</v>
+        <v>3014.51614519195</v>
       </c>
       <c r="C148" t="n">
         <v>1582.26540413731</v>
@@ -6555,7 +6555,7 @@
         <v>2011</v>
       </c>
       <c r="I148" t="n">
-        <v>1046.28010983117</v>
+        <v>1003.51614519195</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
@@ -6575,7 +6575,7 @@
         <v>43922</v>
       </c>
       <c r="B149" t="n">
-        <v>3545.04034997452</v>
+        <v>3599.76721692688</v>
       </c>
       <c r="C149" t="n">
         <v>1739.64431240911</v>
@@ -6596,7 +6596,7 @@
         <v>2230</v>
       </c>
       <c r="I149" t="n">
-        <v>1315.04034997452</v>
+        <v>1369.76721692688</v>
       </c>
       <c r="J149" t="s">
         <v>14</v>
@@ -6616,7 +6616,7 @@
         <v>43952</v>
       </c>
       <c r="B150" t="n">
-        <v>4221.06882325518</v>
+        <v>4246.30002644646</v>
       </c>
       <c r="C150" t="n">
         <v>1809.7782935037</v>
@@ -6637,7 +6637,7 @@
         <v>2468</v>
       </c>
       <c r="I150" t="n">
-        <v>1753.06882325518</v>
+        <v>1778.30002644646</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
@@ -6657,7 +6657,7 @@
         <v>43983</v>
       </c>
       <c r="B151" t="n">
-        <v>4973.85703953425</v>
+        <v>4998.72422779812</v>
       </c>
       <c r="C151" t="n">
         <v>1898.54742543883</v>
@@ -6676,7 +6676,7 @@
         <v>2788</v>
       </c>
       <c r="I151" t="n">
-        <v>2185.85703953425</v>
+        <v>2210.72422779812</v>
       </c>
       <c r="J151" t="s">
         <v>14</v>
@@ -6696,7 +6696,7 @@
         <v>44013</v>
       </c>
       <c r="B152" t="n">
-        <v>5621.70485298858</v>
+        <v>5715.81948026677</v>
       </c>
       <c r="C152" t="n">
         <v>2005.73417052012</v>
@@ -6715,7 +6715,7 @@
         <v>2561</v>
       </c>
       <c r="I152" t="n">
-        <v>3060.70485298858</v>
+        <v>3154.81948026677</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -6735,7 +6735,7 @@
         <v>44044</v>
       </c>
       <c r="B153" t="n">
-        <v>5468.1542946846</v>
+        <v>5575.33601978507</v>
       </c>
       <c r="C153" t="n">
         <v>1769.74578922137</v>
@@ -6754,7 +6754,7 @@
         <v>2561</v>
       </c>
       <c r="I153" t="n">
-        <v>2907.1542946846</v>
+        <v>3014.33601978507</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -6774,7 +6774,7 @@
         <v>44075</v>
       </c>
       <c r="B154" t="n">
-        <v>6087.49207483023</v>
+        <v>6025.60452039181</v>
       </c>
       <c r="C154" t="n">
         <v>1671.95009098248</v>
@@ -6791,7 +6791,7 @@
         <v>2549</v>
       </c>
       <c r="I154" t="n">
-        <v>3538.49207483023</v>
+        <v>3476.60452039181</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -6811,7 +6811,7 @@
         <v>44105</v>
       </c>
       <c r="B155" t="n">
-        <v>4199.50127972044</v>
+        <v>4174.51471839304</v>
       </c>
       <c r="C155" t="n">
         <v>1408.21433272463</v>
@@ -6830,7 +6830,7 @@
         <v>2298</v>
       </c>
       <c r="I155" t="n">
-        <v>1901.50127972044</v>
+        <v>1876.51471839304</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -6850,7 +6850,7 @@
         <v>44136</v>
       </c>
       <c r="B156" t="n">
-        <v>3545.94845922953</v>
+        <v>3505.27664977402</v>
       </c>
       <c r="C156" t="n">
         <v>1143.88286409215</v>
@@ -6869,7 +6869,7 @@
         <v>2538</v>
       </c>
       <c r="I156" t="n">
-        <v>1007.94845922953</v>
+        <v>967.276649774017</v>
       </c>
       <c r="J156" t="s">
         <v>14</v>
@@ -6889,7 +6889,7 @@
         <v>44166</v>
       </c>
       <c r="B157" t="n">
-        <v>3227.93686571901</v>
+        <v>3233.11488899426</v>
       </c>
       <c r="C157" t="n">
         <v>974.237994155916</v>
@@ -6908,7 +6908,7 @@
         <v>2583</v>
       </c>
       <c r="I157" t="n">
-        <v>644.93686571901</v>
+        <v>650.114888994256</v>
       </c>
       <c r="J157" t="s">
         <v>14</v>
@@ -6928,7 +6928,7 @@
         <v>44197</v>
       </c>
       <c r="B158" t="n">
-        <v>2463.18178234539</v>
+        <v>2486.35296712465</v>
       </c>
       <c r="C158" t="n">
         <v>718.898811131472</v>
@@ -6949,7 +6949,7 @@
         <v>2305</v>
       </c>
       <c r="I158" t="n">
-        <v>158.18178234539</v>
+        <v>181.352967124654</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
@@ -6969,7 +6969,7 @@
         <v>44228</v>
       </c>
       <c r="B159" t="n">
-        <v>1936.0888090963</v>
+        <v>1956.85117058213</v>
       </c>
       <c r="C159" t="n">
         <v>624.421895107958</v>
@@ -6990,7 +6990,7 @@
         <v>1873</v>
       </c>
       <c r="I159" t="n">
-        <v>63.0888090962969</v>
+        <v>83.8511705821338</v>
       </c>
       <c r="J159" t="s">
         <v>14</v>
@@ -7010,7 +7010,7 @@
         <v>44256</v>
       </c>
       <c r="B160" t="n">
-        <v>3106.72822268123</v>
+        <v>3005.38972017024</v>
       </c>
       <c r="C160" t="n">
         <v>874.934646736935</v>
@@ -7029,7 +7029,7 @@
         <v>2885</v>
       </c>
       <c r="I160" t="n">
-        <v>221.728222681235</v>
+        <v>120.38972017024</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
@@ -7049,7 +7049,7 @@
         <v>44287</v>
       </c>
       <c r="B161" t="n">
-        <v>3648.63449358906</v>
+        <v>3649.32548951151</v>
       </c>
       <c r="C161" t="n">
         <v>973.402100363647</v>
@@ -7068,7 +7068,7 @@
         <v>2808</v>
       </c>
       <c r="I161" t="n">
-        <v>840.634493589057</v>
+        <v>841.325489511507</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
@@ -7088,7 +7088,7 @@
         <v>44317</v>
       </c>
       <c r="B162" t="n">
-        <v>4351.02937707594</v>
+        <v>4317.72861512231</v>
       </c>
       <c r="C162" t="n">
         <v>1032.76562489763</v>
@@ -7105,7 +7105,7 @@
         <v>2548</v>
       </c>
       <c r="I162" t="n">
-        <v>1803.02937707594</v>
+        <v>1769.72861512231</v>
       </c>
       <c r="J162" t="s">
         <v>14</v>
@@ -7125,7 +7125,7 @@
         <v>44348</v>
       </c>
       <c r="B163" t="n">
-        <v>5199.04677992971</v>
+        <v>5177.36313377682</v>
       </c>
       <c r="C163" t="n">
         <v>1098.44077312814</v>
@@ -7142,7 +7142,7 @@
         <v>2467</v>
       </c>
       <c r="I163" t="n">
-        <v>2732.04677992971</v>
+        <v>2710.36313377682</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
@@ -7162,7 +7162,7 @@
         <v>44378</v>
       </c>
       <c r="B164" t="n">
-        <v>5943.72092578541</v>
+        <v>5963.50573474867</v>
       </c>
       <c r="C164" t="n">
         <v>1183.13234495817</v>
@@ -7179,7 +7179,7 @@
         <v>2566</v>
       </c>
       <c r="I164" t="n">
-        <v>3377.72092578541</v>
+        <v>3397.50573474867</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
@@ -7199,7 +7199,7 @@
         <v>44409</v>
       </c>
       <c r="B165" t="n">
-        <v>5801.46190432126</v>
+        <v>5849.5132557682</v>
       </c>
       <c r="C165" t="n">
         <v>1198.18797157789</v>
@@ -7216,7 +7216,7 @@
         <v>2016</v>
       </c>
       <c r="I165" t="n">
-        <v>3785.46190432126</v>
+        <v>3833.5132557682</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -7236,7 +7236,7 @@
         <v>44440</v>
       </c>
       <c r="B166" t="n">
-        <v>6275.71075866895</v>
+        <v>6244.32214801761</v>
       </c>
       <c r="C166" t="n">
         <v>1157.71669924864</v>
@@ -7253,7 +7253,7 @@
         <v>2321</v>
       </c>
       <c r="I166" t="n">
-        <v>3954.71075866895</v>
+        <v>3923.32214801761</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -7273,7 +7273,7 @@
         <v>44470</v>
       </c>
       <c r="B167" t="n">
-        <v>4423.61851970529</v>
+        <v>4438.70993924164</v>
       </c>
       <c r="C167" t="n">
         <v>998.62145681024</v>
@@ -7290,7 +7290,7 @@
         <v>1994</v>
       </c>
       <c r="I167" t="n">
-        <v>2429.61851970529</v>
+        <v>2444.70993924164</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -7310,7 +7310,7 @@
         <v>44501</v>
       </c>
       <c r="B168" t="n">
-        <v>3742.75193233892</v>
+        <v>3664.5177292711</v>
       </c>
       <c r="C168" t="n">
         <v>789.447732342427</v>
@@ -7327,7 +7327,7 @@
         <v>2218</v>
       </c>
       <c r="I168" t="n">
-        <v>1524.75193233892</v>
+        <v>1446.5177292711</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -7347,7 +7347,7 @@
         <v>44531</v>
       </c>
       <c r="B169" t="n">
-        <v>3356.94257203687</v>
+        <v>3340.87677674951</v>
       </c>
       <c r="C169" t="n">
         <v>696.057765222493</v>
@@ -7364,7 +7364,7 @@
         <v>2513</v>
       </c>
       <c r="I169" t="n">
-        <v>843.942572036869</v>
+        <v>827.876776749509</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -7384,7 +7384,7 @@
         <v>44562</v>
       </c>
       <c r="B170" t="n">
-        <v>2579.32160164857</v>
+        <v>2605.16361362248</v>
       </c>
       <c r="C170" t="n">
         <v>539.890034502062</v>
@@ -7403,7 +7403,7 @@
         <v>1811</v>
       </c>
       <c r="I170" t="n">
-        <v>768.321601648573</v>
+        <v>794.16361362248</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -7423,7 +7423,7 @@
         <v>44593</v>
       </c>
       <c r="B171" t="n">
-        <v>2027.34548663951</v>
+        <v>2081.21138690808</v>
       </c>
       <c r="C171" t="n">
         <v>480.367275153743</v>
@@ -7442,7 +7442,7 @@
         <v>1561</v>
       </c>
       <c r="I171" t="n">
-        <v>466.345486639506</v>
+        <v>520.211386908079</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -7462,7 +7462,7 @@
         <v>44621</v>
       </c>
       <c r="B172" t="n">
-        <v>3152.62605460391</v>
+        <v>3047.83083328836</v>
       </c>
       <c r="C172" t="n">
         <v>649.772094417423</v>
@@ -7479,7 +7479,7 @@
         <v>2559</v>
       </c>
       <c r="I172" t="n">
-        <v>593.626054603911</v>
+        <v>488.83083328836</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
@@ -7499,7 +7499,7 @@
         <v>44652</v>
       </c>
       <c r="B173" t="n">
-        <v>3782.43753968487</v>
+        <v>3766.36135895413</v>
       </c>
       <c r="C173" t="n">
         <v>717.54019831555</v>
@@ -7516,7 +7516,7 @@
         <v>2455</v>
       </c>
       <c r="I173" t="n">
-        <v>1327.43753968487</v>
+        <v>1311.36135895413</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
@@ -7536,7 +7536,7 @@
         <v>44682</v>
       </c>
       <c r="B174" t="n">
-        <v>4537.19902633441</v>
+        <v>4532.35080094879</v>
       </c>
       <c r="C174" t="n">
         <v>760.183152837621</v>
@@ -7553,7 +7553,7 @@
         <v>2509</v>
       </c>
       <c r="I174" t="n">
-        <v>2028.19902633441</v>
+        <v>2023.35080094879</v>
       </c>
       <c r="J174" t="s">
         <v>14</v>
@@ -7573,7 +7573,7 @@
         <v>44713</v>
       </c>
       <c r="B175" t="n">
-        <v>5440.99420757204</v>
+        <v>5391.28562405106</v>
       </c>
       <c r="C175" t="n">
         <v>806.820252497415</v>
@@ -7590,7 +7590,7 @@
         <v>2905</v>
       </c>
       <c r="I175" t="n">
-        <v>2535.99420757204</v>
+        <v>2486.28562405106</v>
       </c>
       <c r="J175" t="s">
         <v>14</v>
@@ -7610,7 +7610,7 @@
         <v>44743</v>
       </c>
       <c r="B176" t="n">
-        <v>6286.9423103053</v>
+        <v>6255.33344242919</v>
       </c>
       <c r="C176" t="n">
         <v>865.440714215065</v>
@@ -7627,7 +7627,7 @@
         <v>2629</v>
       </c>
       <c r="I176" t="n">
-        <v>3657.9423103053</v>
+        <v>3626.33344242919</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
@@ -7647,7 +7647,7 @@
         <v>44774</v>
       </c>
       <c r="B177" t="n">
-        <v>6054.71881185815</v>
+        <v>6068.3635003449</v>
       </c>
       <c r="C177" t="n">
         <v>897.91442000032</v>
@@ -7664,7 +7664,7 @@
         <v>2267</v>
       </c>
       <c r="I177" t="n">
-        <v>3787.71881185815</v>
+        <v>3801.3635003449</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
@@ -7684,7 +7684,7 @@
         <v>44805</v>
       </c>
       <c r="B178" t="n">
-        <v>6463.31192156546</v>
+        <v>6450.81849625868</v>
       </c>
       <c r="C178" t="n">
         <v>916.041275246779</v>
@@ -7701,7 +7701,7 @@
         <v>2273</v>
       </c>
       <c r="I178" t="n">
-        <v>4190.31192156546</v>
+        <v>4177.81849625868</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
@@ -7721,7 +7721,7 @@
         <v>44835</v>
       </c>
       <c r="B179" t="n">
-        <v>4584.77089555395</v>
+        <v>4611.77206069134</v>
       </c>
       <c r="C179" t="n">
         <v>758.65507359426</v>
@@ -7738,7 +7738,7 @@
         <v>2009</v>
       </c>
       <c r="I179" t="n">
-        <v>2575.77089555395</v>
+        <v>2602.77206069134</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
@@ -7758,7 +7758,7 @@
         <v>44866</v>
       </c>
       <c r="B180" t="n">
-        <v>3879.66964552629</v>
+        <v>3807.10159874035</v>
       </c>
       <c r="C180" t="n">
         <v>618.934138868747</v>
@@ -7775,7 +7775,7 @@
         <v>1738</v>
       </c>
       <c r="I180" t="n">
-        <v>2141.66964552629</v>
+        <v>2069.10159874035</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
@@ -7795,7 +7795,7 @@
         <v>44896</v>
       </c>
       <c r="B181" t="n">
-        <v>3501.38361920113</v>
+        <v>3478.87066252573</v>
       </c>
       <c r="C181" t="n">
         <v>555.118159278263</v>
@@ -7812,7 +7812,7 @@
         <v>1569</v>
       </c>
       <c r="I181" t="n">
-        <v>1932.38361920113</v>
+        <v>1909.87066252573</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
@@ -7832,7 +7832,7 @@
         <v>44927</v>
       </c>
       <c r="B182" t="n">
-        <v>2679.07375331944</v>
+        <v>2721.50292136982</v>
       </c>
       <c r="C182" t="n">
         <v>442.653526695428</v>
@@ -7849,7 +7849,7 @@
         <v>1156</v>
       </c>
       <c r="I182" t="n">
-        <v>1523.07375331944</v>
+        <v>1565.50292136982</v>
       </c>
       <c r="J182" t="s">
         <v>14</v>
@@ -7869,7 +7869,7 @@
         <v>44958</v>
       </c>
       <c r="B183" t="n">
-        <v>2138.59942652013</v>
+        <v>2220.28361699491</v>
       </c>
       <c r="C183" t="n">
         <v>399.049257875761</v>
@@ -7888,7 +7888,7 @@
         <v>1958</v>
       </c>
       <c r="I183" t="n">
-        <v>180.599426520128</v>
+        <v>262.283616994911</v>
       </c>
       <c r="J183" t="s">
         <v>14</v>
@@ -7900,7 +7900,7 @@
         <v>16</v>
       </c>
       <c r="M183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -7908,7 +7908,7 @@
         <v>44986</v>
       </c>
       <c r="B184" t="n">
-        <v>3296.52492207697</v>
+        <v>3263.98460349818</v>
       </c>
       <c r="C184" t="n">
         <v>526.943448500921</v>
@@ -7925,7 +7925,7 @@
         <v>2208</v>
       </c>
       <c r="I184" t="n">
-        <v>1088.52492207697</v>
+        <v>1055.98460349818</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
@@ -7937,7 +7937,7 @@
         <v>16</v>
       </c>
       <c r="M184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -7945,7 +7945,7 @@
         <v>45017</v>
       </c>
       <c r="B185" t="n">
-        <v>3932.98475501349</v>
+        <v>3924.78527962295</v>
       </c>
       <c r="C185" t="n">
         <v>578.143021176782</v>
@@ -7962,7 +7962,7 @@
         <v>2210</v>
       </c>
       <c r="I185" t="n">
-        <v>1722.98475501349</v>
+        <v>1714.78527962295</v>
       </c>
       <c r="J185" t="s">
         <v>14</v>
@@ -7982,7 +7982,7 @@
         <v>45047</v>
       </c>
       <c r="B186" t="n">
-        <v>4762.92795059367</v>
+        <v>4823.8964736406</v>
       </c>
       <c r="C186" t="n">
         <v>610.886114991337</v>
@@ -7999,7 +7999,7 @@
         <v>2311</v>
       </c>
       <c r="I186" t="n">
-        <v>2451.92795059367</v>
+        <v>2512.8964736406</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
@@ -8019,7 +8019,7 @@
         <v>45078</v>
       </c>
       <c r="B187" t="n">
-        <v>5751.78744369979</v>
+        <v>5730.83678387194</v>
       </c>
       <c r="C187" t="n">
         <v>646.459382909779</v>
@@ -8036,7 +8036,7 @@
         <v>4985</v>
       </c>
       <c r="I187" t="n">
-        <v>766.78744369979</v>
+        <v>745.836783871942</v>
       </c>
       <c r="J187" t="s">
         <v>14</v>
@@ -8056,7 +8056,7 @@
         <v>45108</v>
       </c>
       <c r="B188" t="n">
-        <v>6634.62259765757</v>
+        <v>6641.23134551702</v>
       </c>
       <c r="C188" t="n">
         <v>690.564998954682</v>
@@ -8073,7 +8073,7 @@
         <v>13425</v>
       </c>
       <c r="I188" t="n">
-        <v>-6790.37740234243</v>
+        <v>-6783.76865448298</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
@@ -8093,7 +8093,7 @@
         <v>45139</v>
       </c>
       <c r="B189" t="n">
-        <v>6405.72817970038</v>
+        <v>6441.11039462377</v>
       </c>
       <c r="C189" t="n">
         <v>715.850315401207</v>
@@ -8110,7 +8110,7 @@
         <v>12742</v>
       </c>
       <c r="I189" t="n">
-        <v>-6336.27182029962</v>
+        <v>-6300.88960537623</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -8130,7 +8130,7 @@
         <v>45170</v>
       </c>
       <c r="B190" t="n">
-        <v>6754.00045227895</v>
+        <v>6768.40239639744</v>
       </c>
       <c r="C190" t="n">
         <v>768.051438790466</v>
@@ -8147,7 +8147,7 @@
         <v>125264</v>
       </c>
       <c r="I190" t="n">
-        <v>-118509.999547721</v>
+        <v>-118495.597603603</v>
       </c>
       <c r="J190" t="s">
         <v>19</v>
@@ -8167,7 +8167,7 @@
         <v>45200</v>
       </c>
       <c r="B191" t="n">
-        <v>4891.18391246051</v>
+        <v>4839.4381343276</v>
       </c>
       <c r="C191" t="n">
         <v>618.071788619858</v>
@@ -8184,7 +8184,7 @@
         <v>23111</v>
       </c>
       <c r="I191" t="n">
-        <v>-18219.8160875395</v>
+        <v>-18271.5618656724</v>
       </c>
       <c r="J191" t="s">
         <v>19</v>
@@ -8204,7 +8204,7 @@
         <v>45231</v>
       </c>
       <c r="B192" t="n">
-        <v>4139.9895375961</v>
+        <v>4087.66719058101</v>
       </c>
       <c r="C192" t="n">
         <v>514.5604806704</v>
@@ -8221,7 +8221,7 @@
         <v>4940</v>
       </c>
       <c r="I192" t="n">
-        <v>-800.010462403896</v>
+        <v>-852.332809418995</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
@@ -8241,7 +8241,7 @@
         <v>45261</v>
       </c>
       <c r="B193" t="n">
-        <v>3746.5970767429</v>
+        <v>3714.50769315771</v>
       </c>
       <c r="C193" t="n">
         <v>466.583399557315</v>
@@ -8258,7 +8258,7 @@
         <v>3873</v>
       </c>
       <c r="I193" t="n">
-        <v>-126.402923257102</v>
+        <v>-158.492306842294</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -8278,7 +8278,7 @@
         <v>43831</v>
       </c>
       <c r="B194" t="n">
-        <v>2346.40878504279</v>
+        <v>2344.15042245488</v>
       </c>
       <c r="C194" t="n">
         <v>2069.81608400988</v>
@@ -8299,7 +8299,7 @@
         <v>1626</v>
       </c>
       <c r="I194" t="n">
-        <v>720.408785042791</v>
+        <v>718.150422454882</v>
       </c>
       <c r="J194" t="s">
         <v>14</v>
@@ -8319,7 +8319,7 @@
         <v>43862</v>
       </c>
       <c r="B195" t="n">
-        <v>2400.75778646692</v>
+        <v>2348.80824144073</v>
       </c>
       <c r="C195" t="n">
         <v>1898.80573504816</v>
@@ -8328,10 +8328,10 @@
         <v>1736.77226910575</v>
       </c>
       <c r="E195" t="n">
-        <v>2829.25273460528</v>
+        <v>2649.05235760662</v>
       </c>
       <c r="F195" t="n">
-        <v>2897.28062906556</v>
+        <v>2831.65681407097</v>
       </c>
       <c r="G195" t="s">
         <v>25</v>
@@ -8340,7 +8340,7 @@
         <v>1045</v>
       </c>
       <c r="I195" t="n">
-        <v>1355.75778646692</v>
+        <v>1303.80824144073</v>
       </c>
       <c r="J195" t="s">
         <v>14</v>
@@ -8360,13 +8360,13 @@
         <v>43891</v>
       </c>
       <c r="B196" t="n">
-        <v>3138.85685091543</v>
+        <v>3175.40579609195</v>
       </c>
       <c r="C196" t="n">
-        <v>2718.40458887208</v>
+        <v>2810.07144879092</v>
       </c>
       <c r="D196" t="n">
-        <v>2663.18234379038</v>
+        <v>2683.70772955674</v>
       </c>
       <c r="E196" t="n">
         <v>3609.54540196867</v>
@@ -8381,7 +8381,7 @@
         <v>1641</v>
       </c>
       <c r="I196" t="n">
-        <v>1497.85685091543</v>
+        <v>1534.40579609195</v>
       </c>
       <c r="J196" t="s">
         <v>14</v>
@@ -8401,7 +8401,7 @@
         <v>43922</v>
       </c>
       <c r="B197" t="n">
-        <v>2881.341484753</v>
+        <v>2900.21767204264</v>
       </c>
       <c r="C197" t="n">
         <v>2469.15893727208</v>
@@ -8410,7 +8410,7 @@
         <v>2283.29332943847</v>
       </c>
       <c r="E197" t="n">
-        <v>3245.10923087099</v>
+        <v>3255.79218136504</v>
       </c>
       <c r="F197" t="n">
         <v>3449.57043252574</v>
@@ -8422,7 +8422,7 @@
         <v>1732</v>
       </c>
       <c r="I197" t="n">
-        <v>1149.341484753</v>
+        <v>1168.21767204264</v>
       </c>
       <c r="J197" t="s">
         <v>14</v>
@@ -8442,7 +8442,7 @@
         <v>43952</v>
       </c>
       <c r="B198" t="n">
-        <v>2649.30178225022</v>
+        <v>2636.4844944893</v>
       </c>
       <c r="C198" t="n">
         <v>2091.20256643864</v>
@@ -8451,10 +8451,10 @@
         <v>1933.77533026582</v>
       </c>
       <c r="E198" t="n">
-        <v>3249.93436438178</v>
+        <v>3204.62507106042</v>
       </c>
       <c r="F198" t="n">
-        <v>3323.50362037389</v>
+        <v>3271.57008177342</v>
       </c>
       <c r="G198" t="s">
         <v>25</v>
@@ -8463,7 +8463,7 @@
         <v>1585</v>
       </c>
       <c r="I198" t="n">
-        <v>1064.30178225022</v>
+        <v>1051.4844944893</v>
       </c>
       <c r="J198" t="s">
         <v>14</v>
@@ -8483,7 +8483,7 @@
         <v>43983</v>
       </c>
       <c r="B199" t="n">
-        <v>2327.28870202933</v>
+        <v>2287.51867919566</v>
       </c>
       <c r="C199" t="n">
         <v>1774.62555930224</v>
@@ -8492,10 +8492,10 @@
         <v>1615.47479646563</v>
       </c>
       <c r="E199" t="n">
-        <v>2889.39631271759</v>
+        <v>2830.21100965837</v>
       </c>
       <c r="F199" t="n">
-        <v>2954.0912336607</v>
+        <v>2911.94874138571</v>
       </c>
       <c r="G199" t="s">
         <v>25</v>
@@ -8504,7 +8504,7 @@
         <v>1708</v>
       </c>
       <c r="I199" t="n">
-        <v>619.288702029327</v>
+        <v>579.518679195656</v>
       </c>
       <c r="J199" t="s">
         <v>14</v>
@@ -8524,7 +8524,7 @@
         <v>44013</v>
       </c>
       <c r="B200" t="n">
-        <v>2302.58120064145</v>
+        <v>2274.69148866721</v>
       </c>
       <c r="C200" t="n">
         <v>1797.57559027587</v>
@@ -8533,7 +8533,7 @@
         <v>1631.4387665512</v>
       </c>
       <c r="E200" t="n">
-        <v>2722.33943175664</v>
+        <v>2670.66663029362</v>
       </c>
       <c r="F200" t="n">
         <v>2877.57964442996</v>
@@ -8545,7 +8545,7 @@
         <v>1759</v>
       </c>
       <c r="I200" t="n">
-        <v>543.581200641448</v>
+        <v>515.691488667212</v>
       </c>
       <c r="J200" t="s">
         <v>14</v>
@@ -8565,7 +8565,7 @@
         <v>44044</v>
       </c>
       <c r="B201" t="n">
-        <v>2222.55518081642</v>
+        <v>2226.92663071821</v>
       </c>
       <c r="C201" t="n">
         <v>1784.07136300567</v>
@@ -8586,7 +8586,7 @@
         <v>1759</v>
       </c>
       <c r="I201" t="n">
-        <v>463.555180816419</v>
+        <v>467.926630718206</v>
       </c>
       <c r="J201" t="s">
         <v>14</v>
@@ -8606,7 +8606,7 @@
         <v>44075</v>
       </c>
       <c r="B202" t="n">
-        <v>2016.26489154487</v>
+        <v>2021.78745861173</v>
       </c>
       <c r="C202" t="n">
         <v>1485.01333771013</v>
@@ -8615,7 +8615,7 @@
         <v>1273.79837332286</v>
       </c>
       <c r="E202" t="n">
-        <v>2392.75737756933</v>
+        <v>2422.84929210715</v>
       </c>
       <c r="F202" t="n">
         <v>2599.81374849421</v>
@@ -8627,7 +8627,7 @@
         <v>1811</v>
       </c>
       <c r="I202" t="n">
-        <v>205.264891544875</v>
+        <v>210.787458611729</v>
       </c>
       <c r="J202" t="s">
         <v>14</v>
@@ -8647,7 +8647,7 @@
         <v>44105</v>
       </c>
       <c r="B203" t="n">
-        <v>1871.19257390304</v>
+        <v>1851.70008956733</v>
       </c>
       <c r="C203" t="n">
         <v>1309.87954245619</v>
@@ -8656,10 +8656,10 @@
         <v>1097.39945707988</v>
       </c>
       <c r="E203" t="n">
-        <v>2331.93088812384</v>
+        <v>2264.13815101206</v>
       </c>
       <c r="F203" t="n">
-        <v>2429.69643840649</v>
+        <v>2429.22461669365</v>
       </c>
       <c r="G203" t="s">
         <v>25</v>
@@ -8668,7 +8668,7 @@
         <v>1506</v>
       </c>
       <c r="I203" t="n">
-        <v>365.192573903043</v>
+        <v>345.700089567333</v>
       </c>
       <c r="J203" t="s">
         <v>14</v>
@@ -8688,7 +8688,7 @@
         <v>44136</v>
       </c>
       <c r="B204" t="n">
-        <v>2015.190722223</v>
+        <v>1988.60940389406</v>
       </c>
       <c r="C204" t="n">
         <v>1520.53678202122</v>
@@ -8709,7 +8709,7 @@
         <v>1639</v>
       </c>
       <c r="I204" t="n">
-        <v>376.190722222995</v>
+        <v>349.609403894064</v>
       </c>
       <c r="J204" t="s">
         <v>14</v>
@@ -8729,7 +8729,7 @@
         <v>44166</v>
       </c>
       <c r="B205" t="n">
-        <v>2075.83297062333</v>
+        <v>2033.740912065</v>
       </c>
       <c r="C205" t="n">
         <v>1520.75854291321</v>
@@ -8750,7 +8750,7 @@
         <v>1818</v>
       </c>
       <c r="I205" t="n">
-        <v>257.832970623331</v>
+        <v>215.740912065004</v>
       </c>
       <c r="J205" t="s">
         <v>14</v>
@@ -8770,7 +8770,7 @@
         <v>44197</v>
       </c>
       <c r="B206" t="n">
-        <v>2389.67705559816</v>
+        <v>2348.16429504077</v>
       </c>
       <c r="C206" t="n">
         <v>1850.19905729362</v>
@@ -8791,7 +8791,7 @@
         <v>1838</v>
       </c>
       <c r="I206" t="n">
-        <v>551.677055598162</v>
+        <v>510.16429504077</v>
       </c>
       <c r="J206" t="s">
         <v>14</v>
@@ -8811,7 +8811,7 @@
         <v>44228</v>
       </c>
       <c r="B207" t="n">
-        <v>2361.64536187006</v>
+        <v>2384.92046581058</v>
       </c>
       <c r="C207" t="n">
         <v>1691.32586313986</v>
@@ -8820,7 +8820,7 @@
         <v>1427.24967986289</v>
       </c>
       <c r="E207" t="n">
-        <v>2786.69089640547</v>
+        <v>2819.96447106481</v>
       </c>
       <c r="F207" t="n">
         <v>3056.65482997381</v>
@@ -8832,7 +8832,7 @@
         <v>1849</v>
       </c>
       <c r="I207" t="n">
-        <v>512.645361870057</v>
+        <v>535.920465810576</v>
       </c>
       <c r="J207" t="s">
         <v>14</v>
@@ -8852,7 +8852,7 @@
         <v>44256</v>
       </c>
       <c r="B208" t="n">
-        <v>3148.78437886839</v>
+        <v>3133.56554617138</v>
       </c>
       <c r="C208" t="n">
         <v>2652.98639909881</v>
@@ -8873,7 +8873,7 @@
         <v>2991</v>
       </c>
       <c r="I208" t="n">
-        <v>157.784378868385</v>
+        <v>142.56554617138</v>
       </c>
       <c r="J208" t="s">
         <v>14</v>
@@ -8893,7 +8893,7 @@
         <v>44287</v>
       </c>
       <c r="B209" t="n">
-        <v>2906.0138419562</v>
+        <v>2896.675030112</v>
       </c>
       <c r="C209" t="n">
         <v>2291.29284255078</v>
@@ -8914,7 +8914,7 @@
         <v>2797</v>
       </c>
       <c r="I209" t="n">
-        <v>109.013841956204</v>
+        <v>99.6750301120019</v>
       </c>
       <c r="J209" t="s">
         <v>14</v>
@@ -8934,7 +8934,7 @@
         <v>44317</v>
       </c>
       <c r="B210" t="n">
-        <v>2666.22159296237</v>
+        <v>2678.07014788296</v>
       </c>
       <c r="C210" t="n">
         <v>1956.12924199764</v>
@@ -8943,10 +8943,10 @@
         <v>1697.79979774635</v>
       </c>
       <c r="E210" t="n">
-        <v>3428.89483589381</v>
+        <v>3519.89421079827</v>
       </c>
       <c r="F210" t="n">
-        <v>3573.84763082156</v>
+        <v>3640.78010235157</v>
       </c>
       <c r="G210" t="s">
         <v>25</v>
@@ -8955,7 +8955,7 @@
         <v>2509</v>
       </c>
       <c r="I210" t="n">
-        <v>157.221592962368</v>
+        <v>169.070147882962</v>
       </c>
       <c r="J210" t="s">
         <v>14</v>
@@ -8975,7 +8975,7 @@
         <v>44348</v>
       </c>
       <c r="B211" t="n">
-        <v>2324.24807184893</v>
+        <v>2342.90585903729</v>
       </c>
       <c r="C211" t="n">
         <v>1647.86883845053</v>
@@ -8984,10 +8984,10 @@
         <v>1382.46520906064</v>
       </c>
       <c r="E211" t="n">
-        <v>3046.32491575947</v>
+        <v>3067.74678763933</v>
       </c>
       <c r="F211" t="n">
-        <v>3155.65342957391</v>
+        <v>3185.69699218325</v>
       </c>
       <c r="G211" t="s">
         <v>25</v>
@@ -8996,7 +8996,7 @@
         <v>2266</v>
       </c>
       <c r="I211" t="n">
-        <v>58.2480718489305</v>
+        <v>76.9058590372938</v>
       </c>
       <c r="J211" t="s">
         <v>14</v>
@@ -9016,7 +9016,7 @@
         <v>44378</v>
       </c>
       <c r="B212" t="n">
-        <v>2264.67661855708</v>
+        <v>2269.62664883032</v>
       </c>
       <c r="C212" t="n">
         <v>1661.07634421893</v>
@@ -9037,7 +9037,7 @@
         <v>2140</v>
       </c>
       <c r="I212" t="n">
-        <v>124.67661855708</v>
+        <v>129.626648830322</v>
       </c>
       <c r="J212" t="s">
         <v>14</v>
@@ -9057,7 +9057,7 @@
         <v>44409</v>
       </c>
       <c r="B213" t="n">
-        <v>2221.20305737806</v>
+        <v>2221.9093314889</v>
       </c>
       <c r="C213" t="n">
         <v>1613.37549812159</v>
@@ -9078,7 +9078,7 @@
         <v>2109</v>
       </c>
       <c r="I213" t="n">
-        <v>112.203057378063</v>
+        <v>112.909331488897</v>
       </c>
       <c r="J213" t="s">
         <v>14</v>
@@ -9098,7 +9098,7 @@
         <v>44440</v>
       </c>
       <c r="B214" t="n">
-        <v>2030.6399247087</v>
+        <v>2038.30228074735</v>
       </c>
       <c r="C214" t="n">
         <v>1324.53596280045</v>
@@ -9119,10 +9119,10 @@
         <v>2033</v>
       </c>
       <c r="I214" t="n">
-        <v>-2.36007529129984</v>
+        <v>5.30228074735214</v>
       </c>
       <c r="J214" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K214" t="s">
         <v>15</v>
@@ -9139,7 +9139,7 @@
         <v>44470</v>
       </c>
       <c r="B215" t="n">
-        <v>1860.09802320476</v>
+        <v>1880.5216941088</v>
       </c>
       <c r="C215" t="n">
         <v>1157.04841858191</v>
@@ -9148,7 +9148,7 @@
         <v>873.740058233357</v>
       </c>
       <c r="E215" t="n">
-        <v>2421.54065682899</v>
+        <v>2390.88097062713</v>
       </c>
       <c r="F215" t="n">
         <v>2680.71182265508</v>
@@ -9160,7 +9160,7 @@
         <v>1846</v>
       </c>
       <c r="I215" t="n">
-        <v>14.0980232047643</v>
+        <v>34.5216941087972</v>
       </c>
       <c r="J215" t="s">
         <v>14</v>
@@ -9180,7 +9180,7 @@
         <v>44501</v>
       </c>
       <c r="B216" t="n">
-        <v>1997.81282533988</v>
+        <v>1985.15063154715</v>
       </c>
       <c r="C216" t="n">
         <v>1366.42955163461</v>
@@ -9201,7 +9201,7 @@
         <v>2055</v>
       </c>
       <c r="I216" t="n">
-        <v>-57.1871746601205</v>
+        <v>-69.8493684528512</v>
       </c>
       <c r="J216" t="s">
         <v>19</v>
@@ -9221,7 +9221,7 @@
         <v>44531</v>
       </c>
       <c r="B217" t="n">
-        <v>2063.89123044105</v>
+        <v>2034.62447243079</v>
       </c>
       <c r="C217" t="n">
         <v>1376.4984500667</v>
@@ -9242,7 +9242,7 @@
         <v>2369</v>
       </c>
       <c r="I217" t="n">
-        <v>-305.108769558955</v>
+        <v>-334.375527569214</v>
       </c>
       <c r="J217" t="s">
         <v>19</v>
@@ -9262,7 +9262,7 @@
         <v>44562</v>
       </c>
       <c r="B218" t="n">
-        <v>2343.41996948268</v>
+        <v>2338.93096930352</v>
       </c>
       <c r="C218" t="n">
         <v>1702.85663697936</v>
@@ -9283,7 +9283,7 @@
         <v>2530</v>
       </c>
       <c r="I218" t="n">
-        <v>-186.580030517322</v>
+        <v>-191.069030696483</v>
       </c>
       <c r="J218" t="s">
         <v>19</v>
@@ -9303,7 +9303,7 @@
         <v>44593</v>
       </c>
       <c r="B219" t="n">
-        <v>2348.34922144009</v>
+        <v>2359.91035425295</v>
       </c>
       <c r="C219" t="n">
         <v>1549.17869206392</v>
@@ -9324,7 +9324,7 @@
         <v>2443</v>
       </c>
       <c r="I219" t="n">
-        <v>-94.6507785599074</v>
+        <v>-83.0896457470471</v>
       </c>
       <c r="J219" t="s">
         <v>19</v>
@@ -9344,7 +9344,7 @@
         <v>44621</v>
       </c>
       <c r="B220" t="n">
-        <v>3130.05353126023</v>
+        <v>3111.54360096493</v>
       </c>
       <c r="C220" t="n">
         <v>2500.05854268895</v>
@@ -9365,7 +9365,7 @@
         <v>3131</v>
       </c>
       <c r="I220" t="n">
-        <v>-0.946468739773536</v>
+        <v>-19.4563990350721</v>
       </c>
       <c r="J220" t="s">
         <v>19</v>
@@ -9385,7 +9385,7 @@
         <v>44652</v>
       </c>
       <c r="B221" t="n">
-        <v>2846.6108036025</v>
+        <v>2854.37614140524</v>
       </c>
       <c r="C221" t="n">
         <v>2124.1897906021</v>
@@ -9406,7 +9406,7 @@
         <v>2525</v>
       </c>
       <c r="I221" t="n">
-        <v>321.610803602498</v>
+        <v>329.376141405236</v>
       </c>
       <c r="J221" t="s">
         <v>14</v>
@@ -9426,7 +9426,7 @@
         <v>44682</v>
       </c>
       <c r="B222" t="n">
-        <v>2648.04254453022</v>
+        <v>2690.36191611943</v>
       </c>
       <c r="C222" t="n">
         <v>1826.45994328058</v>
@@ -9435,10 +9435,10 @@
         <v>1491.70014190969</v>
       </c>
       <c r="E222" t="n">
-        <v>3492.2239995886</v>
+        <v>3581.79281198108</v>
       </c>
       <c r="F222" t="n">
-        <v>3726.50171959944</v>
+        <v>3743.40702674165</v>
       </c>
       <c r="G222" t="s">
         <v>25</v>
@@ -9447,7 +9447,7 @@
         <v>2503</v>
       </c>
       <c r="I222" t="n">
-        <v>145.042544530215</v>
+        <v>187.361916119434</v>
       </c>
       <c r="J222" t="s">
         <v>14</v>
@@ -9467,7 +9467,7 @@
         <v>44713</v>
       </c>
       <c r="B223" t="n">
-        <v>2324.0682939393</v>
+        <v>2347.13377038444</v>
       </c>
       <c r="C223" t="n">
         <v>1535.38285428305</v>
@@ -9476,7 +9476,7 @@
         <v>1187.92953718914</v>
       </c>
       <c r="E223" t="n">
-        <v>3148.88499812821</v>
+        <v>3196.27200269032</v>
       </c>
       <c r="F223" t="n">
         <v>3389.08110561058</v>
@@ -9488,7 +9488,7 @@
         <v>2411</v>
       </c>
       <c r="I223" t="n">
-        <v>-86.9317060606954</v>
+        <v>-63.8662296155617</v>
       </c>
       <c r="J223" t="s">
         <v>19</v>
@@ -9508,7 +9508,7 @@
         <v>44743</v>
       </c>
       <c r="B224" t="n">
-        <v>2267.92272831003</v>
+        <v>2262.52796510318</v>
       </c>
       <c r="C224" t="n">
         <v>1530.37338296238</v>
@@ -9529,7 +9529,7 @@
         <v>2225</v>
       </c>
       <c r="I224" t="n">
-        <v>42.9227283100317</v>
+        <v>37.5279651031833</v>
       </c>
       <c r="J224" t="s">
         <v>14</v>
@@ -9549,7 +9549,7 @@
         <v>44774</v>
       </c>
       <c r="B225" t="n">
-        <v>2210.91810875177</v>
+        <v>2217.93969366209</v>
       </c>
       <c r="C225" t="n">
         <v>1485.31779691174</v>
@@ -9570,7 +9570,7 @@
         <v>2255</v>
       </c>
       <c r="I225" t="n">
-        <v>-44.0818912482277</v>
+        <v>-37.0603063379108</v>
       </c>
       <c r="J225" t="s">
         <v>19</v>
@@ -9590,7 +9590,7 @@
         <v>44805</v>
       </c>
       <c r="B226" t="n">
-        <v>2024.93520330599</v>
+        <v>2035.85957196909</v>
       </c>
       <c r="C226" t="n">
         <v>1203.20639154835</v>
@@ -9611,7 +9611,7 @@
         <v>1946</v>
       </c>
       <c r="I226" t="n">
-        <v>78.935203305987</v>
+        <v>89.8595719690913</v>
       </c>
       <c r="J226" t="s">
         <v>14</v>
@@ -9631,7 +9631,7 @@
         <v>44835</v>
       </c>
       <c r="B227" t="n">
-        <v>1851.96358867609</v>
+        <v>1883.55818589219</v>
       </c>
       <c r="C227" t="n">
         <v>1040.61009755375</v>
@@ -9640,7 +9640,7 @@
         <v>706.79398874373</v>
       </c>
       <c r="E227" t="n">
-        <v>2543.02866662998</v>
+        <v>2497.10883653134</v>
       </c>
       <c r="F227" t="n">
         <v>2894.2099287285</v>
@@ -9652,7 +9652,7 @@
         <v>1683</v>
       </c>
       <c r="I227" t="n">
-        <v>168.963588676091</v>
+        <v>200.558185892185</v>
       </c>
       <c r="J227" t="s">
         <v>14</v>
@@ -9672,7 +9672,7 @@
         <v>44866</v>
       </c>
       <c r="B228" t="n">
-        <v>1991.0840382738</v>
+        <v>1997.54606718142</v>
       </c>
       <c r="C228" t="n">
         <v>1247.59800613051</v>
@@ -9693,7 +9693,7 @@
         <v>1732</v>
       </c>
       <c r="I228" t="n">
-        <v>259.084038273801</v>
+        <v>265.546067181423</v>
       </c>
       <c r="J228" t="s">
         <v>14</v>
@@ -9713,7 +9713,7 @@
         <v>44896</v>
       </c>
       <c r="B229" t="n">
-        <v>2063.55746616843</v>
+        <v>2028.00574123567</v>
       </c>
       <c r="C229" t="n">
         <v>1262.31968404026</v>
@@ -9734,7 +9734,7 @@
         <v>1187</v>
       </c>
       <c r="I229" t="n">
-        <v>876.557466168433</v>
+        <v>841.00574123567</v>
       </c>
       <c r="J229" t="s">
         <v>14</v>
@@ -9754,7 +9754,7 @@
         <v>44927</v>
       </c>
       <c r="B230" t="n">
-        <v>2335.52925052468</v>
+        <v>2303.7974785629</v>
       </c>
       <c r="C230" t="n">
         <v>1585.10616716504</v>
@@ -9775,7 +9775,7 @@
         <v>1144</v>
       </c>
       <c r="I230" t="n">
-        <v>1191.52925052468</v>
+        <v>1159.7974785629</v>
       </c>
       <c r="J230" t="s">
         <v>14</v>
@@ -9795,7 +9795,7 @@
         <v>44958</v>
       </c>
       <c r="B231" t="n">
-        <v>2341.6021231147</v>
+        <v>2308.23469197555</v>
       </c>
       <c r="C231" t="n">
         <v>1434.9855194456</v>
@@ -9816,7 +9816,7 @@
         <v>2207</v>
       </c>
       <c r="I231" t="n">
-        <v>134.602123114698</v>
+        <v>101.234691975552</v>
       </c>
       <c r="J231" t="s">
         <v>14</v>
@@ -9828,7 +9828,7 @@
         <v>26</v>
       </c>
       <c r="M231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
@@ -9836,7 +9836,7 @@
         <v>44986</v>
       </c>
       <c r="B232" t="n">
-        <v>3113.805777147</v>
+        <v>3112.89519574638</v>
       </c>
       <c r="C232" t="n">
         <v>2322.50423205131</v>
@@ -9857,7 +9857,7 @@
         <v>3117</v>
       </c>
       <c r="I232" t="n">
-        <v>-3.19422285299697</v>
+        <v>-4.10480425361993</v>
       </c>
       <c r="J232" t="s">
         <v>19</v>
@@ -9869,7 +9869,7 @@
         <v>26</v>
       </c>
       <c r="M232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -9877,7 +9877,7 @@
         <v>45017</v>
       </c>
       <c r="B233" t="n">
-        <v>2785.774798113</v>
+        <v>2729.71292544244</v>
       </c>
       <c r="C233" t="n">
         <v>1922.94091515846</v>
@@ -9898,7 +9898,7 @@
         <v>3006</v>
       </c>
       <c r="I233" t="n">
-        <v>-220.225201886999</v>
+        <v>-276.287074557561</v>
       </c>
       <c r="J233" t="s">
         <v>19</v>
@@ -9918,7 +9918,7 @@
         <v>45047</v>
       </c>
       <c r="B234" t="n">
-        <v>2647.27003401601</v>
+        <v>2683.24350305839</v>
       </c>
       <c r="C234" t="n">
         <v>1629.54594366023</v>
@@ -9927,7 +9927,7 @@
         <v>1224.52201229203</v>
       </c>
       <c r="E234" t="n">
-        <v>3533.69907081747</v>
+        <v>3590.0950725375</v>
       </c>
       <c r="F234" t="n">
         <v>3929.37594884486</v>
@@ -9939,7 +9939,7 @@
         <v>2822</v>
       </c>
       <c r="I234" t="n">
-        <v>-174.729965983986</v>
+        <v>-138.756496941607</v>
       </c>
       <c r="J234" t="s">
         <v>19</v>
@@ -9959,7 +9959,7 @@
         <v>45078</v>
       </c>
       <c r="B235" t="n">
-        <v>2349.39707636976</v>
+        <v>2380.80375662875</v>
       </c>
       <c r="C235" t="n">
         <v>1345.97286550332</v>
@@ -9968,7 +9968,7 @@
         <v>951.371490483535</v>
       </c>
       <c r="E235" t="n">
-        <v>3214.32682497725</v>
+        <v>3278.73215010997</v>
       </c>
       <c r="F235" t="n">
         <v>3586.17671211366</v>
@@ -9980,7 +9980,7 @@
         <v>2529</v>
       </c>
       <c r="I235" t="n">
-        <v>-179.602923630235</v>
+        <v>-148.196243371245</v>
       </c>
       <c r="J235" t="s">
         <v>19</v>
@@ -10000,7 +10000,7 @@
         <v>45108</v>
       </c>
       <c r="B236" t="n">
-        <v>2291.57406178142</v>
+        <v>2314.90664545768</v>
       </c>
       <c r="C236" t="n">
         <v>1375.71465839011</v>
@@ -10021,7 +10021,7 @@
         <v>2620</v>
       </c>
       <c r="I236" t="n">
-        <v>-328.425938218582</v>
+        <v>-305.093354542317</v>
       </c>
       <c r="J236" t="s">
         <v>19</v>
@@ -10041,7 +10041,7 @@
         <v>45139</v>
       </c>
       <c r="B237" t="n">
-        <v>2235.80773941187</v>
+        <v>2234.43499678099</v>
       </c>
       <c r="C237" t="n">
         <v>1373.08374987367</v>
@@ -10062,7 +10062,7 @@
         <v>2618</v>
       </c>
       <c r="I237" t="n">
-        <v>-382.19226058813</v>
+        <v>-383.565003219011</v>
       </c>
       <c r="J237" t="s">
         <v>19</v>
@@ -10082,7 +10082,7 @@
         <v>45170</v>
       </c>
       <c r="B238" t="n">
-        <v>2037.51955367242</v>
+        <v>2034.3678621721</v>
       </c>
       <c r="C238" t="n">
         <v>1102.50130970243</v>
@@ -10103,7 +10103,7 @@
         <v>2550</v>
       </c>
       <c r="I238" t="n">
-        <v>-512.480446327582</v>
+        <v>-515.632137827901</v>
       </c>
       <c r="J238" t="s">
         <v>19</v>
@@ -10123,7 +10123,7 @@
         <v>45200</v>
       </c>
       <c r="B239" t="n">
-        <v>1870.06255572892</v>
+        <v>1893.5748747454</v>
       </c>
       <c r="C239" t="n">
         <v>943.771617343281</v>
@@ -10144,7 +10144,7 @@
         <v>2543</v>
       </c>
       <c r="I239" t="n">
-        <v>-672.937444271078</v>
+        <v>-649.425125254597</v>
       </c>
       <c r="J239" t="s">
         <v>19</v>
@@ -10164,7 +10164,7 @@
         <v>45231</v>
       </c>
       <c r="B240" t="n">
-        <v>2009.24878033999</v>
+        <v>2029.61191138835</v>
       </c>
       <c r="C240" t="n">
         <v>1147.9824543246</v>
@@ -10185,7 +10185,7 @@
         <v>2751</v>
       </c>
       <c r="I240" t="n">
-        <v>-741.751219660012</v>
+        <v>-721.388088611649</v>
       </c>
       <c r="J240" t="s">
         <v>19</v>
@@ -10205,7 +10205,7 @@
         <v>45261</v>
       </c>
       <c r="B241" t="n">
-        <v>2048.75578049957</v>
+        <v>1999.82605039338</v>
       </c>
       <c r="C241" t="n">
         <v>1149.49359229052</v>
@@ -10226,7 +10226,7 @@
         <v>2668</v>
       </c>
       <c r="I241" t="n">
-        <v>-619.244219500432</v>
+        <v>-668.173949606621</v>
       </c>
       <c r="J241" t="s">
         <v>19</v>
@@ -11796,7 +11796,7 @@
         <v>26</v>
       </c>
       <c r="M279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -11837,7 +11837,7 @@
         <v>26</v>
       </c>
       <c r="M280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281">
@@ -13460,7 +13460,7 @@
         <v>26</v>
       </c>
       <c r="M327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -13493,7 +13493,7 @@
         <v>26</v>
       </c>
       <c r="M328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329">
@@ -15403,7 +15403,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -15444,7 +15444,7 @@
         <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -15821,7 +15821,7 @@
         <v>43831</v>
       </c>
       <c r="B50" t="n">
-        <v>46594.4583181672</v>
+        <v>46649.1624204744</v>
       </c>
       <c r="C50" t="n">
         <v>41818.6623182063</v>
@@ -15830,10 +15830,10 @@
         <v>40194.5247681668</v>
       </c>
       <c r="E50" t="n">
-        <v>51195.6418289354</v>
+        <v>51445.2250966457</v>
       </c>
       <c r="F50" t="n">
-        <v>53689.3549707518</v>
+        <v>53958.1517477369</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -15842,7 +15842,7 @@
         <v>39671</v>
       </c>
       <c r="I50" t="n">
-        <v>6923.45831816716</v>
+        <v>6978.16242047436</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -15862,13 +15862,13 @@
         <v>43862</v>
       </c>
       <c r="B51" t="n">
-        <v>40963.4122349453</v>
+        <v>41024.1673566663</v>
       </c>
       <c r="C51" t="n">
-        <v>35781.1412097616</v>
+        <v>35850.5148174316</v>
       </c>
       <c r="D51" t="n">
-        <v>34104.377549322</v>
+        <v>34190.9419471408</v>
       </c>
       <c r="E51" t="n">
         <v>45461.8541393762</v>
@@ -15883,7 +15883,7 @@
         <v>21448</v>
       </c>
       <c r="I51" t="n">
-        <v>19515.4122349453</v>
+        <v>19576.1673566663</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -15903,13 +15903,13 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>55030.6403619823</v>
+        <v>54988.4709930327</v>
       </c>
       <c r="C52" t="n">
-        <v>48090.828031664</v>
+        <v>47950.3404474335</v>
       </c>
       <c r="D52" t="n">
-        <v>46016.5425442498</v>
+        <v>46142.8420779734</v>
       </c>
       <c r="E52" t="n">
         <v>60193.6133037065</v>
@@ -15924,7 +15924,7 @@
         <v>41154</v>
       </c>
       <c r="I52" t="n">
-        <v>13876.6403619823</v>
+        <v>13834.4709930327</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -15944,13 +15944,13 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>53229.7533746662</v>
+        <v>53263.123141972</v>
       </c>
       <c r="C53" t="n">
-        <v>47704.0199363603</v>
+        <v>47566.6549984256</v>
       </c>
       <c r="D53" t="n">
-        <v>45719.0464903625</v>
+        <v>45530.8522285033</v>
       </c>
       <c r="E53" t="n">
         <v>57955.9300789496</v>
@@ -15965,7 +15965,7 @@
         <v>46728</v>
       </c>
       <c r="I53" t="n">
-        <v>6501.75337466622</v>
+        <v>6535.12314197204</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -15985,13 +15985,13 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>55405.4471689228</v>
+        <v>55431.350149374</v>
       </c>
       <c r="C54" t="n">
-        <v>49142.9848633701</v>
+        <v>48949.5038819658</v>
       </c>
       <c r="D54" t="n">
-        <v>46711.5848194543</v>
+        <v>46603.3655912602</v>
       </c>
       <c r="E54" t="n">
         <v>60802.5866876494</v>
@@ -16006,7 +16006,7 @@
         <v>46753</v>
       </c>
       <c r="I54" t="n">
-        <v>8652.44716892279</v>
+        <v>8678.35014937395</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -16026,13 +16026,13 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>54121.9883305329</v>
+        <v>54153.2448277687</v>
       </c>
       <c r="C55" t="n">
-        <v>47473.9464002559</v>
+        <v>47426.394781037</v>
       </c>
       <c r="D55" t="n">
-        <v>45108.3924563557</v>
+        <v>45175.4338193836</v>
       </c>
       <c r="E55" t="n">
         <v>60074.3960198284</v>
@@ -16047,7 +16047,7 @@
         <v>46538</v>
       </c>
       <c r="I55" t="n">
-        <v>7583.98833053285</v>
+        <v>7615.24482776872</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -16067,13 +16067,13 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>57783.622478278</v>
+        <v>57784.1672495928</v>
       </c>
       <c r="C56" t="n">
-        <v>51613.3175271674</v>
+        <v>51717.9770923236</v>
       </c>
       <c r="D56" t="n">
-        <v>49726.7167398529</v>
+        <v>49807.1668908026</v>
       </c>
       <c r="E56" t="n">
         <v>63179.2359659769</v>
@@ -16088,7 +16088,7 @@
         <v>46838</v>
       </c>
       <c r="I56" t="n">
-        <v>10945.622478278</v>
+        <v>10946.1672495928</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -16108,13 +16108,13 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>57382.6309248972</v>
+        <v>57516.4052016237</v>
       </c>
       <c r="C57" t="n">
-        <v>51219.9062238202</v>
+        <v>51628.3300863825</v>
       </c>
       <c r="D57" t="n">
-        <v>48798.2656152392</v>
+        <v>49093.1446565781</v>
       </c>
       <c r="E57" t="n">
         <v>62975.8556605989</v>
@@ -16129,7 +16129,7 @@
         <v>46838</v>
       </c>
       <c r="I57" t="n">
-        <v>10544.6309248972</v>
+        <v>10678.4052016237</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -16149,13 +16149,13 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>55803.1991806217</v>
+        <v>55916.3280829103</v>
       </c>
       <c r="C58" t="n">
-        <v>51049.4077238591</v>
+        <v>50898.239109095</v>
       </c>
       <c r="D58" t="n">
-        <v>48542.8427140859</v>
+        <v>48691.4725085667</v>
       </c>
       <c r="E58" t="n">
         <v>61174.5869480688</v>
@@ -16170,7 +16170,7 @@
         <v>48965</v>
       </c>
       <c r="I58" t="n">
-        <v>6838.19918062173</v>
+        <v>6951.32808291035</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -16190,7 +16190,7 @@
         <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>53483.7819275115</v>
+        <v>53563.8407685408</v>
       </c>
       <c r="C59" t="n">
         <v>48429.5189713469</v>
@@ -16199,10 +16199,10 @@
         <v>46082.1223157025</v>
       </c>
       <c r="E59" t="n">
-        <v>59889.3602301461</v>
+        <v>60093.2702271684</v>
       </c>
       <c r="F59" t="n">
-        <v>62400.611716038</v>
+        <v>62656.3480668785</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -16211,7 +16211,7 @@
         <v>44438</v>
       </c>
       <c r="I59" t="n">
-        <v>9045.78192751148</v>
+        <v>9125.84076854081</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -16231,7 +16231,7 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>53810.4734542399</v>
+        <v>53908.1742367864</v>
       </c>
       <c r="C60" t="n">
         <v>48824.2608354331</v>
@@ -16252,7 +16252,7 @@
         <v>45305</v>
       </c>
       <c r="I60" t="n">
-        <v>8505.47345423993</v>
+        <v>8603.17423678641</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
@@ -16272,7 +16272,7 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>53088.367083323</v>
+        <v>53156.6407484443</v>
       </c>
       <c r="C61" t="n">
         <v>48229.4492736501</v>
@@ -16293,7 +16293,7 @@
         <v>44696</v>
       </c>
       <c r="I61" t="n">
-        <v>8392.36708332301</v>
+        <v>8460.64074844428</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -16313,7 +16313,7 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>50357.414431917</v>
+        <v>50465.8000428524</v>
       </c>
       <c r="C62" t="n">
         <v>44552.7520433622</v>
@@ -16322,10 +16322,10 @@
         <v>42299.4651063399</v>
       </c>
       <c r="E62" t="n">
-        <v>57110.7580892624</v>
+        <v>57223.1510253981</v>
       </c>
       <c r="F62" t="n">
-        <v>60203.3502927919</v>
+        <v>60323.4246857017</v>
       </c>
       <c r="G62" t="s">
         <v>31</v>
@@ -16334,7 +16334,7 @@
         <v>40079</v>
       </c>
       <c r="I62" t="n">
-        <v>10278.414431917</v>
+        <v>10386.8000428524</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
@@ -16354,19 +16354,19 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>44987.7060061212</v>
+        <v>45109.2965104059</v>
       </c>
       <c r="C63" t="n">
-        <v>40109.0107071541</v>
+        <v>40086.4830886189</v>
       </c>
       <c r="D63" t="n">
-        <v>37215.3062050397</v>
+        <v>37493.7934811689</v>
       </c>
       <c r="E63" t="n">
-        <v>50883.8122119177</v>
+        <v>50874.637404929</v>
       </c>
       <c r="F63" t="n">
-        <v>53412.5514685131</v>
+        <v>53387.7708924639</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -16375,7 +16375,7 @@
         <v>33615</v>
       </c>
       <c r="I63" t="n">
-        <v>11372.7060061212</v>
+        <v>11494.2965104059</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
@@ -16395,13 +16395,13 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>59001.4706799518</v>
+        <v>58860.0160737982</v>
       </c>
       <c r="C64" t="n">
-        <v>49794.6593195035</v>
+        <v>49887.7791649911</v>
       </c>
       <c r="D64" t="n">
-        <v>46642.4770281913</v>
+        <v>46784.7819113103</v>
       </c>
       <c r="E64" t="n">
         <v>66532.1843046805</v>
@@ -16416,7 +16416,7 @@
         <v>50682</v>
       </c>
       <c r="I64" t="n">
-        <v>8319.47067995181</v>
+        <v>8178.01607379819</v>
       </c>
       <c r="J64" t="s">
         <v>14</v>
@@ -16436,13 +16436,13 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>56995.7399326532</v>
+        <v>57033.3039588021</v>
       </c>
       <c r="C65" t="n">
-        <v>48754.9657962342</v>
+        <v>48759.157742888</v>
       </c>
       <c r="D65" t="n">
-        <v>46340.0548981927</v>
+        <v>46138.5727773376</v>
       </c>
       <c r="E65" t="n">
         <v>64384.2199971817</v>
@@ -16457,7 +16457,7 @@
         <v>49113</v>
       </c>
       <c r="I65" t="n">
-        <v>7882.73993265318</v>
+        <v>7920.30395880213</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
@@ -16477,13 +16477,13 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>59182.9659609409</v>
+        <v>59284.9270899967</v>
       </c>
       <c r="C66" t="n">
-        <v>50275.992745793</v>
+        <v>50182.6198700056</v>
       </c>
       <c r="D66" t="n">
-        <v>47950.9134512476</v>
+        <v>47720.544980106</v>
       </c>
       <c r="E66" t="n">
         <v>67617.9095646332</v>
@@ -16498,7 +16498,7 @@
         <v>47999</v>
       </c>
       <c r="I66" t="n">
-        <v>11183.9659609409</v>
+        <v>11285.9270899967</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
@@ -16518,13 +16518,13 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>57873.9334537816</v>
+        <v>57971.5643787989</v>
       </c>
       <c r="C67" t="n">
-        <v>49313.9740484322</v>
+        <v>49470.219544965</v>
       </c>
       <c r="D67" t="n">
-        <v>47257.483155954</v>
+        <v>47269.0524939381</v>
       </c>
       <c r="E67" t="n">
         <v>66198.4710972764</v>
@@ -16539,7 +16539,7 @@
         <v>47423</v>
       </c>
       <c r="I67" t="n">
-        <v>10450.9334537816</v>
+        <v>10548.5643787989</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
@@ -16559,13 +16559,13 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>61253.9628355162</v>
+        <v>61312.7233508724</v>
       </c>
       <c r="C68" t="n">
-        <v>52189.1432586728</v>
+        <v>52180.6505389934</v>
       </c>
       <c r="D68" t="n">
-        <v>49579.6121437197</v>
+        <v>49675.9275699048</v>
       </c>
       <c r="E68" t="n">
         <v>70733.0145551571</v>
@@ -16580,7 +16580,7 @@
         <v>51531</v>
       </c>
       <c r="I68" t="n">
-        <v>9722.96283551615</v>
+        <v>9781.72335087244</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
@@ -16600,13 +16600,13 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>60798.843755685</v>
+        <v>61023.4626535763</v>
       </c>
       <c r="C69" t="n">
-        <v>51986.4430106353</v>
+        <v>52535.2394231769</v>
       </c>
       <c r="D69" t="n">
-        <v>49590.6680903535</v>
+        <v>49974.7143224059</v>
       </c>
       <c r="E69" t="n">
         <v>70924.6690226764</v>
@@ -16621,7 +16621,7 @@
         <v>46091</v>
       </c>
       <c r="I69" t="n">
-        <v>14707.843755685</v>
+        <v>14932.4626535763</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
@@ -16641,13 +16641,13 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>59319.5112787108</v>
+        <v>59513.5138841581</v>
       </c>
       <c r="C70" t="n">
-        <v>51791.6002604188</v>
+        <v>51957.696180435</v>
       </c>
       <c r="D70" t="n">
-        <v>49609.85048724</v>
+        <v>49678.9100225075</v>
       </c>
       <c r="E70" t="n">
         <v>69199.4319986054</v>
@@ -16662,7 +16662,7 @@
         <v>45792</v>
       </c>
       <c r="I70" t="n">
-        <v>13527.5112787108</v>
+        <v>13721.5138841581</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
@@ -16682,7 +16682,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>56979.691836963</v>
+        <v>57157.4005655262</v>
       </c>
       <c r="C71" t="n">
         <v>49699.7484244802</v>
@@ -16703,7 +16703,7 @@
         <v>40900</v>
       </c>
       <c r="I71" t="n">
-        <v>16079.691836963</v>
+        <v>16257.4005655262</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -16723,7 +16723,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>57364.8443871592</v>
+        <v>57548.0697364212</v>
       </c>
       <c r="C72" t="n">
         <v>49950.2989302681</v>
@@ -16744,7 +16744,7 @@
         <v>42174</v>
       </c>
       <c r="I72" t="n">
-        <v>15190.8443871592</v>
+        <v>15374.0697364212</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
@@ -16764,7 +16764,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>56694.0032561187</v>
+        <v>56847.3139091566</v>
       </c>
       <c r="C73" t="n">
         <v>49637.2578398367</v>
@@ -16785,7 +16785,7 @@
         <v>42321</v>
       </c>
       <c r="I73" t="n">
-        <v>14373.0032561187</v>
+        <v>14526.3139091566</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
@@ -16805,7 +16805,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>54041.4722932974</v>
+        <v>54211.8743772871</v>
       </c>
       <c r="C74" t="n">
         <v>45361.0920067404</v>
@@ -16826,7 +16826,7 @@
         <v>39586</v>
       </c>
       <c r="I74" t="n">
-        <v>14455.4722932974</v>
+        <v>14625.8743772871</v>
       </c>
       <c r="J74" t="s">
         <v>14</v>
@@ -16846,7 +16846,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>49106.2780234168</v>
+        <v>49269.517726622</v>
       </c>
       <c r="C75" t="n">
         <v>41553.0617260608</v>
@@ -16867,7 +16867,7 @@
         <v>34683</v>
       </c>
       <c r="I75" t="n">
-        <v>14423.2780234168</v>
+        <v>14586.517726622</v>
       </c>
       <c r="J75" t="s">
         <v>14</v>
@@ -16887,13 +16887,13 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>62633.1271664431</v>
+        <v>62483.4057875622</v>
       </c>
       <c r="C76" t="n">
-        <v>51758.585670421</v>
+        <v>51996.089213864</v>
       </c>
       <c r="D76" t="n">
-        <v>48000.6757073943</v>
+        <v>48053.9115355766</v>
       </c>
       <c r="E76" t="n">
         <v>76192.8652084955</v>
@@ -16908,7 +16908,7 @@
         <v>46978</v>
       </c>
       <c r="I76" t="n">
-        <v>15655.1271664431</v>
+        <v>15505.4057875622</v>
       </c>
       <c r="J76" t="s">
         <v>14</v>
@@ -16928,13 +16928,13 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>60507.4467751205</v>
+        <v>60571.2109620281</v>
       </c>
       <c r="C77" t="n">
-        <v>50070.208893789</v>
+        <v>50169.9119788652</v>
       </c>
       <c r="D77" t="n">
-        <v>47608.9548603028</v>
+        <v>47473.7012500342</v>
       </c>
       <c r="E77" t="n">
         <v>73995.010460374</v>
@@ -16949,7 +16949,7 @@
         <v>39513</v>
       </c>
       <c r="I77" t="n">
-        <v>20994.4467751205</v>
+        <v>21058.2109620281</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
@@ -16969,13 +16969,13 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>62723.4521208134</v>
+        <v>62880.9157796444</v>
       </c>
       <c r="C78" t="n">
-        <v>51972.1437596468</v>
+        <v>52055.0751142071</v>
       </c>
       <c r="D78" t="n">
-        <v>49119.149641174</v>
+        <v>49206.3335521717</v>
       </c>
       <c r="E78" t="n">
         <v>77586.8841735568</v>
@@ -16990,7 +16990,7 @@
         <v>43751</v>
       </c>
       <c r="I78" t="n">
-        <v>18972.4521208134</v>
+        <v>19129.9157796444</v>
       </c>
       <c r="J78" t="s">
         <v>14</v>
@@ -17010,13 +17010,13 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>61414.8912375131</v>
+        <v>61587.7460867421</v>
       </c>
       <c r="C79" t="n">
-        <v>51271.4056697296</v>
+        <v>51622.9064852889</v>
       </c>
       <c r="D79" t="n">
-        <v>48525.7324722195</v>
+        <v>48603.7991409992</v>
       </c>
       <c r="E79" t="n">
         <v>76164.944312686</v>
@@ -17031,7 +17031,7 @@
         <v>48507</v>
       </c>
       <c r="I79" t="n">
-        <v>12907.8912375131</v>
+        <v>13080.7460867421</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -17051,13 +17051,13 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>64612.9450016815</v>
+        <v>64732.2886840289</v>
       </c>
       <c r="C80" t="n">
-        <v>53146.2940829215</v>
+        <v>53261.4220517634</v>
       </c>
       <c r="D80" t="n">
-        <v>50361.486517917</v>
+        <v>50463.8347102922</v>
       </c>
       <c r="E80" t="n">
         <v>81153.0563826827</v>
@@ -17072,7 +17072,7 @@
         <v>51391</v>
       </c>
       <c r="I80" t="n">
-        <v>13221.9450016815</v>
+        <v>13341.2886840289</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
@@ -17092,13 +17092,13 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>64108.846078026</v>
+        <v>64393.0203422955</v>
       </c>
       <c r="C81" t="n">
-        <v>52789.8394041067</v>
+        <v>53404.6292136298</v>
       </c>
       <c r="D81" t="n">
-        <v>49921.1852348977</v>
+        <v>50117.1070681487</v>
       </c>
       <c r="E81" t="n">
         <v>81461.9155220833</v>
@@ -17113,7 +17113,7 @@
         <v>50482</v>
       </c>
       <c r="I81" t="n">
-        <v>13626.846078026</v>
+        <v>13911.0203422955</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
@@ -17133,10 +17133,10 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>62637.9784520456</v>
+        <v>62873.9521806226</v>
       </c>
       <c r="C82" t="n">
-        <v>52871.2844720708</v>
+        <v>52905.550318871</v>
       </c>
       <c r="D82" t="n">
         <v>48283.2720274896</v>
@@ -17154,7 +17154,7 @@
         <v>44470</v>
       </c>
       <c r="I82" t="n">
-        <v>18167.9784520456</v>
+        <v>18403.9521806226</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
@@ -17174,7 +17174,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>60193.6609525188</v>
+        <v>60453.1305579744</v>
       </c>
       <c r="C83" t="n">
         <v>49598.1732429746</v>
@@ -17195,7 +17195,7 @@
         <v>39054</v>
       </c>
       <c r="I83" t="n">
-        <v>21139.6609525188</v>
+        <v>21399.1305579744</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -17215,7 +17215,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>60653.1068976225</v>
+        <v>60900.7170163572</v>
       </c>
       <c r="C84" t="n">
         <v>49765.8472690127</v>
@@ -17236,7 +17236,7 @@
         <v>35152</v>
       </c>
       <c r="I84" t="n">
-        <v>25501.1068976225</v>
+        <v>25748.7170163572</v>
       </c>
       <c r="J84" t="s">
         <v>14</v>
@@ -17256,7 +17256,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>60011.3627591091</v>
+        <v>60243.7285478673</v>
       </c>
       <c r="C85" t="n">
         <v>49458.8663957655</v>
@@ -17277,7 +17277,7 @@
         <v>24367</v>
       </c>
       <c r="I85" t="n">
-        <v>35644.3627591091</v>
+        <v>35876.7285478673</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -17297,7 +17297,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>57330.1448621323</v>
+        <v>57564.4543609717</v>
       </c>
       <c r="C86" t="n">
         <v>45039.7566473363</v>
@@ -17318,7 +17318,7 @@
         <v>28708</v>
       </c>
       <c r="I86" t="n">
-        <v>28622.1448621323</v>
+        <v>28856.4543609717</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
@@ -17338,7 +17338,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>52762.0189442643</v>
+        <v>52966.1967117177</v>
       </c>
       <c r="C87" t="n">
         <v>41181.4758393076</v>
@@ -17359,7 +17359,7 @@
         <v>43574</v>
       </c>
       <c r="I87" t="n">
-        <v>9188.01894426429</v>
+        <v>9392.19671171766</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -17371,7 +17371,7 @@
         <v>26</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -17379,10 +17379,10 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>65863.4563335257</v>
+        <v>65831.5774268439</v>
       </c>
       <c r="C88" t="n">
-        <v>52555.1427721779</v>
+        <v>53058.5569678464</v>
       </c>
       <c r="D88" t="n">
         <v>48906.0606449462</v>
@@ -17400,7 +17400,7 @@
         <v>49855</v>
       </c>
       <c r="I88" t="n">
-        <v>16008.4563335257</v>
+        <v>15976.5774268439</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -17412,7 +17412,7 @@
         <v>26</v>
       </c>
       <c r="M88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -17420,7 +17420,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>63733.0508239726</v>
+        <v>63889.4288247075</v>
       </c>
       <c r="C89" t="n">
         <v>51929.7796698681</v>
@@ -17441,7 +17441,7 @@
         <v>48926</v>
       </c>
       <c r="I89" t="n">
-        <v>14807.0508239726</v>
+        <v>14963.4288247075</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -17461,10 +17461,10 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>65989.6534345626</v>
+        <v>66172.8034590741</v>
       </c>
       <c r="C90" t="n">
-        <v>53047.2937315806</v>
+        <v>53481.6023752737</v>
       </c>
       <c r="D90" t="n">
         <v>48119.7414270635</v>
@@ -17482,7 +17482,7 @@
         <v>53258</v>
       </c>
       <c r="I90" t="n">
-        <v>12731.6534345626</v>
+        <v>12914.8034590741</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -17502,7 +17502,7 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>64704.1880392358</v>
+        <v>64949.5050701624</v>
       </c>
       <c r="C91" t="n">
         <v>52453.1266963323</v>
@@ -17523,7 +17523,7 @@
         <v>52007</v>
       </c>
       <c r="I91" t="n">
-        <v>12697.1880392358</v>
+        <v>12942.5050701624</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -17543,10 +17543,10 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>67850.4304606734</v>
+        <v>68030.544605018</v>
       </c>
       <c r="C92" t="n">
-        <v>53376.8191447006</v>
+        <v>53922.1034220889</v>
       </c>
       <c r="D92" t="n">
         <v>49358.7644875962</v>
@@ -17564,7 +17564,7 @@
         <v>58247</v>
       </c>
       <c r="I92" t="n">
-        <v>9603.43046067336</v>
+        <v>9783.54460501796</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
@@ -17584,10 +17584,10 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>67332.463216341</v>
+        <v>67657.908422898</v>
       </c>
       <c r="C93" t="n">
-        <v>53618.8300655382</v>
+        <v>54062.4859667061</v>
       </c>
       <c r="D93" t="n">
         <v>48200.8365547368</v>
@@ -17605,7 +17605,7 @@
         <v>61068</v>
       </c>
       <c r="I93" t="n">
-        <v>6264.46321634097</v>
+        <v>6589.90842289804</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -17625,7 +17625,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>65819.969084813</v>
+        <v>66086.1944633341</v>
       </c>
       <c r="C94" t="n">
         <v>52048.556326278</v>
@@ -17646,7 +17646,7 @@
         <v>55767</v>
       </c>
       <c r="I94" t="n">
-        <v>10052.969084813</v>
+        <v>10319.1944633341</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
@@ -17666,7 +17666,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>63276.9550409783</v>
+        <v>63594.206915328</v>
       </c>
       <c r="C95" t="n">
         <v>48720.3124778242</v>
@@ -17687,7 +17687,7 @@
         <v>56981</v>
       </c>
       <c r="I95" t="n">
-        <v>6295.95504097828</v>
+        <v>6613.20691532803</v>
       </c>
       <c r="J95" t="s">
         <v>14</v>
@@ -17707,7 +17707,7 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>63784.2188621669</v>
+        <v>64076.8035180231</v>
       </c>
       <c r="C96" t="n">
         <v>48838.3729652722</v>
@@ -17728,7 +17728,7 @@
         <v>57719</v>
       </c>
       <c r="I96" t="n">
-        <v>6065.21886216692</v>
+        <v>6357.80351802315</v>
       </c>
       <c r="J96" t="s">
         <v>14</v>
@@ -17748,7 +17748,7 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>63134.5711815639</v>
+        <v>63429.5279724667</v>
       </c>
       <c r="C97" t="n">
         <v>48488.6113361646</v>
@@ -17769,7 +17769,7 @@
         <v>50823</v>
       </c>
       <c r="I97" t="n">
-        <v>12311.5711815639</v>
+        <v>12606.5279724667</v>
       </c>
       <c r="J97" t="s">
         <v>14</v>
@@ -19339,7 +19339,7 @@
         <v>26</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -19380,7 +19380,7 @@
         <v>26</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -21307,7 +21307,7 @@
         <v>26</v>
       </c>
       <c r="M183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -21348,7 +21348,7 @@
         <v>26</v>
       </c>
       <c r="M184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -23275,7 +23275,7 @@
         <v>26</v>
       </c>
       <c r="M231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
@@ -23316,7 +23316,7 @@
         <v>26</v>
       </c>
       <c r="M232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -25298,7 +25298,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -25339,7 +25339,7 @@
         <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -25716,7 +25716,7 @@
         <v>43831</v>
       </c>
       <c r="B50" t="n">
-        <v>24358.577399554</v>
+        <v>24347.552189803</v>
       </c>
       <c r="C50" t="n">
         <v>18092.6444447926</v>
@@ -25725,10 +25725,10 @@
         <v>16064.1090125885</v>
       </c>
       <c r="E50" t="n">
-        <v>38436.2516115876</v>
+        <v>38428.3380984097</v>
       </c>
       <c r="F50" t="n">
-        <v>49427.7782579771</v>
+        <v>49477.1154040873</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -25737,7 +25737,7 @@
         <v>17159</v>
       </c>
       <c r="I50" t="n">
-        <v>7199.57739955404</v>
+        <v>7188.55218980305</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -25757,7 +25757,7 @@
         <v>43862</v>
       </c>
       <c r="B51" t="n">
-        <v>13820.6143339575</v>
+        <v>13839.0317173025</v>
       </c>
       <c r="C51" t="n">
         <v>10127.0551220868</v>
@@ -25766,10 +25766,10 @@
         <v>9011.79078507316</v>
       </c>
       <c r="E51" t="n">
-        <v>19221.0119409549</v>
+        <v>19364.7258809618</v>
       </c>
       <c r="F51" t="n">
-        <v>22690.1597142649</v>
+        <v>22908.0937606201</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -25778,7 +25778,7 @@
         <v>8018</v>
       </c>
       <c r="I51" t="n">
-        <v>5802.61433395746</v>
+        <v>5821.03171730247</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -25798,13 +25798,13 @@
         <v>43891</v>
       </c>
       <c r="B52" t="n">
-        <v>18572.4056119828</v>
+        <v>18577.2355528925</v>
       </c>
       <c r="C52" t="n">
-        <v>12726.7359776422</v>
+        <v>12746.4606840234</v>
       </c>
       <c r="D52" t="n">
-        <v>11447.501962646</v>
+        <v>11484.3926173507</v>
       </c>
       <c r="E52" t="n">
         <v>28175.4522536776</v>
@@ -25819,7 +25819,7 @@
         <v>6028</v>
       </c>
       <c r="I52" t="n">
-        <v>12544.4056119828</v>
+        <v>12549.2355528925</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -25839,13 +25839,13 @@
         <v>43922</v>
       </c>
       <c r="B53" t="n">
-        <v>27255.1099284259</v>
+        <v>27272.6410621977</v>
       </c>
       <c r="C53" t="n">
-        <v>15198.1373042539</v>
+        <v>15185.4713442938</v>
       </c>
       <c r="D53" t="n">
-        <v>12947.1496266373</v>
+        <v>12954.1315694326</v>
       </c>
       <c r="E53" t="n">
         <v>51322.829529277</v>
@@ -25860,7 +25860,7 @@
         <v>6169</v>
       </c>
       <c r="I53" t="n">
-        <v>21086.1099284259</v>
+        <v>21103.6410621977</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -25880,13 +25880,13 @@
         <v>43952</v>
       </c>
       <c r="B54" t="n">
-        <v>36532.9008333867</v>
+        <v>36584.221322</v>
       </c>
       <c r="C54" t="n">
-        <v>17609.3391313264</v>
+        <v>17699.2445989261</v>
       </c>
       <c r="D54" t="n">
-        <v>15048.7519907714</v>
+        <v>15056.5705778674</v>
       </c>
       <c r="E54" t="n">
         <v>85572.486270753</v>
@@ -25901,7 +25901,7 @@
         <v>9273</v>
       </c>
       <c r="I54" t="n">
-        <v>27259.9008333867</v>
+        <v>27311.221322</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -25921,13 +25921,13 @@
         <v>43983</v>
       </c>
       <c r="B55" t="n">
-        <v>39491.0217594978</v>
+        <v>39548.414126807</v>
       </c>
       <c r="C55" t="n">
-        <v>19485.4516903577</v>
+        <v>19614.0752033108</v>
       </c>
       <c r="D55" t="n">
-        <v>16354.3023066479</v>
+        <v>16467.2020840626</v>
       </c>
       <c r="E55" t="n">
         <v>99346.5360601493</v>
@@ -25942,7 +25942,7 @@
         <v>11995</v>
       </c>
       <c r="I55" t="n">
-        <v>27496.0217594978</v>
+        <v>27553.414126807</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -25962,7 +25962,7 @@
         <v>44013</v>
       </c>
       <c r="B56" t="n">
-        <v>33114.6738261357</v>
+        <v>33142.4250049916</v>
       </c>
       <c r="C56" t="n">
         <v>18361.3929195509</v>
@@ -25983,7 +25983,7 @@
         <v>9008</v>
       </c>
       <c r="I56" t="n">
-        <v>24106.6738261357</v>
+        <v>24134.4250049916</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -26003,7 +26003,7 @@
         <v>44044</v>
       </c>
       <c r="B57" t="n">
-        <v>21285.7403404022</v>
+        <v>21264.5395423215</v>
       </c>
       <c r="C57" t="n">
         <v>12476.3200255059</v>
@@ -26012,7 +26012,7 @@
         <v>10243.5898437275</v>
       </c>
       <c r="E57" t="n">
-        <v>36270.3947389659</v>
+        <v>35959.3246096087</v>
       </c>
       <c r="F57" t="n">
         <v>54087.2769181549</v>
@@ -26024,7 +26024,7 @@
         <v>9008</v>
       </c>
       <c r="I57" t="n">
-        <v>12277.7403404022</v>
+        <v>12256.5395423215</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -26044,7 +26044,7 @@
         <v>44075</v>
       </c>
       <c r="B58" t="n">
-        <v>19402.8934322052</v>
+        <v>19370.8312302146</v>
       </c>
       <c r="C58" t="n">
         <v>11497.1825722379</v>
@@ -26053,7 +26053,7 @@
         <v>9462.00447103951</v>
       </c>
       <c r="E58" t="n">
-        <v>33732.863938446</v>
+        <v>33465.2966452422</v>
       </c>
       <c r="F58" t="n">
         <v>48433.1778172126</v>
@@ -26065,7 +26065,7 @@
         <v>13212</v>
       </c>
       <c r="I58" t="n">
-        <v>6190.89343220517</v>
+        <v>6158.8312302146</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -26085,7 +26085,7 @@
         <v>44105</v>
       </c>
       <c r="B59" t="n">
-        <v>20418.3198457485</v>
+        <v>20391.011023817</v>
       </c>
       <c r="C59" t="n">
         <v>12016.8271575328</v>
@@ -26106,7 +26106,7 @@
         <v>12818</v>
       </c>
       <c r="I59" t="n">
-        <v>7600.31984574854</v>
+        <v>7573.01102381703</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -26126,7 +26126,7 @@
         <v>44136</v>
       </c>
       <c r="B60" t="n">
-        <v>25035.5975242835</v>
+        <v>25024.494761348</v>
       </c>
       <c r="C60" t="n">
         <v>14261.7481346777</v>
@@ -26147,7 +26147,7 @@
         <v>15211</v>
       </c>
       <c r="I60" t="n">
-        <v>9824.59752428353</v>
+        <v>9813.49476134796</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
@@ -26167,7 +26167,7 @@
         <v>44166</v>
       </c>
       <c r="B61" t="n">
-        <v>27719.8793534874</v>
+        <v>27714.4555588177</v>
       </c>
       <c r="C61" t="n">
         <v>15218.7116627951</v>
@@ -26188,7 +26188,7 @@
         <v>11437</v>
       </c>
       <c r="I61" t="n">
-        <v>16282.8793534874</v>
+        <v>16277.4555588177</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -26208,7 +26208,7 @@
         <v>44197</v>
       </c>
       <c r="B62" t="n">
-        <v>24441.9708130999</v>
+        <v>24430.9046897231</v>
       </c>
       <c r="C62" t="n">
         <v>13137.1502140118</v>
@@ -26229,7 +26229,7 @@
         <v>7078</v>
       </c>
       <c r="I62" t="n">
-        <v>17363.9708130999</v>
+        <v>17352.9046897231</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
@@ -26249,7 +26249,7 @@
         <v>44228</v>
       </c>
       <c r="B63" t="n">
-        <v>14252.8074745722</v>
+        <v>14355.5802748744</v>
       </c>
       <c r="C63" t="n">
         <v>8260.56133907371</v>
@@ -26258,10 +26258,10 @@
         <v>6834.17978950791</v>
       </c>
       <c r="E63" t="n">
-        <v>28729.1878390283</v>
+        <v>28869.6716629208</v>
       </c>
       <c r="F63" t="n">
-        <v>36014.5616051917</v>
+        <v>36077.4978566217</v>
       </c>
       <c r="G63" t="s">
         <v>37</v>
@@ -26270,7 +26270,7 @@
         <v>4393</v>
       </c>
       <c r="I63" t="n">
-        <v>9859.80747457219</v>
+        <v>9962.58027487443</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
@@ -26290,7 +26290,7 @@
         <v>44256</v>
       </c>
       <c r="B64" t="n">
-        <v>18611.0925971313</v>
+        <v>18647.3132843542</v>
       </c>
       <c r="C64" t="n">
         <v>10809.4618368325</v>
@@ -26311,7 +26311,7 @@
         <v>9604</v>
       </c>
       <c r="I64" t="n">
-        <v>9007.0925971313</v>
+        <v>9043.31328435419</v>
       </c>
       <c r="J64" t="s">
         <v>14</v>
@@ -26331,10 +26331,10 @@
         <v>44287</v>
       </c>
       <c r="B65" t="n">
-        <v>26692.0923544309</v>
+        <v>26709.5397726338</v>
       </c>
       <c r="C65" t="n">
-        <v>13407.0579422677</v>
+        <v>13401.6625853645</v>
       </c>
       <c r="D65" t="n">
         <v>10967.6489943652</v>
@@ -26352,7 +26352,7 @@
         <v>11501</v>
       </c>
       <c r="I65" t="n">
-        <v>15191.0923544309</v>
+        <v>15208.5397726338</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
@@ -26372,13 +26372,13 @@
         <v>44317</v>
       </c>
       <c r="B66" t="n">
-        <v>35289.4016666568</v>
+        <v>35319.7438386566</v>
       </c>
       <c r="C66" t="n">
-        <v>14964.7321839988</v>
+        <v>14953.8505022459</v>
       </c>
       <c r="D66" t="n">
-        <v>12604.5175228342</v>
+        <v>12580.504151311</v>
       </c>
       <c r="E66" t="n">
         <v>144760.36601956</v>
@@ -26393,7 +26393,7 @@
         <v>11970</v>
       </c>
       <c r="I66" t="n">
-        <v>23319.4016666568</v>
+        <v>23349.7438386566</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
@@ -26413,10 +26413,10 @@
         <v>44348</v>
       </c>
       <c r="B67" t="n">
-        <v>37950.9460481407</v>
+        <v>38004.4400644632</v>
       </c>
       <c r="C67" t="n">
-        <v>16363.7954381981</v>
+        <v>16392.4372659473</v>
       </c>
       <c r="D67" t="n">
         <v>13004.5100822935</v>
@@ -26434,7 +26434,7 @@
         <v>12015</v>
       </c>
       <c r="I67" t="n">
-        <v>25935.9460481407</v>
+        <v>25989.4400644632</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
@@ -26454,7 +26454,7 @@
         <v>44378</v>
       </c>
       <c r="B68" t="n">
-        <v>32092.3579260102</v>
+        <v>32148.4224370966</v>
       </c>
       <c r="C68" t="n">
         <v>15023.7949732691</v>
@@ -26475,7 +26475,7 @@
         <v>9367</v>
       </c>
       <c r="I68" t="n">
-        <v>22725.3579260102</v>
+        <v>22781.4224370966</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
@@ -26495,7 +26495,7 @@
         <v>44409</v>
       </c>
       <c r="B69" t="n">
-        <v>21577.519344483</v>
+        <v>21596.3583123729</v>
       </c>
       <c r="C69" t="n">
         <v>10679.949749488</v>
@@ -26516,7 +26516,7 @@
         <v>8353</v>
       </c>
       <c r="I69" t="n">
-        <v>13224.519344483</v>
+        <v>13243.3583123729</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
@@ -26536,7 +26536,7 @@
         <v>44440</v>
       </c>
       <c r="B70" t="n">
-        <v>20002.2464060735</v>
+        <v>19988.2081279258</v>
       </c>
       <c r="C70" t="n">
         <v>9970.77061124087</v>
@@ -26545,7 +26545,7 @@
         <v>7857.72258165793</v>
       </c>
       <c r="E70" t="n">
-        <v>42129.2647666515</v>
+        <v>41928.3435571219</v>
       </c>
       <c r="F70" t="n">
         <v>78653.4080235126</v>
@@ -26557,7 +26557,7 @@
         <v>12606</v>
       </c>
       <c r="I70" t="n">
-        <v>7396.24640607349</v>
+        <v>7382.20812792579</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
@@ -26577,7 +26577,7 @@
         <v>44470</v>
       </c>
       <c r="B71" t="n">
-        <v>20900.3539169634</v>
+        <v>20872.4639507214</v>
       </c>
       <c r="C71" t="n">
         <v>10444.3007627042</v>
@@ -26598,7 +26598,7 @@
         <v>11116</v>
       </c>
       <c r="I71" t="n">
-        <v>9784.35391696344</v>
+        <v>9756.46395072139</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -26618,7 +26618,7 @@
         <v>44501</v>
       </c>
       <c r="B72" t="n">
-        <v>25125.1199144237</v>
+        <v>25101.1902110233</v>
       </c>
       <c r="C72" t="n">
         <v>12294.3409740703</v>
@@ -26639,7 +26639,7 @@
         <v>11881</v>
       </c>
       <c r="I72" t="n">
-        <v>13244.1199144237</v>
+        <v>13220.1902110233</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
@@ -26659,7 +26659,7 @@
         <v>44531</v>
       </c>
       <c r="B73" t="n">
-        <v>27668.2226876418</v>
+        <v>27649.3606653986</v>
       </c>
       <c r="C73" t="n">
         <v>13115.6534975643</v>
@@ -26680,7 +26680,7 @@
         <v>10892</v>
       </c>
       <c r="I73" t="n">
-        <v>16776.2226876418</v>
+        <v>16757.3606653986</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
@@ -26700,7 +26700,7 @@
         <v>44562</v>
       </c>
       <c r="B74" t="n">
-        <v>24463.0919676686</v>
+        <v>24443.5577867121</v>
       </c>
       <c r="C74" t="n">
         <v>11540.0256119915</v>
@@ -26721,7 +26721,7 @@
         <v>6570</v>
       </c>
       <c r="I74" t="n">
-        <v>17893.0919676686</v>
+        <v>17873.5577867121</v>
       </c>
       <c r="J74" t="s">
         <v>14</v>
@@ -26741,7 +26741,7 @@
         <v>44593</v>
       </c>
       <c r="B75" t="n">
-        <v>15848.2113443777</v>
+        <v>15891.2056883325</v>
       </c>
       <c r="C75" t="n">
         <v>7508.31736126025</v>
@@ -26750,10 +26750,10 @@
         <v>6028.80690028605</v>
       </c>
       <c r="E75" t="n">
-        <v>38815.3308849224</v>
+        <v>38807.5107889808</v>
       </c>
       <c r="F75" t="n">
-        <v>54251.4025213225</v>
+        <v>53902.7970516696</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -26762,7 +26762,7 @@
         <v>4491</v>
       </c>
       <c r="I75" t="n">
-        <v>11357.2113443777</v>
+        <v>11400.2056883325</v>
       </c>
       <c r="J75" t="s">
         <v>14</v>
@@ -26782,7 +26782,7 @@
         <v>44621</v>
       </c>
       <c r="B76" t="n">
-        <v>19549.9335353355</v>
+        <v>19563.5703859681</v>
       </c>
       <c r="C76" t="n">
         <v>9721.64643941573</v>
@@ -26803,7 +26803,7 @@
         <v>10001</v>
       </c>
       <c r="I76" t="n">
-        <v>9548.93353533551</v>
+        <v>9562.57038596812</v>
       </c>
       <c r="J76" t="s">
         <v>14</v>
@@ -26823,7 +26823,7 @@
         <v>44652</v>
       </c>
       <c r="B77" t="n">
-        <v>27092.3504418266</v>
+        <v>27092.6545831058</v>
       </c>
       <c r="C77" t="n">
         <v>12712.2919542595</v>
@@ -26844,7 +26844,7 @@
         <v>9968</v>
       </c>
       <c r="I77" t="n">
-        <v>17124.3504418266</v>
+        <v>17124.6545831058</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
@@ -26864,10 +26864,10 @@
         <v>44682</v>
       </c>
       <c r="B78" t="n">
-        <v>35219.3017903363</v>
+        <v>35228.5405928235</v>
       </c>
       <c r="C78" t="n">
-        <v>13634.3900621679</v>
+        <v>13626.6730379984</v>
       </c>
       <c r="D78" t="n">
         <v>10953.7595637456</v>
@@ -26885,7 +26885,7 @@
         <v>11151</v>
       </c>
       <c r="I78" t="n">
-        <v>24068.3017903363</v>
+        <v>24077.5405928235</v>
       </c>
       <c r="J78" t="s">
         <v>14</v>
@@ -26905,10 +26905,10 @@
         <v>44713</v>
       </c>
       <c r="B79" t="n">
-        <v>37536.4811357329</v>
+        <v>37562.2105385546</v>
       </c>
       <c r="C79" t="n">
-        <v>14614.0891415861</v>
+        <v>14607.6140274331</v>
       </c>
       <c r="D79" t="n">
         <v>11155.8710716245</v>
@@ -26924,7 +26924,7 @@
         <v>11945</v>
       </c>
       <c r="I79" t="n">
-        <v>25591.4811357329</v>
+        <v>25617.2105385546</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -26944,7 +26944,7 @@
         <v>44743</v>
       </c>
       <c r="B80" t="n">
-        <v>31603.6684235759</v>
+        <v>31643.8673616314</v>
       </c>
       <c r="C80" t="n">
         <v>13451.0581028725</v>
@@ -26965,7 +26965,7 @@
         <v>9391</v>
       </c>
       <c r="I80" t="n">
-        <v>22212.6684235759</v>
+        <v>22252.8673616314</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
@@ -26985,7 +26985,7 @@
         <v>44774</v>
       </c>
       <c r="B81" t="n">
-        <v>21442.1374022264</v>
+        <v>21475.882692046</v>
       </c>
       <c r="C81" t="n">
         <v>9769.7192097405</v>
@@ -27006,7 +27006,7 @@
         <v>8472</v>
       </c>
       <c r="I81" t="n">
-        <v>12970.1374022264</v>
+        <v>13003.882692046</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
@@ -27026,7 +27026,7 @@
         <v>44805</v>
       </c>
       <c r="B82" t="n">
-        <v>20175.7919717471</v>
+        <v>20187.8151125151</v>
       </c>
       <c r="C82" t="n">
         <v>9171.78565403236</v>
@@ -27047,7 +27047,7 @@
         <v>11041</v>
       </c>
       <c r="I82" t="n">
-        <v>9134.79197174707</v>
+        <v>9146.81511251513</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
@@ -27067,7 +27067,7 @@
         <v>44835</v>
       </c>
       <c r="B83" t="n">
-        <v>21203.2593609534</v>
+        <v>21194.0072463916</v>
       </c>
       <c r="C83" t="n">
         <v>9606.48652750789</v>
@@ -27088,7 +27088,7 @@
         <v>9537</v>
       </c>
       <c r="I83" t="n">
-        <v>11666.2593609534</v>
+        <v>11657.0072463916</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -27108,7 +27108,7 @@
         <v>44866</v>
       </c>
       <c r="B84" t="n">
-        <v>25347.4635023759</v>
+        <v>25327.5044214897</v>
       </c>
       <c r="C84" t="n">
         <v>11242.4952361484</v>
@@ -27129,7 +27129,7 @@
         <v>8702</v>
       </c>
       <c r="I84" t="n">
-        <v>16645.4635023759</v>
+        <v>16625.5044214897</v>
       </c>
       <c r="J84" t="s">
         <v>14</v>
@@ -27149,7 +27149,7 @@
         <v>44896</v>
       </c>
       <c r="B85" t="n">
-        <v>27802.0741274798</v>
+        <v>27777.5702382675</v>
       </c>
       <c r="C85" t="n">
         <v>11977.8083646304</v>
@@ -27170,7 +27170,7 @@
         <v>3839</v>
       </c>
       <c r="I85" t="n">
-        <v>23963.0741274798</v>
+        <v>23938.5702382675</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -27190,7 +27190,7 @@
         <v>44927</v>
       </c>
       <c r="B86" t="n">
-        <v>24584.0434780823</v>
+        <v>24555.4447332538</v>
       </c>
       <c r="C86" t="n">
         <v>10637.4505337609</v>
@@ -27211,7 +27211,7 @@
         <v>2370</v>
       </c>
       <c r="I86" t="n">
-        <v>22214.0434780823</v>
+        <v>22185.4447332538</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
@@ -27231,7 +27231,7 @@
         <v>44958</v>
       </c>
       <c r="B87" t="n">
-        <v>16867.2208699208</v>
+        <v>16855.5089740382</v>
       </c>
       <c r="C87" t="n">
         <v>7056.72193509203</v>
@@ -27240,10 +27240,10 @@
         <v>5560.97404019948</v>
       </c>
       <c r="E87" t="n">
-        <v>43320.8970556415</v>
+        <v>43643.3795567264</v>
       </c>
       <c r="F87" t="n">
-        <v>66942.0103275871</v>
+        <v>66386.9801635944</v>
       </c>
       <c r="G87" t="s">
         <v>37</v>
@@ -27252,7 +27252,7 @@
         <v>4548</v>
       </c>
       <c r="I87" t="n">
-        <v>12319.2208699208</v>
+        <v>12307.5089740382</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -27264,7 +27264,7 @@
         <v>16</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -27272,7 +27272,7 @@
         <v>44986</v>
       </c>
       <c r="B88" t="n">
-        <v>20552.5157480903</v>
+        <v>20535.4855986722</v>
       </c>
       <c r="C88" t="n">
         <v>9068.0307354836</v>
@@ -27293,7 +27293,7 @@
         <v>7299</v>
       </c>
       <c r="I88" t="n">
-        <v>13253.5157480903</v>
+        <v>13236.4855986722</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -27305,7 +27305,7 @@
         <v>16</v>
       </c>
       <c r="M88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -27313,7 +27313,7 @@
         <v>45017</v>
       </c>
       <c r="B89" t="n">
-        <v>27861.4841191716</v>
+        <v>27837.4605580025</v>
       </c>
       <c r="C89" t="n">
         <v>11750.5270156756</v>
@@ -27334,7 +27334,7 @@
         <v>7028</v>
       </c>
       <c r="I89" t="n">
-        <v>20833.4841191716</v>
+        <v>20809.4605580025</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -27354,10 +27354,10 @@
         <v>45047</v>
       </c>
       <c r="B90" t="n">
-        <v>35684.4295037345</v>
+        <v>35664.4888107044</v>
       </c>
       <c r="C90" t="n">
-        <v>13171.3270967569</v>
+        <v>13099.5217503033</v>
       </c>
       <c r="D90" t="n">
         <v>9871.7421132616</v>
@@ -27373,7 +27373,7 @@
         <v>8930</v>
       </c>
       <c r="I90" t="n">
-        <v>26754.4295037345</v>
+        <v>26734.4888107044</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -27393,10 +27393,10 @@
         <v>45078</v>
       </c>
       <c r="B91" t="n">
-        <v>37721.6133285675</v>
+        <v>37714.8146309982</v>
       </c>
       <c r="C91" t="n">
-        <v>14174.3822488968</v>
+        <v>14056.6700929626</v>
       </c>
       <c r="D91" t="n">
         <v>10065.7646230228</v>
@@ -27412,7 +27412,7 @@
         <v>10710</v>
       </c>
       <c r="I91" t="n">
-        <v>27011.6133285675</v>
+        <v>27004.8146309982</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -27432,7 +27432,7 @@
         <v>45108</v>
       </c>
       <c r="B92" t="n">
-        <v>31620.833960472</v>
+        <v>31630.0178162172</v>
       </c>
       <c r="C92" t="n">
         <v>12467.7367931876</v>
@@ -27453,7 +27453,7 @@
         <v>9280</v>
       </c>
       <c r="I92" t="n">
-        <v>22340.833960472</v>
+        <v>22350.0178162172</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
@@ -27473,7 +27473,7 @@
         <v>45139</v>
       </c>
       <c r="B93" t="n">
-        <v>21451.444042213</v>
+        <v>21468.5161484603</v>
       </c>
       <c r="C93" t="n">
         <v>9179.01862585911</v>
@@ -27494,7 +27494,7 @@
         <v>7919</v>
       </c>
       <c r="I93" t="n">
-        <v>13532.444042213</v>
+        <v>13549.5161484603</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -27514,7 +27514,7 @@
         <v>45170</v>
       </c>
       <c r="B94" t="n">
-        <v>20252.8792895879</v>
+        <v>20265.3176770665</v>
       </c>
       <c r="C94" t="n">
         <v>8644.97016497651</v>
@@ -27535,7 +27535,7 @@
         <v>10867</v>
       </c>
       <c r="I94" t="n">
-        <v>9385.87928958791</v>
+        <v>9398.31767706646</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
@@ -27555,7 +27555,7 @@
         <v>45200</v>
       </c>
       <c r="B95" t="n">
-        <v>21365.0965116512</v>
+        <v>21364.4919331532</v>
       </c>
       <c r="C95" t="n">
         <v>9049.71196455794</v>
@@ -27576,7 +27576,7 @@
         <v>8287</v>
       </c>
       <c r="I95" t="n">
-        <v>13078.0965116512</v>
+        <v>13077.4919331532</v>
       </c>
       <c r="J95" t="s">
         <v>14</v>
@@ -27596,7 +27596,7 @@
         <v>45231</v>
       </c>
       <c r="B96" t="n">
-        <v>25526.7923072146</v>
+        <v>25512.5857104808</v>
       </c>
       <c r="C96" t="n">
         <v>10543.7000165822</v>
@@ -27617,7 +27617,7 @@
         <v>7642</v>
       </c>
       <c r="I96" t="n">
-        <v>17884.7923072146</v>
+        <v>17870.5857104808</v>
       </c>
       <c r="J96" t="s">
         <v>14</v>
@@ -27637,7 +27637,7 @@
         <v>45261</v>
       </c>
       <c r="B97" t="n">
-        <v>27965.846441631</v>
+        <v>27940.4074223899</v>
       </c>
       <c r="C97" t="n">
         <v>11218.0042102211</v>
@@ -27658,7 +27658,7 @@
         <v>7092</v>
       </c>
       <c r="I97" t="n">
-        <v>20873.846441631</v>
+        <v>20848.4074223899</v>
       </c>
       <c r="J97" t="s">
         <v>14</v>
@@ -29228,7 +29228,7 @@
         <v>26</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -29269,7 +29269,7 @@
         <v>26</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -31196,7 +31196,7 @@
         <v>16</v>
       </c>
       <c r="M183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -31237,7 +31237,7 @@
         <v>16</v>
       </c>
       <c r="M184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -33164,7 +33164,7 @@
         <v>26</v>
       </c>
       <c r="M231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
@@ -33205,7 +33205,7 @@
         <v>26</v>
       </c>
       <c r="M232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -33637,7 +33637,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2520.22608915359</v>
+        <v>2554.05784906726</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -33658,7 +33658,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>75.2260891535907</v>
+        <v>109.057849067263</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -33678,7 +33678,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2601.1300606122</v>
+        <v>2619.75006196415</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -33699,7 +33699,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1668.1300606122</v>
+        <v>1686.75006196415</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -33719,13 +33719,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4579.58257409743</v>
+        <v>4604.89477369981</v>
       </c>
       <c r="C4" t="n">
-        <v>3583.46847958981</v>
+        <v>3657.19283689755</v>
       </c>
       <c r="D4" t="n">
-        <v>3458.27291527576</v>
+        <v>3485.59788473942</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -33740,7 +33740,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.58257409743</v>
+        <v>1096.89477369981</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -33760,13 +33760,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5209.81028867889</v>
+        <v>5258.17043206857</v>
       </c>
       <c r="C5" t="n">
-        <v>4015.79375305297</v>
+        <v>4167.63603231541</v>
       </c>
       <c r="D5" t="n">
-        <v>3838.53275622135</v>
+        <v>3868.95154727896</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -33781,7 +33781,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-150.189711321113</v>
+        <v>-101.829567931427</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -33801,13 +33801,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6122.76281129194</v>
+        <v>6225.16680982734</v>
       </c>
       <c r="C6" t="n">
-        <v>4584.6519933116</v>
+        <v>4830.82597472165</v>
       </c>
       <c r="D6" t="n">
-        <v>4220.52092003925</v>
+        <v>4399.75161981965</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -33822,7 +33822,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>858.762811291938</v>
+        <v>961.166809827337</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -33842,13 +33842,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6507.49196784905</v>
+        <v>6647.07832383379</v>
       </c>
       <c r="C7" t="n">
-        <v>4830.01434364413</v>
+        <v>5190.68248524955</v>
       </c>
       <c r="D7" t="n">
-        <v>4265.19318711448</v>
+        <v>4615.31545913593</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -33863,7 +33863,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>314.491967849047</v>
+        <v>454.078323833786</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -33883,13 +33883,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6332.20644361887</v>
+        <v>6553.11920460119</v>
       </c>
       <c r="C8" t="n">
-        <v>4418.19850010239</v>
+        <v>4930.10962584384</v>
       </c>
       <c r="D8" t="n">
-        <v>3935.16308718223</v>
+        <v>4325.48088487394</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -33904,7 +33904,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1360.20644361887</v>
+        <v>1581.11920460119</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -33924,7 +33924,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5546.64864939087</v>
+        <v>5703.11088362786</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -33945,7 +33945,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>574.648649390866</v>
+        <v>731.110883627864</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -33965,7 +33965,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4072.98190664041</v>
+        <v>4230.73294012255</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -33974,10 +33974,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5909.08116029609</v>
+        <v>6113.26596034152</v>
       </c>
       <c r="F10" t="n">
-        <v>6211.64934226131</v>
+        <v>6353.22426501658</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -33986,7 +33986,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-419.018093359587</v>
+        <v>-261.267059877448</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -34006,7 +34006,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2973.47256755123</v>
+        <v>3208.26168802262</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -34015,10 +34015,10 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4329.31540999517</v>
+        <v>4940.04018441525</v>
       </c>
       <c r="F11" t="n">
-        <v>4708.01462847304</v>
+        <v>5298.35406832749</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -34027,10 +34027,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-232.527432448774</v>
+        <v>2.26168802261964</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
@@ -34047,7 +34047,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3079.33797239095</v>
+        <v>3218.0666403121</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -34068,7 +34068,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-531.662027609047</v>
+        <v>-392.933359687898</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -34088,7 +34088,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3119.50908873943</v>
+        <v>3205.73956502267</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -34109,7 +34109,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-574.490911260571</v>
+        <v>-488.260434977327</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -34129,7 +34129,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2659.9969382211</v>
+        <v>2708.21559493809</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -34150,7 +34150,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-515.003061778902</v>
+        <v>-466.784405061912</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -34170,7 +34170,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2805.59178655453</v>
+        <v>2813.01480209488</v>
       </c>
       <c r="C15" t="n">
         <v>1739.511421226</v>
@@ -34191,7 +34191,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-619.408213445467</v>
+        <v>-611.985197905125</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -34211,13 +34211,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4434.54901708254</v>
+        <v>4452.06520055205</v>
       </c>
       <c r="C16" t="n">
-        <v>2555.24322441158</v>
+        <v>2621.59858095478</v>
       </c>
       <c r="D16" t="n">
-        <v>2348.33279195406</v>
+        <v>2436.89087428613</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -34232,7 +34232,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2785.45098291746</v>
+        <v>-2767.93479944795</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -34252,13 +34252,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5291.71071094716</v>
+        <v>5200.81375803505</v>
       </c>
       <c r="C17" t="n">
-        <v>3591.95716632299</v>
+        <v>3282.21763413367</v>
       </c>
       <c r="D17" t="n">
-        <v>3039.60259796516</v>
+        <v>2985.98714134414</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -34273,7 +34273,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2556.28928905284</v>
+        <v>-2647.18624196495</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -34293,13 +34293,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6201.54805873002</v>
+        <v>6096.14687846316</v>
       </c>
       <c r="C18" t="n">
-        <v>4058.27312921099</v>
+        <v>3831.207622359</v>
       </c>
       <c r="D18" t="n">
-        <v>3564.3250414239</v>
+        <v>3463.3292702407</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -34314,7 +34314,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1894.45194126998</v>
+        <v>-1999.85312153684</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -34334,13 +34334,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6631.41633963561</v>
+        <v>6422.86557617782</v>
       </c>
       <c r="C19" t="n">
-        <v>4346.55437725983</v>
+        <v>4113.00361417104</v>
       </c>
       <c r="D19" t="n">
-        <v>3707.33132005967</v>
+        <v>3633.1504405902</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -34355,7 +34355,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3038.58366036439</v>
+        <v>-3247.13442382218</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -34375,10 +34375,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6689.09004452504</v>
+        <v>6276.83468386286</v>
       </c>
       <c r="C20" t="n">
-        <v>4381.89567560406</v>
+        <v>4338.00581906646</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -34396,7 +34396,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2532.90995547496</v>
+        <v>-2945.16531613714</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -34416,7 +34416,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6085.31317741155</v>
+        <v>5515.75629751937</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -34437,7 +34437,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-781.686822588455</v>
+        <v>-1351.24370248063</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -34457,7 +34457,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4617.05082421935</v>
+        <v>4188.77428312046</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -34466,10 +34466,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7117.36240885461</v>
+        <v>6529.08546925863</v>
       </c>
       <c r="F22" t="n">
-        <v>7583.42900695803</v>
+        <v>7551.56273391586</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -34478,7 +34478,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1314.94917578065</v>
+        <v>-1743.22571687954</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -34498,7 +34498,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3439.50255028697</v>
+        <v>3226.8789052484</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -34507,10 +34507,10 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>5348.35033048212</v>
+        <v>5444.65589875805</v>
       </c>
       <c r="F23" t="n">
-        <v>6016.79481331413</v>
+        <v>6029.42772236003</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -34519,7 +34519,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-182.497449713032</v>
+        <v>-395.121094751596</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -34539,7 +34539,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3314.69282551248</v>
+        <v>3231.39442165279</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -34560,7 +34560,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-334.307174487524</v>
+        <v>-417.605578347213</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -34580,7 +34580,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3219.42423442739</v>
+        <v>3208.9805681149</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00664776947</v>
@@ -34601,7 +34601,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1699.57576557261</v>
+        <v>-1710.0194318851</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -34621,7 +34621,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2800.68092353902</v>
+        <v>2782.53970601424</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24887290613</v>
@@ -34642,7 +34642,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1595.31907646098</v>
+        <v>-1613.46029398576</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -34662,7 +34662,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2949.76359088171</v>
+        <v>2901.02374228052</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76508825466</v>
@@ -34683,7 +34683,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1739.23640911829</v>
+        <v>-1787.97625771948</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -34703,13 +34703,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4583.91571278839</v>
+        <v>4492.49120697023</v>
       </c>
       <c r="C28" t="n">
-        <v>2211.33564387758</v>
+        <v>1966.39079028843</v>
       </c>
       <c r="D28" t="n">
-        <v>1800.25577767751</v>
+        <v>1535.41727108716</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -34724,7 +34724,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2072.08428721161</v>
+        <v>-2163.50879302977</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -34744,13 +34744,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5172.56523268995</v>
+        <v>5099.40619556925</v>
       </c>
       <c r="C29" t="n">
-        <v>2941.98779556963</v>
+        <v>2250.60716164607</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.11284856902</v>
+        <v>1752.80362725417</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -34765,7 +34765,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1951.43476731005</v>
+        <v>-2024.59380443075</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -34785,13 +34785,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6436.16615609663</v>
+        <v>6050.60374396076</v>
       </c>
       <c r="C30" t="n">
-        <v>3839.23488708462</v>
+        <v>2765.0224828787</v>
       </c>
       <c r="D30" t="n">
-        <v>2854.30301121725</v>
+        <v>2255.47681938644</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -34806,7 +34806,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2387.83384390337</v>
+        <v>-2773.39625603924</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -34826,13 +34826,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6861.05456960715</v>
+        <v>6280.2282244919</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.31326272684</v>
+        <v>3328.12089579642</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.30065609826</v>
+        <v>2767.58894615949</v>
       </c>
       <c r="E31" t="n">
         <v>11414.5143524357</v>
@@ -34847,7 +34847,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3081.94543039285</v>
+        <v>-3662.7717755081</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -34867,10 +34867,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6993.30811374558</v>
+        <v>6154.97589926117</v>
       </c>
       <c r="C32" t="n">
-        <v>3846.91026639935</v>
+        <v>3692.28111209629</v>
       </c>
       <c r="D32" t="n">
         <v>2726.75566049589</v>
@@ -34888,7 +34888,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2689.69188625442</v>
+        <v>-3528.02410073883</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -34908,7 +34908,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6300.27675078031</v>
+        <v>5431.84514267366</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -34929,7 +34929,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1586.72324921969</v>
+        <v>-2455.15485732634</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -34949,7 +34949,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4948.28518341289</v>
+        <v>4063.49757659111</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -34958,7 +34958,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7331.92561284433</v>
+        <v>7196.2425014789</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -34970,7 +34970,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-362.714816587108</v>
+        <v>-1247.50242340889</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -34990,7 +34990,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3878.15548611513</v>
+        <v>3199.6656779107</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -34999,7 +34999,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>6135.06885014175</v>
+        <v>6086.88751748843</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -35011,7 +35011,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>1343.15548611513</v>
+        <v>664.665677910702</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -35031,7 +35031,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3622.76585326116</v>
+        <v>3223.3038939989</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -35052,7 +35052,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>1053.76585326116</v>
+        <v>654.303893998904</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -35072,7 +35072,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3296.66680200526</v>
+        <v>3153.59398599711</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83211585826</v>
@@ -35093,7 +35093,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1476.66680200526</v>
+        <v>1333.59398599711</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -35113,7 +35113,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2866.65523064283</v>
+        <v>2770.06325645664</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -35134,7 +35134,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>548.655230642828</v>
+        <v>452.063256456635</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -35154,7 +35154,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3077.80608193305</v>
+        <v>2897.56474961428</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -35175,7 +35175,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2584.19391806695</v>
+        <v>-2764.43525038572</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -35187,7 +35187,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -35195,13 +35195,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4706.47475401458</v>
+        <v>4520.96512971617</v>
       </c>
       <c r="C40" t="n">
-        <v>1836.85599140829</v>
+        <v>1333.53513567636</v>
       </c>
       <c r="D40" t="n">
-        <v>1178.58295173923</v>
+        <v>1125.05589416026</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -35216,7 +35216,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1836.52524598542</v>
+        <v>-2022.03487028383</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -35228,7 +35228,7 @@
         <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -35236,13 +35236,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5149.55004030307</v>
+        <v>4975.50714692157</v>
       </c>
       <c r="C41" t="n">
-        <v>2486.77774356609</v>
+        <v>1377.24683688247</v>
       </c>
       <c r="D41" t="n">
-        <v>1722.85011950393</v>
+        <v>1070.1652241003</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -35257,7 +35257,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2527.44995969693</v>
+        <v>-2701.49285307843</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -35277,13 +35277,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6406.60896867615</v>
+        <v>6011.66763725157</v>
       </c>
       <c r="C42" t="n">
-        <v>3418.60061292887</v>
+        <v>1768.47620439158</v>
       </c>
       <c r="D42" t="n">
-        <v>2151.34369420497</v>
+        <v>1217.89994251328</v>
       </c>
       <c r="E42" t="n">
         <v>12134.7960344282</v>
@@ -35298,7 +35298,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2660.39103132385</v>
+        <v>-3055.33236274843</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -35318,13 +35318,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6820.12389734799</v>
+        <v>6292.73234303618</v>
       </c>
       <c r="C43" t="n">
-        <v>3513.08387032542</v>
+        <v>2597.21389604538</v>
       </c>
       <c r="D43" t="n">
-        <v>2201.5017212826</v>
+        <v>1831.14561875674</v>
       </c>
       <c r="E43" t="n">
         <v>12620.2865184947</v>
@@ -35339,7 +35339,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1505.87610265201</v>
+        <v>-2033.26765696382</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -35359,10 +35359,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6903.81747366134</v>
+        <v>6132.1769948323</v>
       </c>
       <c r="C44" t="n">
-        <v>3323.75248837071</v>
+        <v>3282.84319608845</v>
       </c>
       <c r="D44" t="n">
         <v>2036.41531244868</v>
@@ -35380,7 +35380,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2260.18252633866</v>
+        <v>-3031.8230051677</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -35400,7 +35400,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6238.46039314897</v>
+        <v>5430.25271895209</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -35421,7 +35421,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2115.53960685103</v>
+        <v>-2923.74728104791</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -35441,7 +35441,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4881.76833898923</v>
+        <v>4190.4078379091</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -35462,7 +35462,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1105.23166101077</v>
+        <v>-1796.5921620909</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -35482,7 +35482,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3809.70095215896</v>
+        <v>3240.90746205797</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -35503,7 +35503,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-667.299047841044</v>
+        <v>-1236.09253794203</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -35523,7 +35523,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3649.39838524053</v>
+        <v>3252.88459366779</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -35544,7 +35544,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-890.601614759466</v>
+        <v>-1287.11540633221</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -35564,7 +35564,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3385.65245294953</v>
+        <v>3223.54084587535</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -35585,7 +35585,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-357.347547050473</v>
+        <v>-519.459154124646</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -36851,7 +36851,7 @@
         <v>26</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -36884,7 +36884,7 @@
         <v>26</v>
       </c>
       <c r="M88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -38739,7 +38739,7 @@
         <v>26</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -38780,7 +38780,7 @@
         <v>26</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -39157,13 +39157,13 @@
         <v>43831</v>
       </c>
       <c r="B146" t="n">
-        <v>277.865830339977</v>
+        <v>277.754285936539</v>
       </c>
       <c r="C146" t="n">
-        <v>189.345189679115</v>
+        <v>189.032243958065</v>
       </c>
       <c r="D146" t="n">
-        <v>170.770103959806</v>
+        <v>170.515208523878</v>
       </c>
       <c r="E146" t="n">
         <v>440.627362179176</v>
@@ -39178,7 +39178,7 @@
         <v>348</v>
       </c>
       <c r="I146" t="n">
-        <v>-70.1341696600232</v>
+        <v>-70.2457140634614</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
@@ -39198,13 +39198,13 @@
         <v>43862</v>
       </c>
       <c r="B147" t="n">
-        <v>248.288514692825</v>
+        <v>248.259618022897</v>
       </c>
       <c r="C147" t="n">
-        <v>185.678128716803</v>
+        <v>185.525875117934</v>
       </c>
       <c r="D147" t="n">
-        <v>168.303618742774</v>
+        <v>168.334561604841</v>
       </c>
       <c r="E147" t="n">
         <v>377.788952082555</v>
@@ -39219,7 +39219,7 @@
         <v>126</v>
       </c>
       <c r="I147" t="n">
-        <v>122.288514692825</v>
+        <v>122.259618022897</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
@@ -39239,7 +39239,7 @@
         <v>43891</v>
       </c>
       <c r="B148" t="n">
-        <v>192.912837326749</v>
+        <v>192.990385189317</v>
       </c>
       <c r="C148" t="n">
         <v>143.01186863588</v>
@@ -39260,7 +39260,7 @@
         <v>92</v>
       </c>
       <c r="I148" t="n">
-        <v>100.912837326749</v>
+        <v>100.990385189317</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
@@ -39280,7 +39280,7 @@
         <v>43922</v>
       </c>
       <c r="B149" t="n">
-        <v>210.549287911194</v>
+        <v>210.485436330761</v>
       </c>
       <c r="C149" t="n">
         <v>151.169620017098</v>
@@ -39301,7 +39301,7 @@
         <v>54</v>
       </c>
       <c r="I149" t="n">
-        <v>156.549287911194</v>
+        <v>156.485436330761</v>
       </c>
       <c r="J149" t="s">
         <v>14</v>
@@ -39321,7 +39321,7 @@
         <v>43952</v>
       </c>
       <c r="B150" t="n">
-        <v>238.182134870172</v>
+        <v>238.090020608073</v>
       </c>
       <c r="C150" t="n">
         <v>161.529209914064</v>
@@ -39342,7 +39342,7 @@
         <v>40</v>
       </c>
       <c r="I150" t="n">
-        <v>198.182134870172</v>
+        <v>198.090020608073</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
@@ -39362,7 +39362,7 @@
         <v>43983</v>
       </c>
       <c r="B151" t="n">
-        <v>262.712803854876</v>
+        <v>262.61286610835</v>
       </c>
       <c r="C151" t="n">
         <v>173.974474251093</v>
@@ -39383,7 +39383,7 @@
         <v>74</v>
       </c>
       <c r="I151" t="n">
-        <v>188.712803854876</v>
+        <v>188.61286610835</v>
       </c>
       <c r="J151" t="s">
         <v>14</v>
@@ -39403,7 +39403,7 @@
         <v>44013</v>
       </c>
       <c r="B152" t="n">
-        <v>272.531068565446</v>
+        <v>272.412189425834</v>
       </c>
       <c r="C152" t="n">
         <v>186.780385608902</v>
@@ -39424,7 +39424,7 @@
         <v>57</v>
       </c>
       <c r="I152" t="n">
-        <v>215.531068565446</v>
+        <v>215.412189425834</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -39444,7 +39444,7 @@
         <v>44044</v>
       </c>
       <c r="B153" t="n">
-        <v>238.86900379417</v>
+        <v>238.858596290968</v>
       </c>
       <c r="C153" t="n">
         <v>170.178817301019</v>
@@ -39465,7 +39465,7 @@
         <v>57</v>
       </c>
       <c r="I153" t="n">
-        <v>181.86900379417</v>
+        <v>181.858596290968</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -39485,7 +39485,7 @@
         <v>44075</v>
       </c>
       <c r="B154" t="n">
-        <v>226.274865091437</v>
+        <v>226.309594940351</v>
       </c>
       <c r="C154" t="n">
         <v>158.056003992552</v>
@@ -39506,7 +39506,7 @@
         <v>81</v>
       </c>
       <c r="I154" t="n">
-        <v>145.274865091437</v>
+        <v>145.309594940351</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -39526,7 +39526,7 @@
         <v>44105</v>
       </c>
       <c r="B155" t="n">
-        <v>206.927295349362</v>
+        <v>207.006139158168</v>
       </c>
       <c r="C155" t="n">
         <v>143.297914456867</v>
@@ -39547,7 +39547,7 @@
         <v>78</v>
       </c>
       <c r="I155" t="n">
-        <v>128.927295349362</v>
+        <v>129.006139158168</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -39567,7 +39567,7 @@
         <v>44136</v>
       </c>
       <c r="B156" t="n">
-        <v>224.060978649435</v>
+        <v>224.026319830191</v>
       </c>
       <c r="C156" t="n">
         <v>145.236259397156</v>
@@ -39588,7 +39588,7 @@
         <v>63</v>
       </c>
       <c r="I156" t="n">
-        <v>161.060978649435</v>
+        <v>161.026319830191</v>
       </c>
       <c r="J156" t="s">
         <v>14</v>
@@ -39608,7 +39608,7 @@
         <v>44166</v>
       </c>
       <c r="B157" t="n">
-        <v>200.51267837448</v>
+        <v>200.587772867066</v>
       </c>
       <c r="C157" t="n">
         <v>130.640496742923</v>
@@ -39629,7 +39629,7 @@
         <v>73</v>
       </c>
       <c r="I157" t="n">
-        <v>127.51267837448</v>
+        <v>127.587772867066</v>
       </c>
       <c r="J157" t="s">
         <v>14</v>
@@ -39649,7 +39649,7 @@
         <v>44197</v>
       </c>
       <c r="B158" t="n">
-        <v>263.036687365969</v>
+        <v>263.026051867338</v>
       </c>
       <c r="C158" t="n">
         <v>168.75127543887</v>
@@ -39670,7 +39670,7 @@
         <v>68</v>
       </c>
       <c r="I158" t="n">
-        <v>195.036687365969</v>
+        <v>195.026051867338</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
@@ -39690,7 +39690,7 @@
         <v>44228</v>
       </c>
       <c r="B159" t="n">
-        <v>235.773261200813</v>
+        <v>235.768858819454</v>
       </c>
       <c r="C159" t="n">
         <v>149.465138407806</v>
@@ -39711,7 +39711,7 @@
         <v>58</v>
       </c>
       <c r="I159" t="n">
-        <v>177.773261200813</v>
+        <v>177.768858819454</v>
       </c>
       <c r="J159" t="s">
         <v>14</v>
@@ -39731,7 +39731,7 @@
         <v>44256</v>
       </c>
       <c r="B160" t="n">
-        <v>189.918115604955</v>
+        <v>190.00875255173</v>
       </c>
       <c r="C160" t="n">
         <v>120.930459163208</v>
@@ -39752,7 +39752,7 @@
         <v>63</v>
       </c>
       <c r="I160" t="n">
-        <v>126.918115604955</v>
+        <v>127.00875255173</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
@@ -39772,7 +39772,7 @@
         <v>44287</v>
       </c>
       <c r="B161" t="n">
-        <v>206.086574869316</v>
+        <v>206.128018916811</v>
       </c>
       <c r="C161" t="n">
         <v>129.298360432976</v>
@@ -39793,7 +39793,7 @@
         <v>74</v>
       </c>
       <c r="I161" t="n">
-        <v>132.086574869316</v>
+        <v>132.128018916811</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
@@ -39813,7 +39813,7 @@
         <v>44317</v>
       </c>
       <c r="B162" t="n">
-        <v>231.238905551733</v>
+        <v>231.227096933607</v>
       </c>
       <c r="C162" t="n">
         <v>141.826013054688</v>
@@ -39834,7 +39834,7 @@
         <v>97</v>
       </c>
       <c r="I162" t="n">
-        <v>134.238905551733</v>
+        <v>134.227096933607</v>
       </c>
       <c r="J162" t="s">
         <v>14</v>
@@ -39854,7 +39854,7 @@
         <v>44348</v>
       </c>
       <c r="B163" t="n">
-        <v>253.447496021489</v>
+        <v>253.400331849491</v>
       </c>
       <c r="C163" t="n">
         <v>153.909943721984</v>
@@ -39875,7 +39875,7 @@
         <v>109</v>
       </c>
       <c r="I163" t="n">
-        <v>144.447496021489</v>
+        <v>144.400331849491</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
@@ -39895,7 +39895,7 @@
         <v>44378</v>
       </c>
       <c r="B164" t="n">
-        <v>261.144670645668</v>
+        <v>261.063507914059</v>
       </c>
       <c r="C164" t="n">
         <v>156.919104546279</v>
@@ -39916,7 +39916,7 @@
         <v>92</v>
       </c>
       <c r="I164" t="n">
-        <v>169.144670645668</v>
+        <v>169.063507914059</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
@@ -39936,7 +39936,7 @@
         <v>44409</v>
       </c>
       <c r="B165" t="n">
-        <v>230.425473848545</v>
+        <v>230.397389389721</v>
       </c>
       <c r="C165" t="n">
         <v>137.722690745677</v>
@@ -39957,7 +39957,7 @@
         <v>60</v>
       </c>
       <c r="I165" t="n">
-        <v>170.425473848545</v>
+        <v>170.397389389721</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -39977,7 +39977,7 @@
         <v>44440</v>
       </c>
       <c r="B166" t="n">
-        <v>219.026690022364</v>
+        <v>219.048904678928</v>
       </c>
       <c r="C166" t="n">
         <v>129.31702760824</v>
@@ -39998,7 +39998,7 @@
         <v>49</v>
       </c>
       <c r="I166" t="n">
-        <v>170.026690022364</v>
+        <v>170.048904678928</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -40018,7 +40018,7 @@
         <v>44470</v>
       </c>
       <c r="B167" t="n">
-        <v>202.589607349981</v>
+        <v>202.664009449246</v>
       </c>
       <c r="C167" t="n">
         <v>116.783105600643</v>
@@ -40039,7 +40039,7 @@
         <v>46</v>
       </c>
       <c r="I167" t="n">
-        <v>156.589607349981</v>
+        <v>156.664009449246</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -40059,7 +40059,7 @@
         <v>44501</v>
       </c>
       <c r="B168" t="n">
-        <v>218.064096253975</v>
+        <v>218.075500202083</v>
       </c>
       <c r="C168" t="n">
         <v>123.7084654199</v>
@@ -40080,7 +40080,7 @@
         <v>62</v>
       </c>
       <c r="I168" t="n">
-        <v>156.064096253975</v>
+        <v>156.075500202083</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -40100,7 +40100,7 @@
         <v>44531</v>
       </c>
       <c r="B169" t="n">
-        <v>197.346032824699</v>
+        <v>197.408154516907</v>
       </c>
       <c r="C169" t="n">
         <v>108.328888348427</v>
@@ -40121,7 +40121,7 @@
         <v>72</v>
       </c>
       <c r="I169" t="n">
-        <v>125.346032824699</v>
+        <v>125.408154516907</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -40141,7 +40141,7 @@
         <v>44562</v>
       </c>
       <c r="B170" t="n">
-        <v>254.615395678631</v>
+        <v>254.652841766415</v>
       </c>
       <c r="C170" t="n">
         <v>141.46341523127</v>
@@ -40162,7 +40162,7 @@
         <v>26</v>
       </c>
       <c r="I170" t="n">
-        <v>228.615395678631</v>
+        <v>228.652841766415</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -40182,7 +40182,7 @@
         <v>44593</v>
       </c>
       <c r="B171" t="n">
-        <v>229.354315247034</v>
+        <v>229.382924971597</v>
       </c>
       <c r="C171" t="n">
         <v>127.271112255047</v>
@@ -40203,7 +40203,7 @@
         <v>30</v>
       </c>
       <c r="I171" t="n">
-        <v>199.354315247034</v>
+        <v>199.382924971597</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -40223,7 +40223,7 @@
         <v>44621</v>
       </c>
       <c r="B172" t="n">
-        <v>187.016768608018</v>
+        <v>187.093681111247</v>
       </c>
       <c r="C172" t="n">
         <v>102.402055551194</v>
@@ -40244,7 +40244,7 @@
         <v>31</v>
       </c>
       <c r="I172" t="n">
-        <v>156.016768608018</v>
+        <v>156.093681111247</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
@@ -40264,7 +40264,7 @@
         <v>44652</v>
       </c>
       <c r="B173" t="n">
-        <v>203.267819877926</v>
+        <v>203.345565118726</v>
       </c>
       <c r="C173" t="n">
         <v>108.955516169436</v>
@@ -40285,7 +40285,7 @@
         <v>34</v>
       </c>
       <c r="I173" t="n">
-        <v>169.267819877926</v>
+        <v>169.345565118726</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
@@ -40305,7 +40305,7 @@
         <v>44682</v>
       </c>
       <c r="B174" t="n">
-        <v>226.86002393882</v>
+        <v>226.909030599381</v>
       </c>
       <c r="C174" t="n">
         <v>119.201223405021</v>
@@ -40326,7 +40326,7 @@
         <v>37</v>
       </c>
       <c r="I174" t="n">
-        <v>189.86002393882</v>
+        <v>189.909030599381</v>
       </c>
       <c r="J174" t="s">
         <v>14</v>
@@ -40346,7 +40346,7 @@
         <v>44713</v>
       </c>
       <c r="B175" t="n">
-        <v>246.376425371712</v>
+        <v>246.391523461183</v>
       </c>
       <c r="C175" t="n">
         <v>127.777574385447</v>
@@ -40367,7 +40367,7 @@
         <v>62</v>
       </c>
       <c r="I175" t="n">
-        <v>184.376425371712</v>
+        <v>184.391523461183</v>
       </c>
       <c r="J175" t="s">
         <v>14</v>
@@ -40387,7 +40387,7 @@
         <v>44743</v>
       </c>
       <c r="B176" t="n">
-        <v>252.136417478754</v>
+        <v>252.11880287314</v>
       </c>
       <c r="C176" t="n">
         <v>130.237359766019</v>
@@ -40408,7 +40408,7 @@
         <v>79</v>
       </c>
       <c r="I176" t="n">
-        <v>173.136417478754</v>
+        <v>173.11880287314</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
@@ -40428,7 +40428,7 @@
         <v>44774</v>
       </c>
       <c r="B177" t="n">
-        <v>223.624418160636</v>
+        <v>223.617555974129</v>
       </c>
       <c r="C177" t="n">
         <v>116.118219718871</v>
@@ -40449,7 +40449,7 @@
         <v>217</v>
       </c>
       <c r="I177" t="n">
-        <v>6.62441816063614</v>
+        <v>6.61755597412946</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
@@ -40469,7 +40469,7 @@
         <v>44805</v>
       </c>
       <c r="B178" t="n">
-        <v>213.23165876462</v>
+        <v>213.252662356864</v>
       </c>
       <c r="C178" t="n">
         <v>109.895473802937</v>
@@ -40490,7 +40490,7 @@
         <v>96</v>
       </c>
       <c r="I178" t="n">
-        <v>117.23165876462</v>
+        <v>117.252662356864</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
@@ -40510,7 +40510,7 @@
         <v>44835</v>
       </c>
       <c r="B179" t="n">
-        <v>198.232955221152</v>
+        <v>198.291118387014</v>
       </c>
       <c r="C179" t="n">
         <v>100.353933030024</v>
@@ -40531,7 +40531,7 @@
         <v>92</v>
       </c>
       <c r="I179" t="n">
-        <v>106.232955221152</v>
+        <v>106.291118387014</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
@@ -40551,7 +40551,7 @@
         <v>44866</v>
       </c>
       <c r="B180" t="n">
-        <v>211.154838766562</v>
+        <v>211.194581792143</v>
       </c>
       <c r="C180" t="n">
         <v>105.876923837182</v>
@@ -40572,7 +40572,7 @@
         <v>74</v>
       </c>
       <c r="I180" t="n">
-        <v>137.154838766562</v>
+        <v>137.194581792143</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
@@ -40592,7 +40592,7 @@
         <v>44896</v>
       </c>
       <c r="B181" t="n">
-        <v>192.730125880723</v>
+        <v>192.787690464356</v>
       </c>
       <c r="C181" t="n">
         <v>93.9520022817952</v>
@@ -40613,7 +40613,7 @@
         <v>79</v>
       </c>
       <c r="I181" t="n">
-        <v>113.730125880723</v>
+        <v>113.787690464356</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
@@ -40633,7 +40633,7 @@
         <v>44927</v>
       </c>
       <c r="B182" t="n">
-        <v>246.236768376964</v>
+        <v>246.291091123152</v>
       </c>
       <c r="C182" t="n">
         <v>120.172061969526</v>
@@ -40654,7 +40654,7 @@
         <v>149</v>
       </c>
       <c r="I182" t="n">
-        <v>97.2367683769638</v>
+        <v>97.2910911231518</v>
       </c>
       <c r="J182" t="s">
         <v>14</v>
@@ -40674,7 +40674,7 @@
         <v>44958</v>
       </c>
       <c r="B183" t="n">
-        <v>222.358511960042</v>
+        <v>222.407473299027</v>
       </c>
       <c r="C183" t="n">
         <v>109.336417498127</v>
@@ -40695,7 +40695,7 @@
         <v>117</v>
       </c>
       <c r="I183" t="n">
-        <v>105.358511960042</v>
+        <v>105.407473299027</v>
       </c>
       <c r="J183" t="s">
         <v>14</v>
@@ -40707,7 +40707,7 @@
         <v>26</v>
       </c>
       <c r="M183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -40715,7 +40715,7 @@
         <v>44986</v>
       </c>
       <c r="B184" t="n">
-        <v>183.213764031367</v>
+        <v>183.283012686082</v>
       </c>
       <c r="C184" t="n">
         <v>89.7284552740362</v>
@@ -40736,7 +40736,7 @@
         <v>138</v>
       </c>
       <c r="I184" t="n">
-        <v>45.2137640313674</v>
+        <v>45.2830126860815</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
@@ -40748,7 +40748,7 @@
         <v>26</v>
       </c>
       <c r="M184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -40756,7 +40756,7 @@
         <v>45017</v>
       </c>
       <c r="B185" t="n">
-        <v>199.138504209688</v>
+        <v>199.218708000106</v>
       </c>
       <c r="C185" t="n">
         <v>95.0744105932967</v>
@@ -40777,7 +40777,7 @@
         <v>189</v>
       </c>
       <c r="I185" t="n">
-        <v>10.1385042096883</v>
+        <v>10.2187080001061</v>
       </c>
       <c r="J185" t="s">
         <v>14</v>
@@ -40797,7 +40797,7 @@
         <v>45047</v>
       </c>
       <c r="B186" t="n">
-        <v>221.805675910553</v>
+        <v>221.877850849468</v>
       </c>
       <c r="C186" t="n">
         <v>103.31833065883</v>
@@ -40818,7 +40818,7 @@
         <v>212</v>
       </c>
       <c r="I186" t="n">
-        <v>9.80567591055308</v>
+        <v>9.87785084946842</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
@@ -40838,7 +40838,7 @@
         <v>45078</v>
       </c>
       <c r="B187" t="n">
-        <v>240.193500474653</v>
+        <v>240.24585488336</v>
       </c>
       <c r="C187" t="n">
         <v>110.175936899035</v>
@@ -40857,7 +40857,7 @@
         <v>264</v>
       </c>
       <c r="I187" t="n">
-        <v>-23.806499525347</v>
+        <v>-23.7541451166395</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
@@ -40877,7 +40877,7 @@
         <v>45108</v>
       </c>
       <c r="B188" t="n">
-        <v>245.063652007003</v>
+        <v>245.092296915587</v>
       </c>
       <c r="C188" t="n">
         <v>112.208012942677</v>
@@ -40896,7 +40896,7 @@
         <v>289</v>
       </c>
       <c r="I188" t="n">
-        <v>-43.936347992997</v>
+        <v>-43.9077030844129</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
@@ -40916,7 +40916,7 @@
         <v>45139</v>
       </c>
       <c r="B189" t="n">
-        <v>217.784136458075</v>
+        <v>217.807138170104</v>
       </c>
       <c r="C189" t="n">
         <v>101.139557790893</v>
@@ -40937,7 +40937,7 @@
         <v>234</v>
       </c>
       <c r="I189" t="n">
-        <v>-16.2158635419252</v>
+        <v>-16.1928618298964</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -40957,7 +40957,7 @@
         <v>45170</v>
       </c>
       <c r="B190" t="n">
-        <v>207.881562048221</v>
+        <v>207.913898018791</v>
       </c>
       <c r="C190" t="n">
         <v>96.2336517542998</v>
@@ -40978,7 +40978,7 @@
         <v>193</v>
       </c>
       <c r="I190" t="n">
-        <v>14.8815620482211</v>
+        <v>14.9138980187911</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
@@ -40998,7 +40998,7 @@
         <v>45200</v>
       </c>
       <c r="B191" t="n">
-        <v>194.016907102939</v>
+        <v>194.069094413296</v>
       </c>
       <c r="C191" t="n">
         <v>88.5751739882669</v>
@@ -41019,7 +41019,7 @@
         <v>193</v>
       </c>
       <c r="I191" t="n">
-        <v>1.01690710293903</v>
+        <v>1.06909441329577</v>
       </c>
       <c r="J191" t="s">
         <v>14</v>
@@ -41039,7 +41039,7 @@
         <v>45231</v>
       </c>
       <c r="B192" t="n">
-        <v>206.316352268705</v>
+        <v>206.367690370927</v>
       </c>
       <c r="C192" t="n">
         <v>93.1297191547481</v>
@@ -41060,7 +41060,7 @@
         <v>183</v>
       </c>
       <c r="I192" t="n">
-        <v>23.3163522687047</v>
+        <v>23.3676903709269</v>
       </c>
       <c r="J192" t="s">
         <v>14</v>
@@ -41080,7 +41080,7 @@
         <v>45261</v>
       </c>
       <c r="B193" t="n">
-        <v>189.01992753818</v>
+        <v>189.078628648095</v>
       </c>
       <c r="C193" t="n">
         <v>83.4469401030609</v>
@@ -41101,7 +41101,7 @@
         <v>245</v>
       </c>
       <c r="I193" t="n">
-        <v>-55.9800724618204</v>
+        <v>-55.9213713519052</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -42671,7 +42671,7 @@
         <v>16</v>
       </c>
       <c r="M231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
@@ -42712,7 +42712,7 @@
         <v>16</v>
       </c>
       <c r="M232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -44585,7 +44585,7 @@
         <v>16</v>
       </c>
       <c r="M279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -44624,7 +44624,7 @@
         <v>16</v>
       </c>
       <c r="M280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281">
@@ -46519,7 +46519,7 @@
         <v>26</v>
       </c>
       <c r="M327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -46560,7 +46560,7 @@
         <v>26</v>
       </c>
       <c r="M328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329">
@@ -46992,7 +46992,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2520.22608915359</v>
+        <v>2554.05784906726</v>
       </c>
       <c r="C2" t="n">
         <v>1991.94667052589</v>
@@ -47013,7 +47013,7 @@
         <v>2445</v>
       </c>
       <c r="I2" t="n">
-        <v>75.2260891535907</v>
+        <v>109.057849067263</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -47033,7 +47033,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2601.1300606122</v>
+        <v>2619.75006196415</v>
       </c>
       <c r="C3" t="n">
         <v>2106.4297907211</v>
@@ -47054,7 +47054,7 @@
         <v>933</v>
       </c>
       <c r="I3" t="n">
-        <v>1668.1300606122</v>
+        <v>1686.75006196415</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -47074,13 +47074,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>4579.58257409743</v>
+        <v>4604.89477369981</v>
       </c>
       <c r="C4" t="n">
-        <v>3583.46847958981</v>
+        <v>3657.19283689755</v>
       </c>
       <c r="D4" t="n">
-        <v>3458.27291527576</v>
+        <v>3485.59788473942</v>
       </c>
       <c r="E4" t="n">
         <v>6059.97763513824</v>
@@ -47095,7 +47095,7 @@
         <v>3508</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.58257409743</v>
+        <v>1096.89477369981</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -47115,13 +47115,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5209.81028867889</v>
+        <v>5258.17043206857</v>
       </c>
       <c r="C5" t="n">
-        <v>4015.79375305297</v>
+        <v>4167.63603231541</v>
       </c>
       <c r="D5" t="n">
-        <v>3838.53275622135</v>
+        <v>3868.95154727896</v>
       </c>
       <c r="E5" t="n">
         <v>7086.92421038528</v>
@@ -47136,7 +47136,7 @@
         <v>5360</v>
       </c>
       <c r="I5" t="n">
-        <v>-150.189711321113</v>
+        <v>-101.829567931427</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -47156,13 +47156,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6122.76281129194</v>
+        <v>6225.16680982734</v>
       </c>
       <c r="C6" t="n">
-        <v>4584.6519933116</v>
+        <v>4830.82597472165</v>
       </c>
       <c r="D6" t="n">
-        <v>4220.52092003925</v>
+        <v>4399.75161981965</v>
       </c>
       <c r="E6" t="n">
         <v>8215.79409716881</v>
@@ -47177,7 +47177,7 @@
         <v>5264</v>
       </c>
       <c r="I6" t="n">
-        <v>858.762811291938</v>
+        <v>961.166809827337</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -47197,13 +47197,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6507.49196784905</v>
+        <v>6647.07832383379</v>
       </c>
       <c r="C7" t="n">
-        <v>4830.01434364413</v>
+        <v>5190.68248524955</v>
       </c>
       <c r="D7" t="n">
-        <v>4265.19318711448</v>
+        <v>4615.31545913593</v>
       </c>
       <c r="E7" t="n">
         <v>8670.22519575541</v>
@@ -47218,7 +47218,7 @@
         <v>6193</v>
       </c>
       <c r="I7" t="n">
-        <v>314.491967849047</v>
+        <v>454.078323833786</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -47238,13 +47238,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>6332.20644361887</v>
+        <v>6553.11920460119</v>
       </c>
       <c r="C8" t="n">
-        <v>4418.19850010239</v>
+        <v>4930.10962584384</v>
       </c>
       <c r="D8" t="n">
-        <v>3935.16308718223</v>
+        <v>4325.48088487394</v>
       </c>
       <c r="E8" t="n">
         <v>8416.9674434498</v>
@@ -47259,7 +47259,7 @@
         <v>4972</v>
       </c>
       <c r="I8" t="n">
-        <v>1360.20644361887</v>
+        <v>1581.11920460119</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -47279,7 +47279,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5546.64864939087</v>
+        <v>5703.11088362786</v>
       </c>
       <c r="C9" t="n">
         <v>4083.83189494892</v>
@@ -47300,7 +47300,7 @@
         <v>4972</v>
       </c>
       <c r="I9" t="n">
-        <v>574.648649390866</v>
+        <v>731.110883627864</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -47320,7 +47320,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4072.98190664041</v>
+        <v>4230.73294012255</v>
       </c>
       <c r="C10" t="n">
         <v>2672.58054715183</v>
@@ -47329,10 +47329,10 @@
         <v>2224.76066630715</v>
       </c>
       <c r="E10" t="n">
-        <v>5909.08116029609</v>
+        <v>6113.26596034152</v>
       </c>
       <c r="F10" t="n">
-        <v>6211.64934226131</v>
+        <v>6353.22426501658</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -47341,7 +47341,7 @@
         <v>4492</v>
       </c>
       <c r="I10" t="n">
-        <v>-419.018093359587</v>
+        <v>-261.267059877448</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
@@ -47361,7 +47361,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2973.47256755123</v>
+        <v>3208.26168802262</v>
       </c>
       <c r="C11" t="n">
         <v>1864.16735152256</v>
@@ -47370,10 +47370,10 @@
         <v>1489.11877012796</v>
       </c>
       <c r="E11" t="n">
-        <v>4329.31540999517</v>
+        <v>4940.04018441525</v>
       </c>
       <c r="F11" t="n">
-        <v>4708.01462847304</v>
+        <v>5298.35406832749</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -47382,10 +47382,10 @@
         <v>3206</v>
       </c>
       <c r="I11" t="n">
-        <v>-232.527432448774</v>
+        <v>2.26168802261964</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
@@ -47402,7 +47402,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3079.33797239095</v>
+        <v>3218.0666403121</v>
       </c>
       <c r="C12" t="n">
         <v>2120.53544403332</v>
@@ -47423,7 +47423,7 @@
         <v>3611</v>
       </c>
       <c r="I12" t="n">
-        <v>-531.662027609047</v>
+        <v>-392.933359687898</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
@@ -47443,7 +47443,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3119.50908873943</v>
+        <v>3205.73956502267</v>
       </c>
       <c r="C13" t="n">
         <v>2176.18727763944</v>
@@ -47464,7 +47464,7 @@
         <v>3694</v>
       </c>
       <c r="I13" t="n">
-        <v>-574.490911260571</v>
+        <v>-488.260434977327</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
@@ -47484,7 +47484,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2659.9969382211</v>
+        <v>2708.21559493809</v>
       </c>
       <c r="C14" t="n">
         <v>1630.70239110265</v>
@@ -47505,7 +47505,7 @@
         <v>3175</v>
       </c>
       <c r="I14" t="n">
-        <v>-515.003061778902</v>
+        <v>-466.784405061912</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
@@ -47525,7 +47525,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2805.59178655453</v>
+        <v>2813.01480209488</v>
       </c>
       <c r="C15" t="n">
         <v>1739.511421226</v>
@@ -47546,7 +47546,7 @@
         <v>3425</v>
       </c>
       <c r="I15" t="n">
-        <v>-619.408213445467</v>
+        <v>-611.985197905125</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -47566,13 +47566,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>4434.54901708254</v>
+        <v>4452.06520055205</v>
       </c>
       <c r="C16" t="n">
-        <v>2555.24322441158</v>
+        <v>2621.59858095478</v>
       </c>
       <c r="D16" t="n">
-        <v>2348.33279195406</v>
+        <v>2436.89087428613</v>
       </c>
       <c r="E16" t="n">
         <v>7405.78804909315</v>
@@ -47587,7 +47587,7 @@
         <v>7220</v>
       </c>
       <c r="I16" t="n">
-        <v>-2785.45098291746</v>
+        <v>-2767.93479944795</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -47607,13 +47607,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>5291.71071094716</v>
+        <v>5200.81375803505</v>
       </c>
       <c r="C17" t="n">
-        <v>3591.95716632299</v>
+        <v>3282.21763413367</v>
       </c>
       <c r="D17" t="n">
-        <v>3039.60259796516</v>
+        <v>2985.98714134414</v>
       </c>
       <c r="E17" t="n">
         <v>8494.68924107114</v>
@@ -47628,7 +47628,7 @@
         <v>7848</v>
       </c>
       <c r="I17" t="n">
-        <v>-2556.28928905284</v>
+        <v>-2647.18624196495</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -47648,13 +47648,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6201.54805873002</v>
+        <v>6096.14687846316</v>
       </c>
       <c r="C18" t="n">
-        <v>4058.27312921099</v>
+        <v>3831.207622359</v>
       </c>
       <c r="D18" t="n">
-        <v>3564.3250414239</v>
+        <v>3463.3292702407</v>
       </c>
       <c r="E18" t="n">
         <v>9689.70911060613</v>
@@ -47669,7 +47669,7 @@
         <v>8096</v>
       </c>
       <c r="I18" t="n">
-        <v>-1894.45194126998</v>
+        <v>-1999.85312153684</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -47689,13 +47689,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6631.41633963561</v>
+        <v>6422.86557617782</v>
       </c>
       <c r="C19" t="n">
-        <v>4346.55437725983</v>
+        <v>4113.00361417104</v>
       </c>
       <c r="D19" t="n">
-        <v>3707.33132005967</v>
+        <v>3633.1504405902</v>
       </c>
       <c r="E19" t="n">
         <v>10141.1914479731</v>
@@ -47710,7 +47710,7 @@
         <v>9670</v>
       </c>
       <c r="I19" t="n">
-        <v>-3038.58366036439</v>
+        <v>-3247.13442382218</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -47730,10 +47730,10 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6689.09004452504</v>
+        <v>6276.83468386286</v>
       </c>
       <c r="C20" t="n">
-        <v>4381.89567560406</v>
+        <v>4338.00581906646</v>
       </c>
       <c r="D20" t="n">
         <v>3491.54840414504</v>
@@ -47751,7 +47751,7 @@
         <v>9222</v>
       </c>
       <c r="I20" t="n">
-        <v>-2532.90995547496</v>
+        <v>-2945.16531613714</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -47771,7 +47771,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6085.31317741155</v>
+        <v>5515.75629751937</v>
       </c>
       <c r="C21" t="n">
         <v>3572.24646133236</v>
@@ -47792,7 +47792,7 @@
         <v>6867</v>
       </c>
       <c r="I21" t="n">
-        <v>-781.686822588455</v>
+        <v>-1351.24370248063</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -47812,7 +47812,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4617.05082421935</v>
+        <v>4188.77428312046</v>
       </c>
       <c r="C22" t="n">
         <v>2274.99752473612</v>
@@ -47821,10 +47821,10 @@
         <v>1645.25308091835</v>
       </c>
       <c r="E22" t="n">
-        <v>7117.36240885461</v>
+        <v>6529.08546925863</v>
       </c>
       <c r="F22" t="n">
-        <v>7583.42900695803</v>
+        <v>7551.56273391586</v>
       </c>
       <c r="G22" t="s">
         <v>41</v>
@@ -47833,7 +47833,7 @@
         <v>5932</v>
       </c>
       <c r="I22" t="n">
-        <v>-1314.94917578065</v>
+        <v>-1743.22571687954</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -47853,7 +47853,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3439.50255028697</v>
+        <v>3226.8789052484</v>
       </c>
       <c r="C23" t="n">
         <v>1543.19149678273</v>
@@ -47862,10 +47862,10 @@
         <v>1036.14847407148</v>
       </c>
       <c r="E23" t="n">
-        <v>5348.35033048212</v>
+        <v>5444.65589875805</v>
       </c>
       <c r="F23" t="n">
-        <v>6016.79481331413</v>
+        <v>6029.42772236003</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -47874,7 +47874,7 @@
         <v>3622</v>
       </c>
       <c r="I23" t="n">
-        <v>-182.497449713032</v>
+        <v>-395.121094751596</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -47894,7 +47894,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3314.69282551248</v>
+        <v>3231.39442165279</v>
       </c>
       <c r="C24" t="n">
         <v>1784.72864932199</v>
@@ -47915,7 +47915,7 @@
         <v>3649</v>
       </c>
       <c r="I24" t="n">
-        <v>-334.307174487524</v>
+        <v>-417.605578347213</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -47935,7 +47935,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3219.42423442739</v>
+        <v>3208.9805681149</v>
       </c>
       <c r="C25" t="n">
         <v>1829.00664776947</v>
@@ -47956,7 +47956,7 @@
         <v>4919</v>
       </c>
       <c r="I25" t="n">
-        <v>-1699.57576557261</v>
+        <v>-1710.0194318851</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -47976,7 +47976,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2800.68092353902</v>
+        <v>2782.53970601424</v>
       </c>
       <c r="C26" t="n">
         <v>1423.24887290613</v>
@@ -47997,7 +47997,7 @@
         <v>4396</v>
       </c>
       <c r="I26" t="n">
-        <v>-1595.31907646098</v>
+        <v>-1613.46029398576</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -48017,7 +48017,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2949.76359088171</v>
+        <v>2901.02374228052</v>
       </c>
       <c r="C27" t="n">
         <v>1434.76508825466</v>
@@ -48038,7 +48038,7 @@
         <v>4689</v>
       </c>
       <c r="I27" t="n">
-        <v>-1739.23640911829</v>
+        <v>-1787.97625771948</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -48058,13 +48058,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4583.91571278839</v>
+        <v>4492.49120697023</v>
       </c>
       <c r="C28" t="n">
-        <v>2211.33564387758</v>
+        <v>1966.39079028843</v>
       </c>
       <c r="D28" t="n">
-        <v>1800.25577767751</v>
+        <v>1535.41727108716</v>
       </c>
       <c r="E28" t="n">
         <v>8519.52465684769</v>
@@ -48079,7 +48079,7 @@
         <v>6656</v>
       </c>
       <c r="I28" t="n">
-        <v>-2072.08428721161</v>
+        <v>-2163.50879302977</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -48099,13 +48099,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5172.56523268995</v>
+        <v>5099.40619556925</v>
       </c>
       <c r="C29" t="n">
-        <v>2941.98779556963</v>
+        <v>2250.60716164607</v>
       </c>
       <c r="D29" t="n">
-        <v>2343.11284856902</v>
+        <v>1752.80362725417</v>
       </c>
       <c r="E29" t="n">
         <v>9679.54037829963</v>
@@ -48120,7 +48120,7 @@
         <v>7124</v>
       </c>
       <c r="I29" t="n">
-        <v>-1951.43476731005</v>
+        <v>-2024.59380443075</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -48140,13 +48140,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6436.16615609663</v>
+        <v>6050.60374396076</v>
       </c>
       <c r="C30" t="n">
-        <v>3839.23488708462</v>
+        <v>2765.0224828787</v>
       </c>
       <c r="D30" t="n">
-        <v>2854.30301121725</v>
+        <v>2255.47681938644</v>
       </c>
       <c r="E30" t="n">
         <v>10947.5111749827</v>
@@ -48161,7 +48161,7 @@
         <v>8824</v>
       </c>
       <c r="I30" t="n">
-        <v>-2387.83384390337</v>
+        <v>-2773.39625603924</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -48181,13 +48181,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6861.05456960715</v>
+        <v>6280.2282244919</v>
       </c>
       <c r="C31" t="n">
-        <v>4049.31326272684</v>
+        <v>3328.12089579642</v>
       </c>
       <c r="D31" t="n">
-        <v>2917.30065609826</v>
+        <v>2767.58894615949</v>
       </c>
       <c r="E31" t="n">
         <v>11414.5143524357</v>
@@ -48202,7 +48202,7 @@
         <v>9943</v>
       </c>
       <c r="I31" t="n">
-        <v>-3081.94543039285</v>
+        <v>-3662.7717755081</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -48222,10 +48222,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6993.30811374558</v>
+        <v>6154.97589926117</v>
       </c>
       <c r="C32" t="n">
-        <v>3846.91026639935</v>
+        <v>3692.28111209629</v>
       </c>
       <c r="D32" t="n">
         <v>2726.75566049589</v>
@@ -48243,7 +48243,7 @@
         <v>9683</v>
       </c>
       <c r="I32" t="n">
-        <v>-2689.69188625442</v>
+        <v>-3528.02410073883</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -48263,7 +48263,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6300.27675078031</v>
+        <v>5431.84514267366</v>
       </c>
       <c r="C33" t="n">
         <v>3095.90185126986</v>
@@ -48284,7 +48284,7 @@
         <v>7887</v>
       </c>
       <c r="I33" t="n">
-        <v>-1586.72324921969</v>
+        <v>-2455.15485732634</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -48304,7 +48304,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4948.28518341289</v>
+        <v>4063.49757659111</v>
       </c>
       <c r="C34" t="n">
         <v>1908.87651100061</v>
@@ -48313,7 +48313,7 @@
         <v>1158.23136849766</v>
       </c>
       <c r="E34" t="n">
-        <v>7331.92561284433</v>
+        <v>7196.2425014789</v>
       </c>
       <c r="F34" t="n">
         <v>8948.05095962559</v>
@@ -48325,7 +48325,7 @@
         <v>5311</v>
       </c>
       <c r="I34" t="n">
-        <v>-362.714816587108</v>
+        <v>-1247.50242340889</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -48345,7 +48345,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3878.15548611513</v>
+        <v>3199.6656779107</v>
       </c>
       <c r="C35" t="n">
         <v>1251.3782561686</v>
@@ -48354,7 +48354,7 @@
         <v>669.263043288077</v>
       </c>
       <c r="E35" t="n">
-        <v>6135.06885014175</v>
+        <v>6086.88751748843</v>
       </c>
       <c r="F35" t="n">
         <v>7309.70741139115</v>
@@ -48366,7 +48366,7 @@
         <v>2535</v>
       </c>
       <c r="I35" t="n">
-        <v>1343.15548611513</v>
+        <v>664.665677910702</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -48386,7 +48386,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3622.76585326116</v>
+        <v>3223.3038939989</v>
       </c>
       <c r="C36" t="n">
         <v>1464.35462556352</v>
@@ -48407,7 +48407,7 @@
         <v>2569</v>
       </c>
       <c r="I36" t="n">
-        <v>1053.76585326116</v>
+        <v>654.303893998904</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -48427,7 +48427,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3296.66680200526</v>
+        <v>3153.59398599711</v>
       </c>
       <c r="C37" t="n">
         <v>1501.83211585826</v>
@@ -48448,7 +48448,7 @@
         <v>1820</v>
       </c>
       <c r="I37" t="n">
-        <v>1476.66680200526</v>
+        <v>1333.59398599711</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -48468,7 +48468,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2866.65523064283</v>
+        <v>2770.06325645664</v>
       </c>
       <c r="C38" t="n">
         <v>1142.63294805888</v>
@@ -48489,7 +48489,7 @@
         <v>2318</v>
       </c>
       <c r="I38" t="n">
-        <v>548.655230642828</v>
+        <v>452.063256456635</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -48509,7 +48509,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>3077.80608193305</v>
+        <v>2897.56474961428</v>
       </c>
       <c r="C39" t="n">
         <v>1151.79777241534</v>
@@ -48530,7 +48530,7 @@
         <v>5662</v>
       </c>
       <c r="I39" t="n">
-        <v>-2584.19391806695</v>
+        <v>-2764.43525038572</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -48542,7 +48542,7 @@
         <v>26</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
@@ -48550,13 +48550,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4706.47475401458</v>
+        <v>4520.96512971617</v>
       </c>
       <c r="C40" t="n">
-        <v>1836.85599140829</v>
+        <v>1333.53513567636</v>
       </c>
       <c r="D40" t="n">
-        <v>1178.58295173923</v>
+        <v>1125.05589416026</v>
       </c>
       <c r="E40" t="n">
         <v>9568.36934699627</v>
@@ -48571,7 +48571,7 @@
         <v>6543</v>
       </c>
       <c r="I40" t="n">
-        <v>-1836.52524598542</v>
+        <v>-2022.03487028383</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -48583,7 +48583,7 @@
         <v>26</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -48591,13 +48591,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5149.55004030307</v>
+        <v>4975.50714692157</v>
       </c>
       <c r="C41" t="n">
-        <v>2486.77774356609</v>
+        <v>1377.24683688247</v>
       </c>
       <c r="D41" t="n">
-        <v>1722.85011950393</v>
+        <v>1070.1652241003</v>
       </c>
       <c r="E41" t="n">
         <v>10796.6579388954</v>
@@ -48612,7 +48612,7 @@
         <v>7677</v>
       </c>
       <c r="I41" t="n">
-        <v>-2527.44995969693</v>
+        <v>-2701.49285307843</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -48632,13 +48632,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6406.60896867615</v>
+        <v>6011.66763725157</v>
       </c>
       <c r="C42" t="n">
-        <v>3418.60061292887</v>
+        <v>1768.47620439158</v>
       </c>
       <c r="D42" t="n">
-        <v>2151.34369420497</v>
+        <v>1217.89994251328</v>
       </c>
       <c r="E42" t="n">
         <v>12134.7960344282</v>
@@ -48653,7 +48653,7 @@
         <v>9067</v>
       </c>
       <c r="I42" t="n">
-        <v>-2660.39103132385</v>
+        <v>-3055.33236274843</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -48673,13 +48673,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>6820.12389734799</v>
+        <v>6292.73234303618</v>
       </c>
       <c r="C43" t="n">
-        <v>3513.08387032542</v>
+        <v>2597.21389604538</v>
       </c>
       <c r="D43" t="n">
-        <v>2201.5017212826</v>
+        <v>1831.14561875674</v>
       </c>
       <c r="E43" t="n">
         <v>12620.2865184947</v>
@@ -48694,7 +48694,7 @@
         <v>8326</v>
       </c>
       <c r="I43" t="n">
-        <v>-1505.87610265201</v>
+        <v>-2033.26765696382</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -48714,10 +48714,10 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6903.81747366134</v>
+        <v>6132.1769948323</v>
       </c>
       <c r="C44" t="n">
-        <v>3323.75248837071</v>
+        <v>3282.84319608845</v>
       </c>
       <c r="D44" t="n">
         <v>2036.41531244868</v>
@@ -48735,7 +48735,7 @@
         <v>9164</v>
       </c>
       <c r="I44" t="n">
-        <v>-2260.18252633866</v>
+        <v>-3031.8230051677</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -48755,7 +48755,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6238.46039314897</v>
+        <v>5430.25271895209</v>
       </c>
       <c r="C45" t="n">
         <v>2633.37387178122</v>
@@ -48776,7 +48776,7 @@
         <v>8354</v>
       </c>
       <c r="I45" t="n">
-        <v>-2115.53960685103</v>
+        <v>-2923.74728104791</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -48796,7 +48796,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>4881.76833898923</v>
+        <v>4190.4078379091</v>
       </c>
       <c r="C46" t="n">
         <v>1560.35556188795</v>
@@ -48817,7 +48817,7 @@
         <v>5987</v>
       </c>
       <c r="I46" t="n">
-        <v>-1105.23166101077</v>
+        <v>-1796.5921620909</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -48837,7 +48837,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>3809.70095215896</v>
+        <v>3240.90746205797</v>
       </c>
       <c r="C47" t="n">
         <v>979.514189731485</v>
@@ -48858,7 +48858,7 @@
         <v>4477</v>
       </c>
       <c r="I47" t="n">
-        <v>-667.299047841044</v>
+        <v>-1236.09253794203</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -48878,7 +48878,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3649.39838524053</v>
+        <v>3252.88459366779</v>
       </c>
       <c r="C48" t="n">
         <v>1163.49497256188</v>
@@ -48899,7 +48899,7 @@
         <v>4540</v>
       </c>
       <c r="I48" t="n">
-        <v>-890.601614759466</v>
+        <v>-1287.11540633221</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -48919,7 +48919,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3385.65245294953</v>
+        <v>3223.54084587535</v>
       </c>
       <c r="C49" t="n">
         <v>1194.38066689333</v>
@@ -48940,7 +48940,7 @@
         <v>3743</v>
       </c>
       <c r="I49" t="n">
-        <v>-357.347547050473</v>
+        <v>-519.459154124646</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -50206,7 +50206,7 @@
         <v>26</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
@@ -50239,7 +50239,7 @@
         <v>26</v>
       </c>
       <c r="M88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -52094,7 +52094,7 @@
         <v>26</v>
       </c>
       <c r="M135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -52135,7 +52135,7 @@
         <v>26</v>
       </c>
       <c r="M136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
@@ -52512,13 +52512,13 @@
         <v>43831</v>
       </c>
       <c r="B146" t="n">
-        <v>277.865830339977</v>
+        <v>277.754285936539</v>
       </c>
       <c r="C146" t="n">
-        <v>189.345189679115</v>
+        <v>189.032243958065</v>
       </c>
       <c r="D146" t="n">
-        <v>170.770103959806</v>
+        <v>170.515208523878</v>
       </c>
       <c r="E146" t="n">
         <v>440.627362179176</v>
@@ -52533,7 +52533,7 @@
         <v>348</v>
       </c>
       <c r="I146" t="n">
-        <v>-70.1341696600232</v>
+        <v>-70.2457140634614</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
@@ -52553,13 +52553,13 @@
         <v>43862</v>
       </c>
       <c r="B147" t="n">
-        <v>248.288514692825</v>
+        <v>248.259618022897</v>
       </c>
       <c r="C147" t="n">
-        <v>185.678128716803</v>
+        <v>185.525875117934</v>
       </c>
       <c r="D147" t="n">
-        <v>168.303618742774</v>
+        <v>168.334561604841</v>
       </c>
       <c r="E147" t="n">
         <v>377.788952082555</v>
@@ -52574,7 +52574,7 @@
         <v>126</v>
       </c>
       <c r="I147" t="n">
-        <v>122.288514692825</v>
+        <v>122.259618022897</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
@@ -52594,7 +52594,7 @@
         <v>43891</v>
       </c>
       <c r="B148" t="n">
-        <v>192.912837326749</v>
+        <v>192.990385189317</v>
       </c>
       <c r="C148" t="n">
         <v>143.01186863588</v>
@@ -52615,7 +52615,7 @@
         <v>92</v>
       </c>
       <c r="I148" t="n">
-        <v>100.912837326749</v>
+        <v>100.990385189317</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
@@ -52635,7 +52635,7 @@
         <v>43922</v>
       </c>
       <c r="B149" t="n">
-        <v>210.549287911194</v>
+        <v>210.485436330761</v>
       </c>
       <c r="C149" t="n">
         <v>151.169620017098</v>
@@ -52656,7 +52656,7 @@
         <v>54</v>
       </c>
       <c r="I149" t="n">
-        <v>156.549287911194</v>
+        <v>156.485436330761</v>
       </c>
       <c r="J149" t="s">
         <v>14</v>
@@ -52676,7 +52676,7 @@
         <v>43952</v>
       </c>
       <c r="B150" t="n">
-        <v>238.182134870172</v>
+        <v>238.090020608073</v>
       </c>
       <c r="C150" t="n">
         <v>161.529209914064</v>
@@ -52697,7 +52697,7 @@
         <v>40</v>
       </c>
       <c r="I150" t="n">
-        <v>198.182134870172</v>
+        <v>198.090020608073</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
@@ -52717,7 +52717,7 @@
         <v>43983</v>
       </c>
       <c r="B151" t="n">
-        <v>262.712803854876</v>
+        <v>262.61286610835</v>
       </c>
       <c r="C151" t="n">
         <v>173.974474251093</v>
@@ -52738,7 +52738,7 @@
         <v>74</v>
       </c>
       <c r="I151" t="n">
-        <v>188.712803854876</v>
+        <v>188.61286610835</v>
       </c>
       <c r="J151" t="s">
         <v>14</v>
@@ -52758,7 +52758,7 @@
         <v>44013</v>
       </c>
       <c r="B152" t="n">
-        <v>272.531068565446</v>
+        <v>272.412189425834</v>
       </c>
       <c r="C152" t="n">
         <v>186.780385608902</v>
@@ -52779,7 +52779,7 @@
         <v>57</v>
       </c>
       <c r="I152" t="n">
-        <v>215.531068565446</v>
+        <v>215.412189425834</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -52799,7 +52799,7 @@
         <v>44044</v>
       </c>
       <c r="B153" t="n">
-        <v>238.86900379417</v>
+        <v>238.858596290968</v>
       </c>
       <c r="C153" t="n">
         <v>170.178817301019</v>
@@ -52820,7 +52820,7 @@
         <v>57</v>
       </c>
       <c r="I153" t="n">
-        <v>181.86900379417</v>
+        <v>181.858596290968</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -52840,7 +52840,7 @@
         <v>44075</v>
       </c>
       <c r="B154" t="n">
-        <v>226.274865091437</v>
+        <v>226.309594940351</v>
       </c>
       <c r="C154" t="n">
         <v>158.056003992552</v>
@@ -52861,7 +52861,7 @@
         <v>81</v>
       </c>
       <c r="I154" t="n">
-        <v>145.274865091437</v>
+        <v>145.309594940351</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -52881,7 +52881,7 @@
         <v>44105</v>
       </c>
       <c r="B155" t="n">
-        <v>206.927295349362</v>
+        <v>207.006139158168</v>
       </c>
       <c r="C155" t="n">
         <v>143.297914456867</v>
@@ -52902,7 +52902,7 @@
         <v>78</v>
       </c>
       <c r="I155" t="n">
-        <v>128.927295349362</v>
+        <v>129.006139158168</v>
       </c>
       <c r="J155" t="s">
         <v>14</v>
@@ -52922,7 +52922,7 @@
         <v>44136</v>
       </c>
       <c r="B156" t="n">
-        <v>224.060978649435</v>
+        <v>224.026319830191</v>
       </c>
       <c r="C156" t="n">
         <v>145.236259397156</v>
@@ -52943,7 +52943,7 @@
         <v>63</v>
       </c>
       <c r="I156" t="n">
-        <v>161.060978649435</v>
+        <v>161.026319830191</v>
       </c>
       <c r="J156" t="s">
         <v>14</v>
@@ -52963,7 +52963,7 @@
         <v>44166</v>
       </c>
       <c r="B157" t="n">
-        <v>200.51267837448</v>
+        <v>200.587772867066</v>
       </c>
       <c r="C157" t="n">
         <v>130.640496742923</v>
@@ -52984,7 +52984,7 @@
         <v>73</v>
       </c>
       <c r="I157" t="n">
-        <v>127.51267837448</v>
+        <v>127.587772867066</v>
       </c>
       <c r="J157" t="s">
         <v>14</v>
@@ -53004,7 +53004,7 @@
         <v>44197</v>
       </c>
       <c r="B158" t="n">
-        <v>263.036687365969</v>
+        <v>263.026051867338</v>
       </c>
       <c r="C158" t="n">
         <v>168.75127543887</v>
@@ -53025,7 +53025,7 @@
         <v>68</v>
       </c>
       <c r="I158" t="n">
-        <v>195.036687365969</v>
+        <v>195.026051867338</v>
       </c>
       <c r="J158" t="s">
         <v>14</v>
@@ -53045,7 +53045,7 @@
         <v>44228</v>
       </c>
       <c r="B159" t="n">
-        <v>235.773261200813</v>
+        <v>235.768858819454</v>
       </c>
       <c r="C159" t="n">
         <v>149.465138407806</v>
@@ -53066,7 +53066,7 @@
         <v>58</v>
       </c>
       <c r="I159" t="n">
-        <v>177.773261200813</v>
+        <v>177.768858819454</v>
       </c>
       <c r="J159" t="s">
         <v>14</v>
@@ -53086,7 +53086,7 @@
         <v>44256</v>
       </c>
       <c r="B160" t="n">
-        <v>189.918115604955</v>
+        <v>190.00875255173</v>
       </c>
       <c r="C160" t="n">
         <v>120.930459163208</v>
@@ -53107,7 +53107,7 @@
         <v>63</v>
       </c>
       <c r="I160" t="n">
-        <v>126.918115604955</v>
+        <v>127.00875255173</v>
       </c>
       <c r="J160" t="s">
         <v>14</v>
@@ -53127,7 +53127,7 @@
         <v>44287</v>
       </c>
       <c r="B161" t="n">
-        <v>206.086574869316</v>
+        <v>206.128018916811</v>
       </c>
       <c r="C161" t="n">
         <v>129.298360432976</v>
@@ -53148,7 +53148,7 @@
         <v>74</v>
       </c>
       <c r="I161" t="n">
-        <v>132.086574869316</v>
+        <v>132.128018916811</v>
       </c>
       <c r="J161" t="s">
         <v>14</v>
@@ -53168,7 +53168,7 @@
         <v>44317</v>
       </c>
       <c r="B162" t="n">
-        <v>231.238905551733</v>
+        <v>231.227096933607</v>
       </c>
       <c r="C162" t="n">
         <v>141.826013054688</v>
@@ -53189,7 +53189,7 @@
         <v>97</v>
       </c>
       <c r="I162" t="n">
-        <v>134.238905551733</v>
+        <v>134.227096933607</v>
       </c>
       <c r="J162" t="s">
         <v>14</v>
@@ -53209,7 +53209,7 @@
         <v>44348</v>
       </c>
       <c r="B163" t="n">
-        <v>253.447496021489</v>
+        <v>253.400331849491</v>
       </c>
       <c r="C163" t="n">
         <v>153.909943721984</v>
@@ -53230,7 +53230,7 @@
         <v>109</v>
       </c>
       <c r="I163" t="n">
-        <v>144.447496021489</v>
+        <v>144.400331849491</v>
       </c>
       <c r="J163" t="s">
         <v>14</v>
@@ -53250,7 +53250,7 @@
         <v>44378</v>
       </c>
       <c r="B164" t="n">
-        <v>261.144670645668</v>
+        <v>261.063507914059</v>
       </c>
       <c r="C164" t="n">
         <v>156.919104546279</v>
@@ -53271,7 +53271,7 @@
         <v>92</v>
       </c>
       <c r="I164" t="n">
-        <v>169.144670645668</v>
+        <v>169.063507914059</v>
       </c>
       <c r="J164" t="s">
         <v>14</v>
@@ -53291,7 +53291,7 @@
         <v>44409</v>
       </c>
       <c r="B165" t="n">
-        <v>230.425473848545</v>
+        <v>230.397389389721</v>
       </c>
       <c r="C165" t="n">
         <v>137.722690745677</v>
@@ -53312,7 +53312,7 @@
         <v>60</v>
       </c>
       <c r="I165" t="n">
-        <v>170.425473848545</v>
+        <v>170.397389389721</v>
       </c>
       <c r="J165" t="s">
         <v>14</v>
@@ -53332,7 +53332,7 @@
         <v>44440</v>
       </c>
       <c r="B166" t="n">
-        <v>219.026690022364</v>
+        <v>219.048904678928</v>
       </c>
       <c r="C166" t="n">
         <v>129.31702760824</v>
@@ -53353,7 +53353,7 @@
         <v>49</v>
       </c>
       <c r="I166" t="n">
-        <v>170.026690022364</v>
+        <v>170.048904678928</v>
       </c>
       <c r="J166" t="s">
         <v>14</v>
@@ -53373,7 +53373,7 @@
         <v>44470</v>
       </c>
       <c r="B167" t="n">
-        <v>202.589607349981</v>
+        <v>202.664009449246</v>
       </c>
       <c r="C167" t="n">
         <v>116.783105600643</v>
@@ -53394,7 +53394,7 @@
         <v>46</v>
       </c>
       <c r="I167" t="n">
-        <v>156.589607349981</v>
+        <v>156.664009449246</v>
       </c>
       <c r="J167" t="s">
         <v>14</v>
@@ -53414,7 +53414,7 @@
         <v>44501</v>
       </c>
       <c r="B168" t="n">
-        <v>218.064096253975</v>
+        <v>218.075500202083</v>
       </c>
       <c r="C168" t="n">
         <v>123.7084654199</v>
@@ -53435,7 +53435,7 @@
         <v>62</v>
       </c>
       <c r="I168" t="n">
-        <v>156.064096253975</v>
+        <v>156.075500202083</v>
       </c>
       <c r="J168" t="s">
         <v>14</v>
@@ -53455,7 +53455,7 @@
         <v>44531</v>
       </c>
       <c r="B169" t="n">
-        <v>197.346032824699</v>
+        <v>197.408154516907</v>
       </c>
       <c r="C169" t="n">
         <v>108.328888348427</v>
@@ -53476,7 +53476,7 @@
         <v>72</v>
       </c>
       <c r="I169" t="n">
-        <v>125.346032824699</v>
+        <v>125.408154516907</v>
       </c>
       <c r="J169" t="s">
         <v>14</v>
@@ -53496,7 +53496,7 @@
         <v>44562</v>
       </c>
       <c r="B170" t="n">
-        <v>254.615395678631</v>
+        <v>254.652841766415</v>
       </c>
       <c r="C170" t="n">
         <v>141.46341523127</v>
@@ -53517,7 +53517,7 @@
         <v>26</v>
       </c>
       <c r="I170" t="n">
-        <v>228.615395678631</v>
+        <v>228.652841766415</v>
       </c>
       <c r="J170" t="s">
         <v>14</v>
@@ -53537,7 +53537,7 @@
         <v>44593</v>
       </c>
       <c r="B171" t="n">
-        <v>229.354315247034</v>
+        <v>229.382924971597</v>
       </c>
       <c r="C171" t="n">
         <v>127.271112255047</v>
@@ -53558,7 +53558,7 @@
         <v>30</v>
       </c>
       <c r="I171" t="n">
-        <v>199.354315247034</v>
+        <v>199.382924971597</v>
       </c>
       <c r="J171" t="s">
         <v>14</v>
@@ -53578,7 +53578,7 @@
         <v>44621</v>
       </c>
       <c r="B172" t="n">
-        <v>187.016768608018</v>
+        <v>187.093681111247</v>
       </c>
       <c r="C172" t="n">
         <v>102.402055551194</v>
@@ -53599,7 +53599,7 @@
         <v>31</v>
       </c>
       <c r="I172" t="n">
-        <v>156.016768608018</v>
+        <v>156.093681111247</v>
       </c>
       <c r="J172" t="s">
         <v>14</v>
@@ -53619,7 +53619,7 @@
         <v>44652</v>
       </c>
       <c r="B173" t="n">
-        <v>203.267819877926</v>
+        <v>203.345565118726</v>
       </c>
       <c r="C173" t="n">
         <v>108.955516169436</v>
@@ -53640,7 +53640,7 @@
         <v>34</v>
       </c>
       <c r="I173" t="n">
-        <v>169.267819877926</v>
+        <v>169.345565118726</v>
       </c>
       <c r="J173" t="s">
         <v>14</v>
@@ -53660,7 +53660,7 @@
         <v>44682</v>
       </c>
       <c r="B174" t="n">
-        <v>226.86002393882</v>
+        <v>226.909030599381</v>
       </c>
       <c r="C174" t="n">
         <v>119.201223405021</v>
@@ -53681,7 +53681,7 @@
         <v>37</v>
       </c>
       <c r="I174" t="n">
-        <v>189.86002393882</v>
+        <v>189.909030599381</v>
       </c>
       <c r="J174" t="s">
         <v>14</v>
@@ -53701,7 +53701,7 @@
         <v>44713</v>
       </c>
       <c r="B175" t="n">
-        <v>246.376425371712</v>
+        <v>246.391523461183</v>
       </c>
       <c r="C175" t="n">
         <v>127.777574385447</v>
@@ -53722,7 +53722,7 @@
         <v>62</v>
       </c>
       <c r="I175" t="n">
-        <v>184.376425371712</v>
+        <v>184.391523461183</v>
       </c>
       <c r="J175" t="s">
         <v>14</v>
@@ -53742,7 +53742,7 @@
         <v>44743</v>
       </c>
       <c r="B176" t="n">
-        <v>252.136417478754</v>
+        <v>252.11880287314</v>
       </c>
       <c r="C176" t="n">
         <v>130.237359766019</v>
@@ -53763,7 +53763,7 @@
         <v>79</v>
       </c>
       <c r="I176" t="n">
-        <v>173.136417478754</v>
+        <v>173.11880287314</v>
       </c>
       <c r="J176" t="s">
         <v>14</v>
@@ -53783,7 +53783,7 @@
         <v>44774</v>
       </c>
       <c r="B177" t="n">
-        <v>223.624418160636</v>
+        <v>223.617555974129</v>
       </c>
       <c r="C177" t="n">
         <v>116.118219718871</v>
@@ -53804,7 +53804,7 @@
         <v>217</v>
       </c>
       <c r="I177" t="n">
-        <v>6.62441816063614</v>
+        <v>6.61755597412946</v>
       </c>
       <c r="J177" t="s">
         <v>14</v>
@@ -53824,7 +53824,7 @@
         <v>44805</v>
       </c>
       <c r="B178" t="n">
-        <v>213.23165876462</v>
+        <v>213.252662356864</v>
       </c>
       <c r="C178" t="n">
         <v>109.895473802937</v>
@@ -53845,7 +53845,7 @@
         <v>96</v>
       </c>
       <c r="I178" t="n">
-        <v>117.23165876462</v>
+        <v>117.252662356864</v>
       </c>
       <c r="J178" t="s">
         <v>14</v>
@@ -53865,7 +53865,7 @@
         <v>44835</v>
       </c>
       <c r="B179" t="n">
-        <v>198.232955221152</v>
+        <v>198.291118387014</v>
       </c>
       <c r="C179" t="n">
         <v>100.353933030024</v>
@@ -53886,7 +53886,7 @@
         <v>92</v>
       </c>
       <c r="I179" t="n">
-        <v>106.232955221152</v>
+        <v>106.291118387014</v>
       </c>
       <c r="J179" t="s">
         <v>14</v>
@@ -53906,7 +53906,7 @@
         <v>44866</v>
       </c>
       <c r="B180" t="n">
-        <v>211.154838766562</v>
+        <v>211.194581792143</v>
       </c>
       <c r="C180" t="n">
         <v>105.876923837182</v>
@@ -53927,7 +53927,7 @@
         <v>74</v>
       </c>
       <c r="I180" t="n">
-        <v>137.154838766562</v>
+        <v>137.194581792143</v>
       </c>
       <c r="J180" t="s">
         <v>14</v>
@@ -53947,7 +53947,7 @@
         <v>44896</v>
       </c>
       <c r="B181" t="n">
-        <v>192.730125880723</v>
+        <v>192.787690464356</v>
       </c>
       <c r="C181" t="n">
         <v>93.9520022817952</v>
@@ -53968,7 +53968,7 @@
         <v>79</v>
       </c>
       <c r="I181" t="n">
-        <v>113.730125880723</v>
+        <v>113.787690464356</v>
       </c>
       <c r="J181" t="s">
         <v>14</v>
@@ -53988,7 +53988,7 @@
         <v>44927</v>
       </c>
       <c r="B182" t="n">
-        <v>246.236768376964</v>
+        <v>246.291091123152</v>
       </c>
       <c r="C182" t="n">
         <v>120.172061969526</v>
@@ -54009,7 +54009,7 @@
         <v>149</v>
       </c>
       <c r="I182" t="n">
-        <v>97.2367683769638</v>
+        <v>97.2910911231518</v>
       </c>
       <c r="J182" t="s">
         <v>14</v>
@@ -54029,7 +54029,7 @@
         <v>44958</v>
       </c>
       <c r="B183" t="n">
-        <v>222.358511960042</v>
+        <v>222.407473299027</v>
       </c>
       <c r="C183" t="n">
         <v>109.336417498127</v>
@@ -54050,7 +54050,7 @@
         <v>117</v>
       </c>
       <c r="I183" t="n">
-        <v>105.358511960042</v>
+        <v>105.407473299027</v>
       </c>
       <c r="J183" t="s">
         <v>14</v>
@@ -54062,7 +54062,7 @@
         <v>26</v>
       </c>
       <c r="M183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
@@ -54070,7 +54070,7 @@
         <v>44986</v>
       </c>
       <c r="B184" t="n">
-        <v>183.213764031367</v>
+        <v>183.283012686082</v>
       </c>
       <c r="C184" t="n">
         <v>89.7284552740362</v>
@@ -54091,7 +54091,7 @@
         <v>138</v>
       </c>
       <c r="I184" t="n">
-        <v>45.2137640313674</v>
+        <v>45.2830126860815</v>
       </c>
       <c r="J184" t="s">
         <v>14</v>
@@ -54103,7 +54103,7 @@
         <v>26</v>
       </c>
       <c r="M184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185">
@@ -54111,7 +54111,7 @@
         <v>45017</v>
       </c>
       <c r="B185" t="n">
-        <v>199.138504209688</v>
+        <v>199.218708000106</v>
       </c>
       <c r="C185" t="n">
         <v>95.0744105932967</v>
@@ -54132,7 +54132,7 @@
         <v>189</v>
       </c>
       <c r="I185" t="n">
-        <v>10.1385042096883</v>
+        <v>10.2187080001061</v>
       </c>
       <c r="J185" t="s">
         <v>14</v>
@@ -54152,7 +54152,7 @@
         <v>45047</v>
       </c>
       <c r="B186" t="n">
-        <v>221.805675910553</v>
+        <v>221.877850849468</v>
       </c>
       <c r="C186" t="n">
         <v>103.31833065883</v>
@@ -54173,7 +54173,7 @@
         <v>212</v>
       </c>
       <c r="I186" t="n">
-        <v>9.80567591055308</v>
+        <v>9.87785084946842</v>
       </c>
       <c r="J186" t="s">
         <v>14</v>
@@ -54193,7 +54193,7 @@
         <v>45078</v>
       </c>
       <c r="B187" t="n">
-        <v>240.193500474653</v>
+        <v>240.24585488336</v>
       </c>
       <c r="C187" t="n">
         <v>110.175936899035</v>
@@ -54212,7 +54212,7 @@
         <v>264</v>
       </c>
       <c r="I187" t="n">
-        <v>-23.806499525347</v>
+        <v>-23.7541451166395</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
@@ -54232,7 +54232,7 @@
         <v>45108</v>
       </c>
       <c r="B188" t="n">
-        <v>245.063652007003</v>
+        <v>245.092296915587</v>
       </c>
       <c r="C188" t="n">
         <v>112.208012942677</v>
@@ -54251,7 +54251,7 @@
         <v>289</v>
       </c>
       <c r="I188" t="n">
-        <v>-43.936347992997</v>
+        <v>-43.9077030844129</v>
       </c>
       <c r="J188" t="s">
         <v>19</v>
@@ -54271,7 +54271,7 @@
         <v>45139</v>
       </c>
       <c r="B189" t="n">
-        <v>217.784136458075</v>
+        <v>217.807138170104</v>
       </c>
       <c r="C189" t="n">
         <v>101.139557790893</v>
@@ -54292,7 +54292,7 @@
         <v>234</v>
       </c>
       <c r="I189" t="n">
-        <v>-16.2158635419252</v>
+        <v>-16.1928618298964</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -54312,7 +54312,7 @@
         <v>45170</v>
       </c>
       <c r="B190" t="n">
-        <v>207.881562048221</v>
+        <v>207.913898018791</v>
       </c>
       <c r="C190" t="n">
         <v>96.2336517542998</v>
@@ -54333,7 +54333,7 @@
         <v>193</v>
       </c>
       <c r="I190" t="n">
-        <v>14.8815620482211</v>
+        <v>14.9138980187911</v>
       </c>
       <c r="J190" t="s">
         <v>14</v>
@@ -54353,7 +54353,7 @@
         <v>45200</v>
       </c>
       <c r="B191" t="n">
-        <v>194.016907102939</v>
+        <v>194.069094413296</v>
       </c>
       <c r="C191" t="n">
         <v>88.5751739882669</v>
@@ -54374,7 +54374,7 @@
         <v>193</v>
       </c>
       <c r="I191" t="n">
-        <v>1.01690710293903</v>
+        <v>1.06909441329577</v>
       </c>
       <c r="J191" t="s">
         <v>14</v>
@@ -54394,7 +54394,7 @@
         <v>45231</v>
       </c>
       <c r="B192" t="n">
-        <v>206.316352268705</v>
+        <v>206.367690370927</v>
       </c>
       <c r="C192" t="n">
         <v>93.1297191547481</v>
@@ -54415,7 +54415,7 @@
         <v>183</v>
       </c>
       <c r="I192" t="n">
-        <v>23.3163522687047</v>
+        <v>23.3676903709269</v>
       </c>
       <c r="J192" t="s">
         <v>14</v>
@@ -54435,7 +54435,7 @@
         <v>45261</v>
       </c>
       <c r="B193" t="n">
-        <v>189.01992753818</v>
+        <v>189.078628648095</v>
       </c>
       <c r="C193" t="n">
         <v>83.4469401030609</v>
@@ -54456,7 +54456,7 @@
         <v>245</v>
       </c>
       <c r="I193" t="n">
-        <v>-55.9800724618204</v>
+        <v>-55.9213713519052</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -56026,7 +56026,7 @@
         <v>16</v>
       </c>
       <c r="M231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="232">
@@ -56067,7 +56067,7 @@
         <v>16</v>
       </c>
       <c r="M232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="233">
@@ -57940,7 +57940,7 @@
         <v>16</v>
       </c>
       <c r="M279" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -57979,7 +57979,7 @@
         <v>16</v>
       </c>
       <c r="M280" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281">
@@ -59874,7 +59874,7 @@
         <v>26</v>
       </c>
       <c r="M327" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -59915,7 +59915,7 @@
         <v>26</v>
       </c>
       <c r="M328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329">
